--- a/aut/xlsxs/2023_Autentikus.xlsx
+++ b/aut/xlsxs/2023_Autentikus.xlsx
@@ -3416,7 +3416,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="38" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3730,14 +3730,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF00B0F0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="238"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="238"/>
@@ -4237,7 +4229,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="341">
+  <cellXfs count="339">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -4413,9 +4405,6 @@
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4446,9 +4435,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
@@ -5008,18 +4994,69 @@
     <xf numFmtId="0" fontId="36" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5032,45 +5069,33 @@
     <xf numFmtId="0" fontId="15" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="32" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -5085,45 +5110,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5411,8 +5397,8 @@
   </sheetPr>
   <dimension ref="A1:J209"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A169" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="F155" sqref="F155"/>
+    <sheetView showGridLines="0" topLeftCell="A152" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D144" sqref="D144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5430,2094 +5416,2094 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="310"/>
-      <c r="B1" s="312" t="s">
+      <c r="A1" s="307"/>
+      <c r="B1" s="309" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="119" t="s">
+      <c r="C1" s="117" t="s">
         <v>44</v>
       </c>
-      <c r="D1" s="120" t="s">
+      <c r="D1" s="118" t="s">
         <v>45</v>
       </c>
-      <c r="E1" s="158" t="s">
+      <c r="E1" s="156" t="s">
         <v>9</v>
       </c>
-      <c r="F1" s="121" t="s">
+      <c r="F1" s="119" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="122" t="s">
+      <c r="G1" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="122" t="s">
+      <c r="H1" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="122" t="s">
+      <c r="I1" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="J1" s="122" t="s">
+      <c r="J1" s="120" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="311"/>
-      <c r="B2" s="313"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="125"/>
-      <c r="F2" s="126"/>
-      <c r="G2" s="127"/>
-      <c r="H2" s="127"/>
-      <c r="I2" s="127"/>
-      <c r="J2" s="127"/>
+      <c r="A2" s="308"/>
+      <c r="B2" s="310"/>
+      <c r="C2" s="121"/>
+      <c r="D2" s="122"/>
+      <c r="E2" s="123"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="125"/>
+      <c r="I2" s="125"/>
+      <c r="J2" s="125"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="128">
+      <c r="A3" s="126">
         <v>44927</v>
       </c>
-      <c r="B3" s="129" t="s">
+      <c r="B3" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="130"/>
-      <c r="D3" s="130"/>
-      <c r="E3" s="130"/>
-      <c r="F3" s="130"/>
-      <c r="G3" s="130"/>
-      <c r="H3" s="130"/>
-      <c r="I3" s="130"/>
-      <c r="J3" s="130"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="128"/>
+      <c r="I3" s="128"/>
+      <c r="J3" s="128"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="118">
+      <c r="A4" s="116">
         <v>44928</v>
       </c>
-      <c r="B4" s="131" t="s">
+      <c r="B4" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="132"/>
-      <c r="D4" s="132"/>
-      <c r="E4" s="132"/>
-      <c r="F4" s="132"/>
-      <c r="G4" s="132"/>
-      <c r="H4" s="132"/>
-      <c r="I4" s="132"/>
-      <c r="J4" s="132"/>
+      <c r="C4" s="130"/>
+      <c r="D4" s="130"/>
+      <c r="E4" s="130"/>
+      <c r="F4" s="130"/>
+      <c r="G4" s="130"/>
+      <c r="H4" s="130"/>
+      <c r="I4" s="130"/>
+      <c r="J4" s="130"/>
     </row>
     <row r="5" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="118">
+      <c r="A5" s="116">
         <v>44929</v>
       </c>
-      <c r="B5" s="133" t="s">
+      <c r="B5" s="131" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="134"/>
-      <c r="I5" s="134"/>
-      <c r="J5" s="134"/>
+      <c r="C5" s="132"/>
+      <c r="D5" s="132"/>
+      <c r="E5" s="132"/>
+      <c r="F5" s="132"/>
+      <c r="G5" s="132"/>
+      <c r="H5" s="132"/>
+      <c r="I5" s="132"/>
+      <c r="J5" s="132"/>
     </row>
     <row r="6" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A6" s="118">
+      <c r="A6" s="116">
         <v>44930</v>
       </c>
-      <c r="B6" s="131" t="s">
+      <c r="B6" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="135"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="136"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
+      <c r="C6" s="133"/>
+      <c r="D6" s="132"/>
+      <c r="E6" s="132"/>
+      <c r="F6" s="132"/>
+      <c r="G6" s="132"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="132"/>
+      <c r="J6" s="132"/>
     </row>
     <row r="7" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="118">
+      <c r="A7" s="116">
         <v>44931</v>
       </c>
-      <c r="B7" s="133" t="s">
+      <c r="B7" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="208" t="s">
+      <c r="C7" s="206" t="s">
         <v>62</v>
       </c>
-      <c r="D7" s="134"/>
-      <c r="E7" s="137"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134" t="s">
+      <c r="D7" s="132"/>
+      <c r="E7" s="135"/>
+      <c r="F7" s="132"/>
+      <c r="G7" s="132" t="s">
         <v>60</v>
       </c>
-      <c r="H7" s="134" t="s">
+      <c r="H7" s="132" t="s">
         <v>61</v>
       </c>
-      <c r="I7" s="134"/>
-      <c r="J7" s="134"/>
+      <c r="I7" s="132"/>
+      <c r="J7" s="132"/>
     </row>
     <row r="8" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A8" s="118">
+      <c r="A8" s="116">
         <v>44932</v>
       </c>
-      <c r="B8" s="131" t="s">
+      <c r="B8" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="205" t="s">
+      <c r="C8" s="203" t="s">
         <v>63</v>
       </c>
-      <c r="D8" s="134"/>
-      <c r="E8" s="205" t="s">
+      <c r="D8" s="132"/>
+      <c r="E8" s="203" t="s">
         <v>63</v>
       </c>
-      <c r="F8" s="134"/>
-      <c r="G8" s="134"/>
-      <c r="H8" s="134" t="s">
+      <c r="F8" s="132"/>
+      <c r="G8" s="132"/>
+      <c r="H8" s="132" t="s">
         <v>64</v>
       </c>
-      <c r="I8" s="134"/>
-      <c r="J8" s="134"/>
+      <c r="I8" s="132"/>
+      <c r="J8" s="132"/>
     </row>
     <row r="9" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="138">
+      <c r="A9" s="136">
         <v>44933</v>
       </c>
-      <c r="B9" s="139" t="s">
+      <c r="B9" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="177" t="s">
+      <c r="C9" s="175" t="s">
         <v>63</v>
       </c>
-      <c r="D9" s="130"/>
-      <c r="E9" s="177" t="s">
+      <c r="D9" s="128"/>
+      <c r="E9" s="175" t="s">
         <v>63</v>
       </c>
-      <c r="F9" s="130"/>
-      <c r="G9" s="130"/>
-      <c r="H9" s="130"/>
-      <c r="I9" s="130"/>
-      <c r="J9" s="130"/>
+      <c r="F9" s="128"/>
+      <c r="G9" s="128"/>
+      <c r="H9" s="128"/>
+      <c r="I9" s="128"/>
+      <c r="J9" s="128"/>
     </row>
     <row r="10" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A10" s="138">
+      <c r="A10" s="136">
         <v>44934</v>
       </c>
-      <c r="B10" s="140" t="s">
+      <c r="B10" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="141"/>
-      <c r="D10" s="130"/>
-      <c r="E10" s="142"/>
-      <c r="F10" s="130"/>
-      <c r="G10" s="130"/>
-      <c r="H10" s="130"/>
-      <c r="I10" s="130"/>
-      <c r="J10" s="130"/>
+      <c r="C10" s="139"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="140"/>
+      <c r="F10" s="128"/>
+      <c r="G10" s="128"/>
+      <c r="H10" s="128"/>
+      <c r="I10" s="128"/>
+      <c r="J10" s="128"/>
     </row>
     <row r="11" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="118">
+      <c r="A11" s="116">
         <v>44935</v>
       </c>
-      <c r="B11" s="133" t="s">
+      <c r="B11" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="132"/>
-      <c r="D11" s="132"/>
-      <c r="E11" s="132"/>
-      <c r="F11" s="132"/>
-      <c r="G11" s="132"/>
-      <c r="H11" s="132"/>
-      <c r="I11" s="132"/>
-      <c r="J11" s="132"/>
+      <c r="C11" s="130"/>
+      <c r="D11" s="130"/>
+      <c r="E11" s="130"/>
+      <c r="F11" s="130"/>
+      <c r="G11" s="130"/>
+      <c r="H11" s="130"/>
+      <c r="I11" s="130"/>
+      <c r="J11" s="130"/>
     </row>
     <row r="12" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A12" s="118">
+      <c r="A12" s="116">
         <v>44936</v>
       </c>
-      <c r="B12" s="131" t="s">
+      <c r="B12" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="D12" s="134"/>
-      <c r="E12" s="134"/>
-      <c r="F12" s="134"/>
-      <c r="G12" s="134"/>
-      <c r="H12" s="134"/>
-      <c r="I12" s="134"/>
-      <c r="J12" s="134"/>
+      <c r="D12" s="132"/>
+      <c r="E12" s="132"/>
+      <c r="F12" s="132"/>
+      <c r="G12" s="132"/>
+      <c r="H12" s="132"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="132"/>
     </row>
     <row r="13" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A13" s="118">
+      <c r="A13" s="116">
         <v>44937</v>
       </c>
-      <c r="B13" s="133" t="s">
+      <c r="B13" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="C13" s="143"/>
-      <c r="D13" s="134"/>
-      <c r="E13" s="134"/>
-      <c r="F13" s="134"/>
-      <c r="G13" s="134"/>
-      <c r="H13" s="136"/>
-      <c r="I13" s="134"/>
-      <c r="J13" s="134"/>
+      <c r="C13" s="141"/>
+      <c r="D13" s="132"/>
+      <c r="E13" s="132"/>
+      <c r="F13" s="132"/>
+      <c r="G13" s="132"/>
+      <c r="H13" s="134"/>
+      <c r="I13" s="132"/>
+      <c r="J13" s="132"/>
     </row>
     <row r="14" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A14" s="118">
+      <c r="A14" s="116">
         <v>44938</v>
       </c>
-      <c r="B14" s="131" t="s">
+      <c r="B14" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="207" t="s">
+      <c r="C14" s="205" t="s">
         <v>193</v>
       </c>
-      <c r="D14" s="134"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="134"/>
-      <c r="G14" s="134"/>
-      <c r="H14" s="134" t="s">
+      <c r="D14" s="132"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="132"/>
+      <c r="H14" s="132" t="s">
         <v>194</v>
       </c>
-      <c r="I14" s="134"/>
-      <c r="J14" s="134"/>
+      <c r="I14" s="132"/>
+      <c r="J14" s="132"/>
     </row>
     <row r="15" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A15" s="118">
+      <c r="A15" s="116">
         <v>44939</v>
       </c>
-      <c r="B15" s="133" t="s">
+      <c r="B15" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="207" t="s">
+      <c r="C15" s="205" t="s">
         <v>195</v>
       </c>
-      <c r="D15" s="134"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="134"/>
-      <c r="G15" s="134"/>
-      <c r="H15" s="134"/>
-      <c r="I15" s="134"/>
-      <c r="J15" s="134"/>
+      <c r="D15" s="132"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="132"/>
+      <c r="H15" s="132"/>
+      <c r="I15" s="132"/>
+      <c r="J15" s="132"/>
     </row>
     <row r="16" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="138">
+      <c r="A16" s="136">
         <v>44940</v>
       </c>
-      <c r="B16" s="140" t="s">
+      <c r="B16" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="C16" s="130"/>
-      <c r="D16" s="130"/>
-      <c r="E16" s="130" t="s">
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128" t="s">
         <v>217</v>
       </c>
-      <c r="F16" s="130"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="130"/>
-      <c r="I16" s="130"/>
-      <c r="J16" s="130"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="128"/>
+      <c r="I16" s="128"/>
+      <c r="J16" s="128"/>
     </row>
     <row r="17" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="138">
+      <c r="A17" s="136">
         <v>44941</v>
       </c>
-      <c r="B17" s="139" t="s">
+      <c r="B17" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="130"/>
-      <c r="D17" s="130"/>
-      <c r="E17" s="130"/>
-      <c r="F17" s="130"/>
-      <c r="G17" s="130"/>
-      <c r="H17" s="130"/>
-      <c r="I17" s="130"/>
-      <c r="J17" s="130"/>
+      <c r="C17" s="128"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="128"/>
+      <c r="G17" s="128"/>
+      <c r="H17" s="128"/>
+      <c r="I17" s="128"/>
+      <c r="J17" s="128"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="118">
+      <c r="A18" s="116">
         <v>44942</v>
       </c>
-      <c r="B18" s="131" t="s">
+      <c r="B18" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="C18" s="132"/>
-      <c r="D18" s="132"/>
-      <c r="E18" s="132"/>
-      <c r="F18" s="132"/>
-      <c r="G18" s="132"/>
-      <c r="H18" s="132"/>
-      <c r="I18" s="132"/>
-      <c r="J18" s="132"/>
+      <c r="C18" s="130"/>
+      <c r="D18" s="130"/>
+      <c r="E18" s="130"/>
+      <c r="F18" s="130"/>
+      <c r="G18" s="130"/>
+      <c r="H18" s="130"/>
+      <c r="I18" s="130"/>
+      <c r="J18" s="130"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="118">
+      <c r="A19" s="116">
         <v>44943</v>
       </c>
-      <c r="B19" s="132" t="s">
+      <c r="B19" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="134"/>
-      <c r="E19" s="134"/>
-      <c r="F19" s="134"/>
-      <c r="G19" s="134"/>
-      <c r="H19" s="134"/>
-      <c r="I19" s="134"/>
-      <c r="J19" s="134"/>
+      <c r="D19" s="132"/>
+      <c r="E19" s="132"/>
+      <c r="F19" s="132"/>
+      <c r="G19" s="132"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="132"/>
     </row>
     <row r="20" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="118">
+      <c r="A20" s="116">
         <v>44944</v>
       </c>
-      <c r="B20" s="131" t="s">
+      <c r="B20" s="129" t="s">
         <v>4</v>
       </c>
-      <c r="C20" s="164"/>
-      <c r="D20" s="132"/>
-      <c r="E20" s="132"/>
-      <c r="F20" s="132"/>
-      <c r="G20" s="132"/>
-      <c r="H20" s="132"/>
-      <c r="I20" s="132"/>
-      <c r="J20" s="132"/>
+      <c r="C20" s="162"/>
+      <c r="D20" s="130"/>
+      <c r="E20" s="130"/>
+      <c r="F20" s="130"/>
+      <c r="G20" s="130"/>
+      <c r="H20" s="130"/>
+      <c r="I20" s="130"/>
+      <c r="J20" s="130"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="118">
+      <c r="A21" s="116">
         <v>44945</v>
       </c>
-      <c r="B21" s="133" t="s">
+      <c r="B21" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="C21" s="237"/>
-      <c r="D21" s="132"/>
-      <c r="E21" s="145"/>
-      <c r="F21" s="132"/>
-      <c r="G21" s="132"/>
-      <c r="H21" s="132"/>
-      <c r="I21" s="132"/>
-      <c r="J21" s="132"/>
+      <c r="C21" s="235"/>
+      <c r="D21" s="130"/>
+      <c r="E21" s="143"/>
+      <c r="F21" s="130"/>
+      <c r="G21" s="130"/>
+      <c r="H21" s="130"/>
+      <c r="I21" s="130"/>
+      <c r="J21" s="130"/>
     </row>
     <row r="22" spans="1:10" ht="83.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="118">
+      <c r="A22" s="116">
         <v>44946</v>
       </c>
-      <c r="B22" s="155" t="s">
+      <c r="B22" s="153" t="s">
         <v>6</v>
       </c>
-      <c r="C22" s="224" t="s">
+      <c r="C22" s="222" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="132"/>
-      <c r="E22" s="224" t="s">
+      <c r="D22" s="130"/>
+      <c r="E22" s="222" t="s">
         <v>216</v>
       </c>
-      <c r="G22" s="144" t="s">
+      <c r="G22" s="142" t="s">
         <v>66</v>
       </c>
-      <c r="H22" s="132"/>
-      <c r="I22" s="132"/>
-      <c r="J22" s="174" t="s">
+      <c r="H22" s="130"/>
+      <c r="I22" s="130"/>
+      <c r="J22" s="172" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="20" customFormat="1" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="118"/>
-      <c r="B23" s="155"/>
-      <c r="C23" s="164"/>
-      <c r="D23" s="132"/>
-      <c r="E23" s="238" t="s">
+      <c r="A23" s="116"/>
+      <c r="B23" s="153"/>
+      <c r="C23" s="162"/>
+      <c r="D23" s="130"/>
+      <c r="E23" s="236" t="s">
         <v>219</v>
       </c>
-      <c r="F23" s="224" t="s">
+      <c r="F23" s="222" t="s">
         <v>223</v>
       </c>
-      <c r="G23" s="144" t="s">
+      <c r="G23" s="142" t="s">
         <v>68</v>
       </c>
-      <c r="H23" s="132"/>
-      <c r="I23" s="132"/>
-      <c r="J23" s="174" t="s">
+      <c r="H23" s="130"/>
+      <c r="I23" s="130"/>
+      <c r="J23" s="172" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="138">
+      <c r="A24" s="136">
         <v>44947</v>
       </c>
-      <c r="B24" s="139" t="s">
+      <c r="B24" s="137" t="s">
         <v>0</v>
       </c>
-      <c r="C24" s="130"/>
-      <c r="D24" s="130"/>
-      <c r="E24" s="130"/>
-      <c r="F24" s="146"/>
-      <c r="G24" s="147"/>
-      <c r="H24" s="130"/>
-      <c r="I24" s="130"/>
-      <c r="J24" s="147"/>
+      <c r="C24" s="128"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="144"/>
+      <c r="G24" s="145"/>
+      <c r="H24" s="128"/>
+      <c r="I24" s="128"/>
+      <c r="J24" s="145"/>
     </row>
     <row r="25" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A25" s="138">
+      <c r="A25" s="136">
         <v>44948</v>
       </c>
-      <c r="B25" s="140" t="s">
+      <c r="B25" s="138" t="s">
         <v>1</v>
       </c>
-      <c r="C25" s="146"/>
-      <c r="D25" s="130"/>
-      <c r="E25" s="146" t="s">
+      <c r="C25" s="144"/>
+      <c r="D25" s="128"/>
+      <c r="E25" s="144" t="s">
         <v>352</v>
       </c>
-      <c r="F25" s="146"/>
-      <c r="G25" s="147"/>
-      <c r="H25" s="130"/>
-      <c r="I25" s="130"/>
-      <c r="J25" s="147"/>
+      <c r="F25" s="144"/>
+      <c r="G25" s="145"/>
+      <c r="H25" s="128"/>
+      <c r="I25" s="128"/>
+      <c r="J25" s="145"/>
     </row>
     <row r="26" spans="1:10" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A26" s="118">
+      <c r="A26" s="116">
         <v>44949</v>
       </c>
-      <c r="B26" s="133" t="s">
+      <c r="B26" s="131" t="s">
         <v>2</v>
       </c>
-      <c r="C26" s="132"/>
-      <c r="D26" s="132"/>
-      <c r="E26" s="132"/>
-      <c r="F26" s="223"/>
-      <c r="G26" s="132"/>
-      <c r="H26" s="132"/>
-      <c r="I26" s="132"/>
-      <c r="J26" s="132"/>
+      <c r="C26" s="130"/>
+      <c r="D26" s="130"/>
+      <c r="E26" s="130"/>
+      <c r="F26" s="221"/>
+      <c r="G26" s="130"/>
+      <c r="H26" s="130"/>
+      <c r="I26" s="130"/>
+      <c r="J26" s="130"/>
     </row>
     <row r="27" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A27" s="118">
+      <c r="A27" s="116">
         <v>44950</v>
       </c>
-      <c r="B27" s="131" t="s">
+      <c r="B27" s="129" t="s">
         <v>3</v>
       </c>
-      <c r="C27" s="175" t="s">
+      <c r="C27" s="173" t="s">
         <v>230</v>
       </c>
-      <c r="D27" s="132"/>
-      <c r="E27" s="132"/>
-      <c r="F27" s="222"/>
-      <c r="G27" s="132"/>
-      <c r="H27" s="132"/>
-      <c r="I27" s="132"/>
-      <c r="J27" s="132"/>
+      <c r="D27" s="130"/>
+      <c r="E27" s="130"/>
+      <c r="F27" s="220"/>
+      <c r="G27" s="130"/>
+      <c r="H27" s="130"/>
+      <c r="I27" s="130"/>
+      <c r="J27" s="130"/>
     </row>
     <row r="28" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="118">
+      <c r="A28" s="116">
         <v>44951</v>
       </c>
-      <c r="B28" s="133" t="s">
+      <c r="B28" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="C28" s="210"/>
-      <c r="D28" s="132"/>
-      <c r="E28" s="132"/>
-      <c r="F28" s="132"/>
-      <c r="G28" s="132"/>
-      <c r="H28" s="168"/>
-      <c r="I28" s="132"/>
-      <c r="J28" s="168"/>
+      <c r="C28" s="208"/>
+      <c r="D28" s="130"/>
+      <c r="E28" s="130"/>
+      <c r="F28" s="130"/>
+      <c r="G28" s="130"/>
+      <c r="H28" s="166"/>
+      <c r="I28" s="130"/>
+      <c r="J28" s="166"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="118">
+      <c r="A29" s="116">
         <v>44952</v>
       </c>
-      <c r="B29" s="131" t="s">
+      <c r="B29" s="129" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="175" t="s">
+      <c r="C29" s="173" t="s">
         <v>231</v>
       </c>
-      <c r="D29" s="132"/>
-      <c r="E29" s="132"/>
-      <c r="F29" s="132"/>
-      <c r="G29" s="132"/>
-      <c r="H29" s="132"/>
-      <c r="I29" s="132"/>
-      <c r="J29" s="132"/>
+      <c r="D29" s="130"/>
+      <c r="E29" s="130"/>
+      <c r="F29" s="130"/>
+      <c r="G29" s="130"/>
+      <c r="H29" s="130"/>
+      <c r="I29" s="130"/>
+      <c r="J29" s="130"/>
     </row>
     <row r="30" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A30" s="118">
+      <c r="A30" s="116">
         <v>44953</v>
       </c>
-      <c r="B30" s="133" t="s">
+      <c r="B30" s="131" t="s">
         <v>6</v>
       </c>
-      <c r="C30" s="132"/>
-      <c r="D30" s="132"/>
-      <c r="E30" s="132"/>
-      <c r="F30" s="132"/>
-      <c r="G30" s="132"/>
-      <c r="H30" s="132"/>
-      <c r="I30" s="132"/>
-      <c r="J30" s="132"/>
+      <c r="C30" s="130"/>
+      <c r="D30" s="130"/>
+      <c r="E30" s="130"/>
+      <c r="F30" s="130"/>
+      <c r="G30" s="130"/>
+      <c r="H30" s="130"/>
+      <c r="I30" s="130"/>
+      <c r="J30" s="130"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A31" s="138">
+      <c r="A31" s="136">
         <v>44954</v>
       </c>
-      <c r="B31" s="140" t="s">
+      <c r="B31" s="138" t="s">
         <v>0</v>
       </c>
-      <c r="C31" s="212"/>
-      <c r="D31" s="130"/>
-      <c r="E31" s="142" t="s">
+      <c r="C31" s="210"/>
+      <c r="D31" s="128"/>
+      <c r="E31" s="140" t="s">
         <v>220</v>
       </c>
-      <c r="F31" s="130"/>
-      <c r="G31" s="130"/>
-      <c r="H31" s="130"/>
-      <c r="I31" s="130"/>
-      <c r="J31" s="211" t="s">
+      <c r="F31" s="128"/>
+      <c r="G31" s="128"/>
+      <c r="H31" s="128"/>
+      <c r="I31" s="128"/>
+      <c r="J31" s="209" t="s">
         <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="138">
+      <c r="A32" s="136">
         <v>44955</v>
       </c>
-      <c r="B32" s="139" t="s">
+      <c r="B32" s="137" t="s">
         <v>1</v>
       </c>
-      <c r="C32" s="141"/>
-      <c r="D32" s="130"/>
-      <c r="E32" s="130"/>
-      <c r="F32" s="130"/>
-      <c r="G32" s="130"/>
-      <c r="H32" s="130"/>
-      <c r="I32" s="130"/>
-      <c r="J32" s="130"/>
+      <c r="C32" s="139"/>
+      <c r="D32" s="128"/>
+      <c r="E32" s="128"/>
+      <c r="F32" s="128"/>
+      <c r="G32" s="128"/>
+      <c r="H32" s="128"/>
+      <c r="I32" s="128"/>
+      <c r="J32" s="128"/>
     </row>
     <row r="33" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="118">
+      <c r="A33" s="116">
         <v>44956</v>
       </c>
-      <c r="B33" s="131" t="s">
+      <c r="B33" s="129" t="s">
         <v>2</v>
       </c>
-      <c r="C33" s="263" t="s">
+      <c r="C33" s="261" t="s">
         <v>254</v>
       </c>
-      <c r="D33" s="132"/>
-      <c r="E33" s="132"/>
-      <c r="F33" s="132"/>
-      <c r="G33" s="132"/>
-      <c r="H33" s="132"/>
-      <c r="I33" s="132"/>
-      <c r="J33" s="132"/>
+      <c r="D33" s="130"/>
+      <c r="E33" s="130"/>
+      <c r="F33" s="130"/>
+      <c r="G33" s="130"/>
+      <c r="H33" s="130"/>
+      <c r="I33" s="130"/>
+      <c r="J33" s="130"/>
     </row>
     <row r="34" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="118">
+      <c r="A34" s="116">
         <v>44957</v>
       </c>
-      <c r="B34" s="134" t="s">
+      <c r="B34" s="132" t="s">
         <v>3</v>
       </c>
       <c r="C34" s="22"/>
-      <c r="D34" s="134"/>
-      <c r="E34" s="134"/>
-      <c r="F34" s="134"/>
-      <c r="G34" s="134"/>
-      <c r="H34" s="134"/>
-      <c r="I34" s="134"/>
-      <c r="J34" s="134"/>
+      <c r="D34" s="132"/>
+      <c r="E34" s="132"/>
+      <c r="F34" s="132"/>
+      <c r="G34" s="132"/>
+      <c r="H34" s="132"/>
+      <c r="I34" s="132"/>
+      <c r="J34" s="132"/>
     </row>
     <row r="35" spans="1:10" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="150"/>
-      <c r="B35" s="151"/>
-      <c r="C35" s="152"/>
-      <c r="D35" s="153"/>
-      <c r="E35" s="153"/>
-      <c r="F35" s="153"/>
-      <c r="G35" s="153"/>
-      <c r="H35" s="153"/>
-      <c r="I35" s="153"/>
-      <c r="J35" s="153"/>
+      <c r="A35" s="148"/>
+      <c r="B35" s="149"/>
+      <c r="C35" s="150"/>
+      <c r="D35" s="151"/>
+      <c r="E35" s="151"/>
+      <c r="F35" s="151"/>
+      <c r="G35" s="151"/>
+      <c r="H35" s="151"/>
+      <c r="I35" s="151"/>
+      <c r="J35" s="151"/>
     </row>
     <row r="36" spans="1:10" s="4" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A36" s="154"/>
-      <c r="B36" s="155"/>
-      <c r="C36" s="151"/>
-      <c r="D36" s="151"/>
-      <c r="E36" s="151"/>
-      <c r="F36" s="151"/>
-      <c r="G36" s="151"/>
-      <c r="H36" s="151"/>
-      <c r="I36" s="151"/>
-      <c r="J36" s="151"/>
+      <c r="A36" s="152"/>
+      <c r="B36" s="153"/>
+      <c r="C36" s="149"/>
+      <c r="D36" s="149"/>
+      <c r="E36" s="149"/>
+      <c r="F36" s="149"/>
+      <c r="G36" s="149"/>
+      <c r="H36" s="149"/>
+      <c r="I36" s="149"/>
+      <c r="J36" s="149"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A37" s="314" t="s">
+      <c r="A37" s="311" t="s">
         <v>16</v>
       </c>
-      <c r="B37" s="316" t="s">
+      <c r="B37" s="313" t="s">
         <v>15</v>
       </c>
-      <c r="C37" s="156" t="s">
+      <c r="C37" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="D37" s="157" t="s">
+      <c r="D37" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="E37" s="158" t="s">
+      <c r="E37" s="156" t="s">
         <v>9</v>
       </c>
-      <c r="F37" s="121" t="s">
+      <c r="F37" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="G37" s="122" t="s">
+      <c r="G37" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="H37" s="122" t="s">
+      <c r="H37" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="I37" s="122" t="s">
+      <c r="I37" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="J37" s="122" t="s">
+      <c r="J37" s="120" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A38" s="315"/>
-      <c r="B38" s="317"/>
-      <c r="C38" s="159"/>
-      <c r="D38" s="160"/>
-      <c r="E38" s="159"/>
-      <c r="F38" s="160"/>
-      <c r="G38" s="122"/>
-      <c r="H38" s="122"/>
-      <c r="I38" s="122"/>
-      <c r="J38" s="122"/>
+      <c r="A38" s="312"/>
+      <c r="B38" s="314"/>
+      <c r="C38" s="157"/>
+      <c r="D38" s="158"/>
+      <c r="E38" s="157"/>
+      <c r="F38" s="158"/>
+      <c r="G38" s="120"/>
+      <c r="H38" s="120"/>
+      <c r="I38" s="120"/>
+      <c r="J38" s="120"/>
     </row>
     <row r="39" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A39" s="202">
+      <c r="A39" s="200">
         <v>44958</v>
       </c>
-      <c r="B39" s="162" t="s">
+      <c r="B39" s="160" t="s">
         <v>46</v>
       </c>
-      <c r="C39" s="264" t="s">
+      <c r="C39" s="262" t="s">
         <v>255</v>
       </c>
-      <c r="D39" s="134"/>
-      <c r="E39" s="134"/>
-      <c r="F39" s="134"/>
-      <c r="G39" s="134"/>
-      <c r="H39" s="136"/>
-      <c r="I39" s="134"/>
-      <c r="J39" s="134"/>
+      <c r="D39" s="132"/>
+      <c r="E39" s="132"/>
+      <c r="F39" s="132"/>
+      <c r="G39" s="132"/>
+      <c r="H39" s="134"/>
+      <c r="I39" s="132"/>
+      <c r="J39" s="132"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A40" s="202">
+      <c r="A40" s="200">
         <v>44959</v>
       </c>
-      <c r="B40" s="162" t="s">
+      <c r="B40" s="160" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="135"/>
-      <c r="D40" s="134"/>
-      <c r="E40" s="164"/>
-      <c r="F40" s="134"/>
-      <c r="G40" s="136"/>
-      <c r="H40" s="149"/>
-      <c r="I40" s="134"/>
-      <c r="J40" s="165"/>
+      <c r="C40" s="133"/>
+      <c r="D40" s="132"/>
+      <c r="E40" s="162"/>
+      <c r="F40" s="132"/>
+      <c r="G40" s="134"/>
+      <c r="H40" s="147"/>
+      <c r="I40" s="132"/>
+      <c r="J40" s="163"/>
     </row>
     <row r="41" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="202">
+      <c r="A41" s="200">
         <v>44960</v>
       </c>
-      <c r="B41" s="162" t="s">
+      <c r="B41" s="160" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="163"/>
-      <c r="D41" s="149"/>
-      <c r="E41" s="149"/>
-      <c r="F41" s="149"/>
-      <c r="G41" s="149"/>
-      <c r="H41" s="163"/>
-      <c r="I41" s="134"/>
-      <c r="J41" s="134"/>
+      <c r="C41" s="161"/>
+      <c r="D41" s="147"/>
+      <c r="E41" s="147"/>
+      <c r="F41" s="147"/>
+      <c r="G41" s="147"/>
+      <c r="H41" s="161"/>
+      <c r="I41" s="132"/>
+      <c r="J41" s="132"/>
     </row>
     <row r="42" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="161">
+      <c r="A42" s="159">
         <v>44961</v>
       </c>
-      <c r="B42" s="166" t="s">
+      <c r="B42" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="C42" s="141"/>
-      <c r="D42" s="130"/>
-      <c r="E42" s="177" t="s">
+      <c r="C42" s="139"/>
+      <c r="D42" s="128"/>
+      <c r="E42" s="175" t="s">
         <v>198</v>
       </c>
-      <c r="F42" s="130"/>
-      <c r="G42" s="130"/>
-      <c r="H42" s="147" t="s">
+      <c r="F42" s="128"/>
+      <c r="G42" s="128"/>
+      <c r="H42" s="145" t="s">
         <v>199</v>
       </c>
-      <c r="I42" s="130"/>
-      <c r="J42" s="130"/>
+      <c r="I42" s="128"/>
+      <c r="J42" s="128"/>
     </row>
     <row r="43" spans="1:10" s="20" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="161">
+      <c r="A43" s="159">
         <v>44962</v>
       </c>
-      <c r="B43" s="166" t="s">
+      <c r="B43" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="C43" s="261" t="s">
+      <c r="C43" s="259" t="s">
         <v>227</v>
       </c>
-      <c r="D43" s="130"/>
-      <c r="E43" s="146"/>
-      <c r="F43" s="130"/>
-      <c r="G43" s="147"/>
-      <c r="H43" s="130"/>
-      <c r="I43" s="130"/>
-      <c r="J43" s="147"/>
+      <c r="D43" s="128"/>
+      <c r="E43" s="144"/>
+      <c r="F43" s="128"/>
+      <c r="G43" s="145"/>
+      <c r="H43" s="128"/>
+      <c r="I43" s="128"/>
+      <c r="J43" s="145"/>
     </row>
     <row r="44" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A44" s="202">
+      <c r="A44" s="200">
         <v>44963</v>
       </c>
-      <c r="B44" s="162" t="s">
+      <c r="B44" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="C44" s="262" t="s">
+      <c r="C44" s="260" t="s">
         <v>247</v>
       </c>
-      <c r="D44" s="132"/>
-      <c r="E44" s="133"/>
-      <c r="F44" s="144"/>
-      <c r="G44" s="167"/>
-      <c r="H44" s="132"/>
-      <c r="I44" s="132"/>
-      <c r="J44" s="168"/>
+      <c r="D44" s="130"/>
+      <c r="E44" s="131"/>
+      <c r="F44" s="142"/>
+      <c r="G44" s="165"/>
+      <c r="H44" s="130"/>
+      <c r="I44" s="130"/>
+      <c r="J44" s="166"/>
     </row>
     <row r="45" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A45" s="202">
+      <c r="A45" s="200">
         <v>44964</v>
       </c>
-      <c r="B45" s="162" t="s">
+      <c r="B45" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="C45" s="272" t="s">
+      <c r="C45" s="270" t="s">
         <v>247</v>
       </c>
-      <c r="D45" s="132"/>
-      <c r="E45" s="132"/>
-      <c r="F45" s="132"/>
-      <c r="G45" s="132"/>
-      <c r="H45" s="132"/>
-      <c r="J45" s="132"/>
+      <c r="D45" s="130"/>
+      <c r="E45" s="130"/>
+      <c r="F45" s="130"/>
+      <c r="G45" s="130"/>
+      <c r="H45" s="130"/>
+      <c r="J45" s="130"/>
     </row>
     <row r="46" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A46" s="202">
+      <c r="A46" s="200">
         <v>44965</v>
       </c>
-      <c r="B46" s="162" t="s">
+      <c r="B46" s="160" t="s">
         <v>4</v>
       </c>
-      <c r="C46" s="265" t="s">
+      <c r="C46" s="263" t="s">
         <v>247</v>
       </c>
-      <c r="D46" s="132"/>
-      <c r="E46" s="132"/>
-      <c r="F46" s="132"/>
-      <c r="G46" s="132"/>
-      <c r="H46" s="132"/>
-      <c r="I46" s="132" t="s">
+      <c r="D46" s="130"/>
+      <c r="E46" s="130"/>
+      <c r="F46" s="130"/>
+      <c r="G46" s="130"/>
+      <c r="H46" s="130"/>
+      <c r="I46" s="130" t="s">
         <v>252</v>
       </c>
-      <c r="J46" s="132"/>
+      <c r="J46" s="130"/>
     </row>
     <row r="47" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="202">
+      <c r="A47" s="200">
         <v>44966</v>
       </c>
-      <c r="B47" s="162" t="s">
+      <c r="B47" s="160" t="s">
         <v>5</v>
       </c>
-      <c r="C47" s="164" t="s">
+      <c r="C47" s="162" t="s">
         <v>200</v>
       </c>
-      <c r="D47" s="132"/>
-      <c r="E47" s="132"/>
-      <c r="F47" s="132"/>
-      <c r="G47" s="132"/>
-      <c r="H47" s="168" t="s">
+      <c r="D47" s="130"/>
+      <c r="E47" s="130"/>
+      <c r="F47" s="130"/>
+      <c r="G47" s="130"/>
+      <c r="H47" s="166" t="s">
         <v>201</v>
       </c>
-      <c r="I47" s="132" t="s">
+      <c r="I47" s="130" t="s">
         <v>250</v>
       </c>
-      <c r="J47" s="132"/>
+      <c r="J47" s="130"/>
     </row>
     <row r="48" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A48" s="202">
+      <c r="A48" s="200">
         <v>44967</v>
       </c>
-      <c r="B48" s="162" t="s">
+      <c r="B48" s="160" t="s">
         <v>6</v>
       </c>
-      <c r="C48" s="240"/>
-      <c r="D48" s="132"/>
-      <c r="E48" s="132"/>
-      <c r="F48" s="132"/>
-      <c r="G48" s="168"/>
-      <c r="I48" s="132" t="s">
+      <c r="C48" s="238"/>
+      <c r="D48" s="130"/>
+      <c r="E48" s="130"/>
+      <c r="F48" s="130"/>
+      <c r="G48" s="166"/>
+      <c r="I48" s="130" t="s">
         <v>251</v>
       </c>
-      <c r="J48" s="132"/>
+      <c r="J48" s="130"/>
     </row>
     <row r="49" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="161">
+      <c r="A49" s="159">
         <v>44968</v>
       </c>
-      <c r="B49" s="166" t="s">
+      <c r="B49" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="C49" s="186" t="s">
+      <c r="C49" s="184" t="s">
         <v>262</v>
       </c>
-      <c r="D49" s="130"/>
-      <c r="E49" s="130"/>
-      <c r="F49" s="130"/>
-      <c r="G49" s="130"/>
-      <c r="H49" s="130" t="s">
+      <c r="D49" s="128"/>
+      <c r="E49" s="128"/>
+      <c r="F49" s="128"/>
+      <c r="G49" s="128"/>
+      <c r="H49" s="128" t="s">
         <v>58</v>
       </c>
-      <c r="I49" s="130" t="s">
+      <c r="I49" s="128" t="s">
         <v>253</v>
       </c>
-      <c r="J49" s="130"/>
+      <c r="J49" s="128"/>
     </row>
     <row r="50" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="161">
+      <c r="A50" s="159">
         <v>44969</v>
       </c>
-      <c r="B50" s="166" t="s">
+      <c r="B50" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="C50" s="177" t="s">
+      <c r="C50" s="175" t="s">
         <v>59</v>
       </c>
-      <c r="D50" s="130"/>
-      <c r="E50" s="130"/>
-      <c r="F50" s="130"/>
-      <c r="G50" s="130"/>
-      <c r="H50" s="130" t="s">
+      <c r="D50" s="128"/>
+      <c r="E50" s="128"/>
+      <c r="F50" s="128"/>
+      <c r="G50" s="128"/>
+      <c r="H50" s="128" t="s">
         <v>58</v>
       </c>
-      <c r="I50" s="130"/>
-      <c r="J50" s="130"/>
+      <c r="I50" s="128"/>
+      <c r="J50" s="128"/>
     </row>
     <row r="51" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="202">
+      <c r="A51" s="200">
         <v>44970</v>
       </c>
-      <c r="B51" s="162" t="s">
+      <c r="B51" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="C51" s="241" t="s">
+      <c r="C51" s="239" t="s">
         <v>221</v>
       </c>
-      <c r="D51" s="132"/>
-      <c r="E51" s="133"/>
-      <c r="F51" s="144"/>
-      <c r="G51" s="168"/>
-      <c r="H51" s="242" t="s">
+      <c r="D51" s="130"/>
+      <c r="E51" s="131"/>
+      <c r="F51" s="142"/>
+      <c r="G51" s="166"/>
+      <c r="H51" s="240" t="s">
         <v>203</v>
       </c>
-      <c r="I51" s="132"/>
-      <c r="J51" s="168" t="s">
+      <c r="I51" s="130"/>
+      <c r="J51" s="166" t="s">
         <v>222</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A52" s="202">
+      <c r="A52" s="200">
         <v>44971</v>
       </c>
-      <c r="B52" s="162" t="s">
+      <c r="B52" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="C52" s="132"/>
-      <c r="D52" s="132"/>
-      <c r="E52" s="132"/>
-      <c r="F52" s="132"/>
-      <c r="G52" s="132"/>
-      <c r="H52" s="132"/>
-      <c r="I52" s="132"/>
-      <c r="J52" s="132"/>
+      <c r="C52" s="130"/>
+      <c r="D52" s="130"/>
+      <c r="E52" s="130"/>
+      <c r="F52" s="130"/>
+      <c r="G52" s="130"/>
+      <c r="H52" s="130"/>
+      <c r="I52" s="130"/>
+      <c r="J52" s="130"/>
     </row>
     <row r="53" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A53" s="202">
+      <c r="A53" s="200">
         <v>44972</v>
       </c>
-      <c r="B53" s="162" t="s">
+      <c r="B53" s="160" t="s">
         <v>4</v>
       </c>
-      <c r="C53" s="237" t="s">
+      <c r="C53" s="235" t="s">
         <v>268</v>
       </c>
-      <c r="D53" s="132"/>
-      <c r="E53" s="207" t="s">
+      <c r="D53" s="130"/>
+      <c r="E53" s="205" t="s">
         <v>218</v>
       </c>
-      <c r="F53" s="132"/>
-      <c r="G53" s="132"/>
-      <c r="H53" s="132"/>
-      <c r="I53" s="132"/>
-      <c r="J53" s="132"/>
+      <c r="F53" s="130"/>
+      <c r="G53" s="130"/>
+      <c r="H53" s="130"/>
+      <c r="I53" s="130"/>
+      <c r="J53" s="130"/>
     </row>
     <row r="54" spans="1:10" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="202">
+      <c r="A54" s="200">
         <v>44973</v>
       </c>
-      <c r="B54" s="162" t="s">
+      <c r="B54" s="160" t="s">
         <v>5</v>
       </c>
-      <c r="C54" s="148"/>
-      <c r="E54" s="132"/>
-      <c r="G54" s="144"/>
-      <c r="H54" s="132"/>
-      <c r="I54" s="132"/>
-      <c r="J54" s="132"/>
+      <c r="C54" s="146"/>
+      <c r="E54" s="130"/>
+      <c r="G54" s="142"/>
+      <c r="H54" s="130"/>
+      <c r="I54" s="130"/>
+      <c r="J54" s="130"/>
     </row>
     <row r="55" spans="1:10" ht="58.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="202">
+      <c r="A55" s="200">
         <v>44974</v>
       </c>
-      <c r="B55" s="162" t="s">
+      <c r="B55" s="160" t="s">
         <v>6</v>
       </c>
-      <c r="C55" s="145"/>
-      <c r="D55" s="224" t="s">
+      <c r="C55" s="143"/>
+      <c r="D55" s="222" t="s">
         <v>275</v>
       </c>
-      <c r="E55" s="132"/>
-      <c r="F55" s="238" t="s">
+      <c r="E55" s="130"/>
+      <c r="F55" s="236" t="s">
         <v>281</v>
       </c>
-      <c r="G55" s="145" t="s">
+      <c r="G55" s="143" t="s">
         <v>248</v>
       </c>
-      <c r="H55" s="132"/>
-      <c r="I55" s="132"/>
-      <c r="J55" s="168" t="s">
+      <c r="H55" s="130"/>
+      <c r="I55" s="130"/>
+      <c r="J55" s="166" t="s">
         <v>246</v>
       </c>
     </row>
     <row r="56" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A56" s="161">
+      <c r="A56" s="159">
         <v>44975</v>
       </c>
-      <c r="B56" s="166" t="s">
+      <c r="B56" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="C56" s="130"/>
-      <c r="D56" s="130"/>
-      <c r="E56" s="130"/>
-      <c r="F56" s="224" t="s">
+      <c r="C56" s="128"/>
+      <c r="D56" s="128"/>
+      <c r="E56" s="128"/>
+      <c r="F56" s="222" t="s">
         <v>282</v>
       </c>
-      <c r="G56" s="177" t="s">
+      <c r="G56" s="175" t="s">
         <v>71</v>
       </c>
-      <c r="H56" s="130"/>
-      <c r="I56" s="130"/>
-      <c r="J56" s="130" t="s">
+      <c r="H56" s="128"/>
+      <c r="I56" s="128"/>
+      <c r="J56" s="128" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A57" s="161">
+      <c r="A57" s="159">
         <v>44976</v>
       </c>
-      <c r="B57" s="166" t="s">
+      <c r="B57" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="C57" s="130"/>
-      <c r="D57" s="130"/>
-      <c r="E57" s="130"/>
-      <c r="F57" s="130"/>
-      <c r="G57" s="130"/>
-      <c r="H57" s="130"/>
-      <c r="I57" s="130"/>
-      <c r="J57" s="130"/>
+      <c r="C57" s="128"/>
+      <c r="D57" s="128"/>
+      <c r="E57" s="128"/>
+      <c r="F57" s="128"/>
+      <c r="G57" s="128"/>
+      <c r="H57" s="128"/>
+      <c r="I57" s="128"/>
+      <c r="J57" s="128"/>
     </row>
     <row r="58" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A58" s="202">
+      <c r="A58" s="200">
         <v>44977</v>
       </c>
-      <c r="B58" s="162" t="s">
+      <c r="B58" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="C58" s="237"/>
-      <c r="D58" s="132"/>
-      <c r="E58" s="132"/>
-      <c r="F58" s="132"/>
-      <c r="G58" s="132"/>
-      <c r="H58" s="168"/>
-      <c r="I58" s="132"/>
-      <c r="J58" s="132"/>
+      <c r="C58" s="235"/>
+      <c r="D58" s="130"/>
+      <c r="E58" s="130"/>
+      <c r="F58" s="130"/>
+      <c r="G58" s="130"/>
+      <c r="H58" s="166"/>
+      <c r="I58" s="130"/>
+      <c r="J58" s="130"/>
     </row>
     <row r="59" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A59" s="202">
+      <c r="A59" s="200">
         <v>44978</v>
       </c>
-      <c r="B59" s="162" t="s">
+      <c r="B59" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="237" t="s">
+      <c r="C59" s="235" t="s">
         <v>270</v>
       </c>
-      <c r="D59" s="132"/>
-      <c r="E59" s="132"/>
-      <c r="F59" s="132"/>
-      <c r="G59" s="132"/>
-      <c r="H59" s="168" t="s">
+      <c r="D59" s="130"/>
+      <c r="E59" s="130"/>
+      <c r="F59" s="130"/>
+      <c r="G59" s="130"/>
+      <c r="H59" s="166" t="s">
         <v>201</v>
       </c>
-      <c r="I59" s="132"/>
-      <c r="J59" s="168" t="s">
+      <c r="I59" s="130"/>
+      <c r="J59" s="166" t="s">
         <v>269</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A60" s="202">
+      <c r="A60" s="200">
         <v>44979</v>
       </c>
-      <c r="B60" s="162" t="s">
+      <c r="B60" s="160" t="s">
         <v>4</v>
       </c>
-      <c r="C60" s="207" t="s">
+      <c r="C60" s="205" t="s">
         <v>195</v>
       </c>
-      <c r="D60" s="132"/>
-      <c r="E60" s="132"/>
-      <c r="F60" s="132"/>
-      <c r="G60" s="132"/>
-      <c r="H60" s="168" t="s">
+      <c r="D60" s="130"/>
+      <c r="E60" s="130"/>
+      <c r="F60" s="130"/>
+      <c r="G60" s="130"/>
+      <c r="H60" s="166" t="s">
         <v>201</v>
       </c>
-      <c r="I60" s="132"/>
-      <c r="J60" s="132"/>
+      <c r="I60" s="130"/>
+      <c r="J60" s="130"/>
     </row>
     <row r="61" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A61" s="202">
+      <c r="A61" s="200">
         <v>44980</v>
       </c>
-      <c r="B61" s="162" t="s">
+      <c r="B61" s="160" t="s">
         <v>5</v>
       </c>
-      <c r="C61" s="207"/>
-      <c r="D61" s="132"/>
-      <c r="E61" s="132"/>
-      <c r="F61" s="169"/>
-      <c r="G61" s="144"/>
-      <c r="H61" s="132"/>
-      <c r="I61" s="132"/>
-      <c r="J61" s="168"/>
+      <c r="C61" s="205"/>
+      <c r="D61" s="130"/>
+      <c r="E61" s="130"/>
+      <c r="F61" s="167"/>
+      <c r="G61" s="142"/>
+      <c r="H61" s="130"/>
+      <c r="I61" s="130"/>
+      <c r="J61" s="166"/>
     </row>
     <row r="62" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A62" s="202">
+      <c r="A62" s="200">
         <v>44981</v>
       </c>
-      <c r="B62" s="162" t="s">
+      <c r="B62" s="160" t="s">
         <v>6</v>
       </c>
-      <c r="C62" s="207"/>
-      <c r="D62" s="132"/>
-      <c r="E62" s="132"/>
-      <c r="F62" s="132"/>
-      <c r="G62" s="132"/>
-      <c r="H62" s="132"/>
-      <c r="I62" s="132"/>
-      <c r="J62" s="132"/>
+      <c r="C62" s="205"/>
+      <c r="D62" s="130"/>
+      <c r="E62" s="130"/>
+      <c r="F62" s="130"/>
+      <c r="G62" s="130"/>
+      <c r="H62" s="130"/>
+      <c r="I62" s="130"/>
+      <c r="J62" s="130"/>
     </row>
     <row r="63" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A63" s="161">
+      <c r="A63" s="159">
         <v>44982</v>
       </c>
-      <c r="B63" s="166" t="s">
+      <c r="B63" s="164" t="s">
         <v>0</v>
       </c>
-      <c r="C63" s="247"/>
-      <c r="D63" s="130"/>
-      <c r="E63" s="170"/>
-      <c r="F63" s="130"/>
-      <c r="G63" s="130"/>
-      <c r="H63" s="130"/>
-      <c r="I63" s="130"/>
-      <c r="J63" s="130"/>
+      <c r="C63" s="245"/>
+      <c r="D63" s="128"/>
+      <c r="E63" s="168"/>
+      <c r="F63" s="128"/>
+      <c r="G63" s="128"/>
+      <c r="H63" s="128"/>
+      <c r="I63" s="128"/>
+      <c r="J63" s="128"/>
     </row>
     <row r="64" spans="1:10" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A64" s="161">
+      <c r="A64" s="159">
         <v>44983</v>
       </c>
-      <c r="B64" s="166" t="s">
+      <c r="B64" s="164" t="s">
         <v>1</v>
       </c>
-      <c r="C64" s="130"/>
-      <c r="D64" s="130"/>
-      <c r="E64" s="130"/>
-      <c r="F64" s="130"/>
-      <c r="G64" s="130"/>
-      <c r="H64" s="130"/>
-      <c r="I64" s="130"/>
-      <c r="J64" s="130"/>
+      <c r="C64" s="128"/>
+      <c r="D64" s="128"/>
+      <c r="E64" s="128"/>
+      <c r="F64" s="128"/>
+      <c r="G64" s="128"/>
+      <c r="H64" s="128"/>
+      <c r="I64" s="128"/>
+      <c r="J64" s="128"/>
     </row>
     <row r="65" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A65" s="202">
+      <c r="A65" s="200">
         <v>44984</v>
       </c>
-      <c r="B65" s="162" t="s">
+      <c r="B65" s="160" t="s">
         <v>2</v>
       </c>
-      <c r="C65" s="171"/>
-      <c r="D65" s="132"/>
-      <c r="E65" s="148"/>
-      <c r="F65" s="132"/>
-      <c r="G65" s="132"/>
-      <c r="H65" s="132"/>
-      <c r="I65" s="132"/>
-      <c r="J65" s="132"/>
+      <c r="C65" s="169"/>
+      <c r="D65" s="130"/>
+      <c r="E65" s="146"/>
+      <c r="F65" s="130"/>
+      <c r="G65" s="130"/>
+      <c r="H65" s="130"/>
+      <c r="I65" s="130"/>
+      <c r="J65" s="130"/>
     </row>
     <row r="66" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A66" s="202">
+      <c r="A66" s="200">
         <v>44985</v>
       </c>
-      <c r="B66" s="162" t="s">
+      <c r="B66" s="160" t="s">
         <v>3</v>
       </c>
-      <c r="C66" s="148"/>
-      <c r="D66" s="132"/>
-      <c r="E66" s="148"/>
-      <c r="F66" s="132"/>
-      <c r="G66" s="132"/>
-      <c r="H66" s="132"/>
-      <c r="I66" s="132"/>
-      <c r="J66" s="132"/>
+      <c r="C66" s="146"/>
+      <c r="D66" s="130"/>
+      <c r="E66" s="146"/>
+      <c r="F66" s="130"/>
+      <c r="G66" s="130"/>
+      <c r="H66" s="130"/>
+      <c r="I66" s="130"/>
+      <c r="J66" s="130"/>
     </row>
     <row r="67" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A67" s="151"/>
-      <c r="B67" s="151"/>
-      <c r="C67" s="172"/>
-      <c r="D67" s="151"/>
-      <c r="E67" s="172"/>
-      <c r="F67" s="151"/>
-      <c r="G67" s="151"/>
-      <c r="H67" s="151"/>
-      <c r="I67" s="151"/>
-      <c r="J67" s="151"/>
+      <c r="A67" s="149"/>
+      <c r="B67" s="149"/>
+      <c r="C67" s="170"/>
+      <c r="D67" s="149"/>
+      <c r="E67" s="170"/>
+      <c r="F67" s="149"/>
+      <c r="G67" s="149"/>
+      <c r="H67" s="149"/>
+      <c r="I67" s="149"/>
+      <c r="J67" s="149"/>
     </row>
     <row r="68" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A68" s="318" t="s">
+      <c r="A68" s="315" t="s">
         <v>18</v>
       </c>
-      <c r="B68" s="304" t="s">
+      <c r="B68" s="317" t="s">
         <v>15</v>
       </c>
-      <c r="C68" s="156" t="s">
+      <c r="C68" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="D68" s="157" t="s">
+      <c r="D68" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="E68" s="158" t="s">
+      <c r="E68" s="156" t="s">
         <v>9</v>
       </c>
-      <c r="F68" s="121" t="s">
+      <c r="F68" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="G68" s="122" t="s">
+      <c r="G68" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="H68" s="122" t="s">
+      <c r="H68" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="I68" s="122" t="s">
+      <c r="I68" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="J68" s="122" t="s">
+      <c r="J68" s="120" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A69" s="319"/>
-      <c r="B69" s="305"/>
-      <c r="C69" s="159"/>
-      <c r="D69" s="160"/>
-      <c r="E69" s="159"/>
-      <c r="F69" s="160"/>
-      <c r="G69" s="122"/>
-      <c r="H69" s="122"/>
-      <c r="I69" s="122"/>
-      <c r="J69" s="122"/>
+      <c r="A69" s="316"/>
+      <c r="B69" s="318"/>
+      <c r="C69" s="157"/>
+      <c r="D69" s="158"/>
+      <c r="E69" s="157"/>
+      <c r="F69" s="158"/>
+      <c r="G69" s="120"/>
+      <c r="H69" s="120"/>
+      <c r="I69" s="120"/>
+      <c r="J69" s="120"/>
     </row>
     <row r="70" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A70" s="202">
+      <c r="A70" s="200">
         <v>44986</v>
       </c>
-      <c r="B70" s="173" t="s">
+      <c r="B70" s="171" t="s">
         <v>4</v>
       </c>
-      <c r="C70" s="237" t="s">
+      <c r="C70" s="235" t="s">
         <v>224</v>
       </c>
-      <c r="D70" s="132"/>
-      <c r="E70" s="167"/>
-      <c r="F70" s="169"/>
-      <c r="G70" s="174"/>
-      <c r="H70" s="168" t="s">
+      <c r="D70" s="130"/>
+      <c r="E70" s="165"/>
+      <c r="F70" s="167"/>
+      <c r="G70" s="172"/>
+      <c r="H70" s="166" t="s">
         <v>226</v>
       </c>
-      <c r="I70" s="132"/>
-      <c r="J70" s="168"/>
+      <c r="I70" s="130"/>
+      <c r="J70" s="166"/>
     </row>
     <row r="71" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A71" s="118">
+      <c r="A71" s="116">
         <v>44987</v>
       </c>
-      <c r="B71" s="134" t="s">
+      <c r="B71" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="C71" s="171"/>
-      <c r="D71" s="132"/>
-      <c r="E71" s="175"/>
-      <c r="F71" s="132"/>
-      <c r="G71" s="132"/>
-      <c r="H71" s="132"/>
-      <c r="I71" s="132"/>
-      <c r="J71" s="132"/>
+      <c r="C71" s="169"/>
+      <c r="D71" s="130"/>
+      <c r="E71" s="173"/>
+      <c r="F71" s="130"/>
+      <c r="G71" s="130"/>
+      <c r="H71" s="130"/>
+      <c r="I71" s="130"/>
+      <c r="J71" s="130"/>
     </row>
     <row r="72" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A72" s="202">
+      <c r="A72" s="200">
         <v>44988</v>
       </c>
-      <c r="B72" s="173" t="s">
+      <c r="B72" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="C72" s="132"/>
-      <c r="D72" s="132"/>
-      <c r="E72" s="175"/>
-      <c r="F72" s="132"/>
-      <c r="G72" s="132"/>
-      <c r="H72" s="132"/>
-      <c r="I72" s="132"/>
-      <c r="J72" s="132"/>
+      <c r="C72" s="130"/>
+      <c r="D72" s="130"/>
+      <c r="E72" s="173"/>
+      <c r="F72" s="130"/>
+      <c r="G72" s="130"/>
+      <c r="H72" s="130"/>
+      <c r="I72" s="130"/>
+      <c r="J72" s="130"/>
     </row>
     <row r="73" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A73" s="138">
+      <c r="A73" s="136">
         <v>44989</v>
       </c>
-      <c r="B73" s="130" t="s">
+      <c r="B73" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="C73" s="130"/>
-      <c r="D73" s="130"/>
-      <c r="E73" s="130"/>
-      <c r="F73" s="146"/>
-      <c r="G73" s="147"/>
-      <c r="H73" s="130"/>
-      <c r="I73" s="130"/>
-      <c r="J73" s="130"/>
+      <c r="C73" s="128"/>
+      <c r="D73" s="128"/>
+      <c r="E73" s="128"/>
+      <c r="F73" s="144"/>
+      <c r="G73" s="145"/>
+      <c r="H73" s="128"/>
+      <c r="I73" s="128"/>
+      <c r="J73" s="128"/>
     </row>
     <row r="74" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A74" s="161">
+      <c r="A74" s="159">
         <v>44990</v>
       </c>
-      <c r="B74" s="176" t="s">
+      <c r="B74" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="C74" s="130"/>
-      <c r="D74" s="130"/>
-      <c r="E74" s="142"/>
-      <c r="F74" s="130"/>
-      <c r="G74" s="130"/>
-      <c r="H74" s="130"/>
-      <c r="I74" s="130"/>
-      <c r="J74" s="130"/>
+      <c r="C74" s="128"/>
+      <c r="D74" s="128"/>
+      <c r="E74" s="140"/>
+      <c r="F74" s="128"/>
+      <c r="G74" s="128"/>
+      <c r="H74" s="128"/>
+      <c r="I74" s="128"/>
+      <c r="J74" s="128"/>
     </row>
     <row r="75" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A75" s="118">
+      <c r="A75" s="116">
         <v>44991</v>
       </c>
-      <c r="B75" s="134" t="s">
+      <c r="B75" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="C75" s="132"/>
-      <c r="D75" s="132"/>
-      <c r="E75" s="145"/>
-      <c r="F75" s="132"/>
-      <c r="G75" s="132"/>
-      <c r="H75" s="132"/>
-      <c r="I75" s="132"/>
-      <c r="J75" s="132"/>
+      <c r="C75" s="130"/>
+      <c r="D75" s="130"/>
+      <c r="E75" s="143"/>
+      <c r="F75" s="130"/>
+      <c r="G75" s="130"/>
+      <c r="H75" s="130"/>
+      <c r="I75" s="130"/>
+      <c r="J75" s="130"/>
     </row>
     <row r="76" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A76" s="202">
+      <c r="A76" s="200">
         <v>44992</v>
       </c>
-      <c r="B76" s="173" t="s">
+      <c r="B76" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="C76" s="133"/>
-      <c r="D76" s="132"/>
-      <c r="E76" s="133"/>
-      <c r="F76" s="274"/>
-      <c r="G76" s="275"/>
-      <c r="H76" s="132"/>
-      <c r="I76" s="132"/>
-      <c r="J76" s="168"/>
+      <c r="C76" s="131"/>
+      <c r="D76" s="130"/>
+      <c r="E76" s="131"/>
+      <c r="F76" s="272"/>
+      <c r="G76" s="273"/>
+      <c r="H76" s="130"/>
+      <c r="I76" s="130"/>
+      <c r="J76" s="166"/>
     </row>
     <row r="77" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="118">
+      <c r="A77" s="116">
         <v>44993</v>
       </c>
-      <c r="B77" s="134" t="s">
+      <c r="B77" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="C77" s="237" t="s">
+      <c r="C77" s="235" t="s">
         <v>225</v>
       </c>
-      <c r="D77" s="132"/>
+      <c r="D77" s="130"/>
       <c r="E77" s="22"/>
-      <c r="F77" s="238" t="s">
+      <c r="F77" s="236" t="s">
         <v>293</v>
       </c>
-      <c r="G77" s="281" t="s">
+      <c r="G77" s="279" t="s">
         <v>294</v>
       </c>
-      <c r="H77" s="168" t="s">
+      <c r="H77" s="166" t="s">
         <v>295</v>
       </c>
-      <c r="I77" s="132"/>
-      <c r="J77" s="168" t="s">
+      <c r="I77" s="130"/>
+      <c r="J77" s="166" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A78" s="202">
+      <c r="A78" s="200">
         <v>44994</v>
       </c>
-      <c r="B78" s="173" t="s">
+      <c r="B78" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="C78" s="144"/>
-      <c r="D78" s="144"/>
-      <c r="E78" s="224" t="s">
+      <c r="C78" s="142"/>
+      <c r="D78" s="142"/>
+      <c r="E78" s="222" t="s">
         <v>75</v>
       </c>
-      <c r="F78" s="132"/>
-      <c r="G78" s="174" t="s">
+      <c r="F78" s="130"/>
+      <c r="G78" s="172" t="s">
         <v>73</v>
       </c>
-      <c r="H78" s="132"/>
-      <c r="I78" s="132"/>
-      <c r="J78" s="168"/>
+      <c r="H78" s="130"/>
+      <c r="I78" s="130"/>
+      <c r="J78" s="166"/>
     </row>
     <row r="79" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A79" s="118">
+      <c r="A79" s="116">
         <v>44995</v>
       </c>
-      <c r="B79" s="134" t="s">
+      <c r="B79" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="C79" s="132"/>
-      <c r="D79" s="132"/>
-      <c r="E79" s="164"/>
-      <c r="F79" s="164"/>
-      <c r="G79" s="225"/>
-      <c r="H79" s="168"/>
-      <c r="I79" s="168"/>
-      <c r="J79" s="168"/>
+      <c r="C79" s="130"/>
+      <c r="D79" s="130"/>
+      <c r="E79" s="162"/>
+      <c r="F79" s="162"/>
+      <c r="G79" s="223"/>
+      <c r="H79" s="166"/>
+      <c r="I79" s="166"/>
+      <c r="J79" s="166"/>
     </row>
     <row r="80" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A80" s="161">
+      <c r="A80" s="159">
         <v>44996</v>
       </c>
-      <c r="B80" s="176" t="s">
+      <c r="B80" s="174" t="s">
         <v>0</v>
       </c>
-      <c r="C80" s="238" t="s">
+      <c r="C80" s="236" t="s">
         <v>301</v>
       </c>
-      <c r="D80" s="146"/>
-      <c r="E80" s="146"/>
-      <c r="F80" s="177"/>
-      <c r="G80" s="147"/>
-      <c r="H80" s="147"/>
-      <c r="I80" s="130"/>
-      <c r="J80" s="147"/>
+      <c r="D80" s="144"/>
+      <c r="E80" s="144"/>
+      <c r="F80" s="175"/>
+      <c r="G80" s="145"/>
+      <c r="H80" s="145"/>
+      <c r="I80" s="128"/>
+      <c r="J80" s="145"/>
     </row>
     <row r="81" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A81" s="138">
+      <c r="A81" s="136">
         <v>44997</v>
       </c>
-      <c r="B81" s="130" t="s">
+      <c r="B81" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="C81" s="130"/>
-      <c r="D81" s="130"/>
-      <c r="E81" s="130"/>
-      <c r="F81" s="130"/>
-      <c r="G81" s="130"/>
-      <c r="H81" s="130"/>
-      <c r="I81" s="130"/>
-      <c r="J81" s="130"/>
+      <c r="C81" s="128"/>
+      <c r="D81" s="128"/>
+      <c r="E81" s="128"/>
+      <c r="F81" s="128"/>
+      <c r="G81" s="128"/>
+      <c r="H81" s="128"/>
+      <c r="I81" s="128"/>
+      <c r="J81" s="128"/>
     </row>
     <row r="82" spans="1:10" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="202">
+      <c r="A82" s="200">
         <v>44998</v>
       </c>
-      <c r="B82" s="173" t="s">
+      <c r="B82" s="171" t="s">
         <v>2</v>
       </c>
       <c r="C82" s="22"/>
-      <c r="D82" s="132"/>
-      <c r="E82" s="224" t="s">
+      <c r="D82" s="130"/>
+      <c r="E82" s="222" t="s">
         <v>292</v>
       </c>
       <c r="F82" s="22"/>
-      <c r="G82" s="174" t="s">
+      <c r="G82" s="172" t="s">
         <v>73</v>
       </c>
-      <c r="H82" s="168"/>
-      <c r="I82" s="132"/>
-      <c r="J82" s="168" t="s">
+      <c r="H82" s="166"/>
+      <c r="I82" s="130"/>
+      <c r="J82" s="166" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="83" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A83" s="118">
+      <c r="A83" s="116">
         <v>44999</v>
       </c>
-      <c r="B83" s="134" t="s">
+      <c r="B83" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="C83" s="283" t="s">
+      <c r="C83" s="281" t="s">
         <v>319</v>
       </c>
-      <c r="D83" s="134"/>
+      <c r="D83" s="132"/>
       <c r="F83" s="22"/>
-      <c r="G83" s="134"/>
-      <c r="H83" s="134"/>
-      <c r="I83" s="134"/>
-      <c r="J83" s="134"/>
+      <c r="G83" s="132"/>
+      <c r="H83" s="132"/>
+      <c r="I83" s="132"/>
+      <c r="J83" s="132"/>
     </row>
     <row r="84" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A84" s="178">
+      <c r="A84" s="176">
         <v>45000</v>
       </c>
-      <c r="B84" s="179" t="s">
+      <c r="B84" s="177" t="s">
         <v>4</v>
       </c>
-      <c r="C84" s="177" t="s">
+      <c r="C84" s="175" t="s">
         <v>318</v>
       </c>
-      <c r="D84" s="130"/>
-      <c r="E84" s="130"/>
-      <c r="F84" s="147"/>
-      <c r="G84" s="147"/>
-      <c r="H84" s="180"/>
-      <c r="I84" s="130"/>
-      <c r="J84" s="130"/>
+      <c r="D84" s="128"/>
+      <c r="E84" s="128"/>
+      <c r="F84" s="145"/>
+      <c r="G84" s="145"/>
+      <c r="H84" s="178"/>
+      <c r="I84" s="128"/>
+      <c r="J84" s="128"/>
     </row>
     <row r="85" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A85" s="118">
+      <c r="A85" s="116">
         <v>45001</v>
       </c>
-      <c r="B85" s="134" t="s">
+      <c r="B85" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="C85" s="171"/>
-      <c r="D85" s="181"/>
-      <c r="E85" s="132"/>
-      <c r="F85" s="132"/>
-      <c r="G85" s="132"/>
-      <c r="H85" s="132"/>
-      <c r="I85" s="132"/>
-      <c r="J85" s="132"/>
+      <c r="C85" s="169"/>
+      <c r="D85" s="179"/>
+      <c r="E85" s="130"/>
+      <c r="F85" s="130"/>
+      <c r="G85" s="130"/>
+      <c r="H85" s="130"/>
+      <c r="I85" s="130"/>
+      <c r="J85" s="130"/>
     </row>
     <row r="86" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A86" s="202">
+      <c r="A86" s="200">
         <v>45002</v>
       </c>
-      <c r="B86" s="173" t="s">
+      <c r="B86" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="C86" s="145"/>
-      <c r="D86" s="132"/>
-      <c r="E86" s="132"/>
-      <c r="F86" s="132"/>
-      <c r="G86" s="132"/>
-      <c r="H86" s="168"/>
-      <c r="I86" s="132"/>
-      <c r="J86" s="132"/>
+      <c r="C86" s="143"/>
+      <c r="D86" s="130"/>
+      <c r="E86" s="130"/>
+      <c r="F86" s="130"/>
+      <c r="G86" s="130"/>
+      <c r="H86" s="166"/>
+      <c r="I86" s="130"/>
+      <c r="J86" s="130"/>
     </row>
     <row r="87" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A87" s="138">
+      <c r="A87" s="136">
         <v>45003</v>
       </c>
-      <c r="B87" s="130" t="s">
+      <c r="B87" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="C87" s="130"/>
-      <c r="D87" s="130"/>
-      <c r="E87" s="130"/>
-      <c r="F87" s="130"/>
-      <c r="G87" s="130"/>
-      <c r="H87" s="130"/>
-      <c r="I87" s="130"/>
-      <c r="J87" s="130"/>
+      <c r="C87" s="128"/>
+      <c r="D87" s="128"/>
+      <c r="E87" s="128"/>
+      <c r="F87" s="128"/>
+      <c r="G87" s="128"/>
+      <c r="H87" s="128"/>
+      <c r="I87" s="128"/>
+      <c r="J87" s="128"/>
     </row>
     <row r="88" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A88" s="161">
+      <c r="A88" s="159">
         <v>45004</v>
       </c>
-      <c r="B88" s="176" t="s">
+      <c r="B88" s="174" t="s">
         <v>1</v>
       </c>
-      <c r="C88" s="182"/>
-      <c r="D88" s="130"/>
-      <c r="E88" s="130"/>
-      <c r="F88" s="130"/>
-      <c r="G88" s="130"/>
-      <c r="H88" s="130"/>
-      <c r="I88" s="130"/>
-      <c r="J88" s="130"/>
+      <c r="C88" s="180"/>
+      <c r="D88" s="128"/>
+      <c r="E88" s="128"/>
+      <c r="F88" s="128"/>
+      <c r="G88" s="128"/>
+      <c r="H88" s="128"/>
+      <c r="I88" s="128"/>
+      <c r="J88" s="128"/>
     </row>
     <row r="89" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A89" s="118">
+      <c r="A89" s="116">
         <v>45005</v>
       </c>
-      <c r="B89" s="134" t="s">
+      <c r="B89" s="132" t="s">
         <v>2</v>
       </c>
-      <c r="C89" s="175" t="s">
+      <c r="C89" s="173" t="s">
         <v>304</v>
       </c>
-      <c r="D89" s="132"/>
-      <c r="E89" s="132"/>
-      <c r="F89" s="132"/>
-      <c r="G89" s="132"/>
-      <c r="H89" s="132"/>
-      <c r="I89" s="132"/>
-      <c r="J89" s="132"/>
+      <c r="D89" s="130"/>
+      <c r="E89" s="130"/>
+      <c r="F89" s="130"/>
+      <c r="G89" s="130"/>
+      <c r="H89" s="130"/>
+      <c r="I89" s="130"/>
+      <c r="J89" s="130"/>
     </row>
     <row r="90" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="202">
+      <c r="A90" s="200">
         <v>45006</v>
       </c>
-      <c r="B90" s="173" t="s">
+      <c r="B90" s="171" t="s">
         <v>3</v>
       </c>
-      <c r="C90" s="239" t="s">
+      <c r="C90" s="237" t="s">
         <v>299</v>
       </c>
-      <c r="D90" s="132"/>
-      <c r="E90" s="239" t="s">
+      <c r="D90" s="130"/>
+      <c r="E90" s="237" t="s">
         <v>300</v>
       </c>
-      <c r="F90" s="132"/>
-      <c r="G90" s="132" t="s">
+      <c r="F90" s="130"/>
+      <c r="G90" s="130" t="s">
         <v>196</v>
       </c>
-      <c r="H90" s="168"/>
-      <c r="I90" s="132"/>
-      <c r="J90" s="132"/>
+      <c r="H90" s="166"/>
+      <c r="I90" s="130"/>
+      <c r="J90" s="130"/>
     </row>
     <row r="91" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A91" s="118">
+      <c r="A91" s="116">
         <v>45007</v>
       </c>
-      <c r="B91" s="134" t="s">
+      <c r="B91" s="132" t="s">
         <v>4</v>
       </c>
-      <c r="C91" s="248"/>
-      <c r="D91" s="132"/>
-      <c r="E91" s="145"/>
-      <c r="F91" s="144"/>
-      <c r="G91" s="168"/>
-      <c r="H91" s="132"/>
-      <c r="I91" s="132"/>
-      <c r="J91" s="168"/>
+      <c r="C91" s="246"/>
+      <c r="D91" s="130"/>
+      <c r="E91" s="143"/>
+      <c r="F91" s="142"/>
+      <c r="G91" s="166"/>
+      <c r="H91" s="130"/>
+      <c r="I91" s="130"/>
+      <c r="J91" s="166"/>
     </row>
     <row r="92" spans="1:10" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="202">
+      <c r="A92" s="200">
         <v>45008</v>
       </c>
-      <c r="B92" s="173" t="s">
+      <c r="B92" s="171" t="s">
         <v>5</v>
       </c>
-      <c r="C92" s="175" t="s">
+      <c r="C92" s="173" t="s">
         <v>310</v>
       </c>
-      <c r="D92" s="132"/>
-      <c r="E92" s="145" t="s">
+      <c r="D92" s="130"/>
+      <c r="E92" s="143" t="s">
         <v>302</v>
       </c>
-      <c r="F92" s="164"/>
-      <c r="G92" s="167"/>
-      <c r="H92" s="132"/>
-      <c r="I92" s="132"/>
-      <c r="J92" s="168"/>
+      <c r="F92" s="162"/>
+      <c r="G92" s="165"/>
+      <c r="H92" s="130"/>
+      <c r="I92" s="130"/>
+      <c r="J92" s="166"/>
     </row>
     <row r="93" spans="1:10" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="118">
+      <c r="A93" s="116">
         <v>45009</v>
       </c>
-      <c r="B93" s="134" t="s">
+      <c r="B93" s="132" t="s">
         <v>6</v>
       </c>
-      <c r="C93" s="144" t="s">
+      <c r="C93" s="142" t="s">
         <v>261</v>
       </c>
-      <c r="D93" s="132"/>
-      <c r="F93" s="224" t="s">
+      <c r="D93" s="130"/>
+      <c r="F93" s="222" t="s">
         <v>297</v>
       </c>
-      <c r="G93" s="167" t="s">
+      <c r="G93" s="165" t="s">
         <v>296</v>
       </c>
-      <c r="H93" s="168"/>
-      <c r="I93" s="132"/>
-      <c r="J93" s="174"/>
+      <c r="H93" s="166"/>
+      <c r="I93" s="130"/>
+      <c r="J93" s="172"/>
     </row>
     <row r="94" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A94" s="161">
+      <c r="A94" s="159">
         <v>45010</v>
       </c>
-      <c r="B94" s="176" t="s">
+      <c r="B94" s="174" t="s">
         <v>0</v>
       </c>
-      <c r="C94" s="183"/>
-      <c r="D94" s="130"/>
-      <c r="E94" s="142"/>
-      <c r="F94" s="177"/>
-      <c r="G94" s="147"/>
-      <c r="H94" s="147"/>
-      <c r="I94" s="130"/>
-      <c r="J94" s="183"/>
+      <c r="C94" s="181"/>
+      <c r="D94" s="128"/>
+      <c r="E94" s="140"/>
+      <c r="F94" s="175"/>
+      <c r="G94" s="145"/>
+      <c r="H94" s="145"/>
+      <c r="I94" s="128"/>
+      <c r="J94" s="181"/>
     </row>
     <row r="95" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A95" s="138">
+      <c r="A95" s="136">
         <v>45011</v>
       </c>
-      <c r="B95" s="130" t="s">
+      <c r="B95" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="C95" s="182"/>
-      <c r="D95" s="130"/>
-      <c r="E95" s="130"/>
-      <c r="F95" s="130"/>
-      <c r="G95" s="130"/>
-      <c r="H95" s="130"/>
-      <c r="I95" s="130"/>
-      <c r="J95" s="130"/>
+      <c r="C95" s="180"/>
+      <c r="D95" s="128"/>
+      <c r="E95" s="128"/>
+      <c r="F95" s="128"/>
+      <c r="G95" s="128"/>
+      <c r="H95" s="128"/>
+      <c r="I95" s="128"/>
+      <c r="J95" s="128"/>
     </row>
     <row r="96" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A96" s="202">
+      <c r="A96" s="200">
         <v>45012</v>
       </c>
-      <c r="B96" s="173" t="s">
+      <c r="B96" s="171" t="s">
         <v>2</v>
       </c>
-      <c r="C96" s="132"/>
-      <c r="D96" s="132"/>
-      <c r="E96" s="132"/>
-      <c r="F96" s="132"/>
-      <c r="G96" s="132"/>
-      <c r="H96" s="132"/>
-      <c r="I96" s="132"/>
-      <c r="J96" s="132"/>
+      <c r="C96" s="130"/>
+      <c r="D96" s="130"/>
+      <c r="E96" s="130"/>
+      <c r="F96" s="130"/>
+      <c r="G96" s="130"/>
+      <c r="H96" s="130"/>
+      <c r="I96" s="130"/>
+      <c r="J96" s="130"/>
     </row>
     <row r="97" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A97" s="118">
+      <c r="A97" s="116">
         <v>45013</v>
       </c>
-      <c r="B97" s="134" t="s">
+      <c r="B97" s="132" t="s">
         <v>3</v>
       </c>
-      <c r="C97" s="148"/>
-      <c r="D97" s="132"/>
-      <c r="E97" s="148"/>
-      <c r="F97" s="132"/>
-      <c r="G97" s="132"/>
-      <c r="H97" s="132"/>
-      <c r="I97" s="132"/>
-      <c r="J97" s="132"/>
+      <c r="C97" s="146"/>
+      <c r="D97" s="130"/>
+      <c r="E97" s="146"/>
+      <c r="F97" s="130"/>
+      <c r="G97" s="130"/>
+      <c r="H97" s="130"/>
+      <c r="I97" s="130"/>
+      <c r="J97" s="130"/>
     </row>
     <row r="98" spans="1:10" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="202">
+      <c r="A98" s="200">
         <v>45014</v>
       </c>
-      <c r="B98" s="173" t="s">
+      <c r="B98" s="171" t="s">
         <v>4</v>
       </c>
-      <c r="C98" s="132"/>
-      <c r="D98" s="132"/>
-      <c r="E98" s="132"/>
+      <c r="C98" s="130"/>
+      <c r="D98" s="130"/>
+      <c r="E98" s="130"/>
       <c r="F98" s="22"/>
       <c r="G98" s="22"/>
-      <c r="H98" s="132"/>
-      <c r="I98" s="132"/>
+      <c r="H98" s="130"/>
+      <c r="I98" s="130"/>
     </row>
     <row r="99" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A99" s="118">
+      <c r="A99" s="116">
         <v>45015</v>
       </c>
-      <c r="B99" s="134" t="s">
+      <c r="B99" s="132" t="s">
         <v>5</v>
       </c>
-      <c r="C99" s="145"/>
-      <c r="D99" s="132"/>
-      <c r="E99" s="175"/>
-      <c r="F99" s="132"/>
-      <c r="G99" s="132"/>
-      <c r="H99" s="168"/>
-      <c r="I99" s="132"/>
-      <c r="J99" s="132"/>
+      <c r="C99" s="143"/>
+      <c r="D99" s="130"/>
+      <c r="E99" s="173"/>
+      <c r="F99" s="130"/>
+      <c r="G99" s="130"/>
+      <c r="H99" s="166"/>
+      <c r="I99" s="130"/>
+      <c r="J99" s="130"/>
     </row>
     <row r="100" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A100" s="202">
+      <c r="A100" s="200">
         <v>45016</v>
       </c>
-      <c r="B100" s="173" t="s">
+      <c r="B100" s="171" t="s">
         <v>6</v>
       </c>
-      <c r="C100" s="224" t="s">
+      <c r="C100" s="222" t="s">
         <v>305</v>
       </c>
-      <c r="D100" s="132"/>
-      <c r="E100" s="175"/>
-      <c r="F100" s="132"/>
-      <c r="G100" s="167" t="s">
+      <c r="D100" s="130"/>
+      <c r="E100" s="173"/>
+      <c r="F100" s="130"/>
+      <c r="G100" s="165" t="s">
         <v>303</v>
       </c>
-      <c r="H100" s="168"/>
-      <c r="I100" s="132"/>
-      <c r="J100" s="174" t="s">
+      <c r="H100" s="166"/>
+      <c r="I100" s="130"/>
+      <c r="J100" s="172" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A101" s="151"/>
-      <c r="B101" s="151"/>
-      <c r="C101" s="151"/>
-      <c r="D101" s="151"/>
-      <c r="E101" s="151"/>
-      <c r="F101" s="151"/>
-      <c r="G101" s="151"/>
-      <c r="H101" s="151"/>
-      <c r="I101" s="151"/>
-      <c r="J101" s="151"/>
+      <c r="A101" s="149"/>
+      <c r="B101" s="149"/>
+      <c r="C101" s="149"/>
+      <c r="D101" s="149"/>
+      <c r="E101" s="149"/>
+      <c r="F101" s="149"/>
+      <c r="G101" s="149"/>
+      <c r="H101" s="149"/>
+      <c r="I101" s="149"/>
+      <c r="J101" s="149"/>
     </row>
     <row r="102" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A102" s="302" t="s">
+      <c r="A102" s="319" t="s">
         <v>19</v>
       </c>
-      <c r="B102" s="304" t="s">
+      <c r="B102" s="317" t="s">
         <v>15</v>
       </c>
-      <c r="C102" s="156" t="s">
+      <c r="C102" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="D102" s="157" t="s">
+      <c r="D102" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="E102" s="158" t="s">
+      <c r="E102" s="156" t="s">
         <v>9</v>
       </c>
-      <c r="F102" s="121" t="s">
+      <c r="F102" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="G102" s="122" t="s">
+      <c r="G102" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="H102" s="122" t="s">
+      <c r="H102" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="I102" s="122" t="s">
+      <c r="I102" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="J102" s="122" t="s">
+      <c r="J102" s="120" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A103" s="303"/>
-      <c r="B103" s="305"/>
-      <c r="C103" s="184"/>
-      <c r="D103" s="185"/>
-      <c r="E103" s="184"/>
-      <c r="F103" s="185"/>
-      <c r="G103" s="185"/>
-      <c r="H103" s="185"/>
-      <c r="I103" s="185"/>
-      <c r="J103" s="185"/>
+      <c r="A103" s="320"/>
+      <c r="B103" s="318"/>
+      <c r="C103" s="182"/>
+      <c r="D103" s="183"/>
+      <c r="E103" s="182"/>
+      <c r="F103" s="183"/>
+      <c r="G103" s="183"/>
+      <c r="H103" s="183"/>
+      <c r="I103" s="183"/>
+      <c r="J103" s="183"/>
     </row>
     <row r="104" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A104" s="138">
+      <c r="A104" s="136">
         <v>45017</v>
       </c>
-      <c r="B104" s="130" t="s">
+      <c r="B104" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="C104" s="186"/>
-      <c r="D104" s="130"/>
-      <c r="E104" s="130"/>
-      <c r="F104" s="130"/>
-      <c r="G104" s="130"/>
-      <c r="H104" s="147"/>
-      <c r="I104" s="130"/>
-      <c r="J104" s="130"/>
+      <c r="C104" s="184"/>
+      <c r="D104" s="128"/>
+      <c r="E104" s="128"/>
+      <c r="F104" s="128"/>
+      <c r="G104" s="128"/>
+      <c r="H104" s="145"/>
+      <c r="I104" s="128"/>
+      <c r="J104" s="128"/>
     </row>
     <row r="105" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="138">
+      <c r="A105" s="136">
         <v>45018</v>
       </c>
-      <c r="B105" s="130" t="s">
+      <c r="B105" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="C105" s="187"/>
-      <c r="D105" s="130"/>
-      <c r="E105" s="224" t="s">
+      <c r="C105" s="185"/>
+      <c r="D105" s="128"/>
+      <c r="E105" s="222" t="s">
         <v>311</v>
       </c>
-      <c r="F105" s="130"/>
-      <c r="G105" s="147" t="s">
+      <c r="F105" s="128"/>
+      <c r="G105" s="145" t="s">
         <v>82</v>
       </c>
-      <c r="H105" s="130"/>
-      <c r="I105" s="130"/>
-      <c r="J105" s="147" t="s">
+      <c r="H105" s="128"/>
+      <c r="I105" s="128"/>
+      <c r="J105" s="145" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="106" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A106" s="118">
+      <c r="A106" s="116">
         <v>45019</v>
       </c>
-      <c r="B106" s="132" t="s">
+      <c r="B106" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="C106" s="175" t="s">
+      <c r="C106" s="173" t="s">
         <v>271</v>
       </c>
-      <c r="D106" s="132"/>
-      <c r="E106" s="132"/>
-      <c r="F106" s="132"/>
-      <c r="G106" s="132"/>
-      <c r="H106" s="168" t="s">
+      <c r="D106" s="130"/>
+      <c r="E106" s="130"/>
+      <c r="F106" s="130"/>
+      <c r="G106" s="130"/>
+      <c r="H106" s="166" t="s">
         <v>267</v>
       </c>
-      <c r="I106" s="132"/>
-      <c r="J106" s="132"/>
+      <c r="I106" s="130"/>
+      <c r="J106" s="130"/>
     </row>
     <row r="107" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A107" s="118">
+      <c r="A107" s="116">
         <v>45020</v>
       </c>
-      <c r="B107" s="132" t="s">
+      <c r="B107" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="C107" s="145" t="s">
+      <c r="C107" s="143" t="s">
         <v>285</v>
       </c>
-      <c r="D107" s="188"/>
-      <c r="E107" s="148"/>
-      <c r="F107" s="132"/>
-      <c r="G107" s="132"/>
-      <c r="H107" s="168" t="s">
+      <c r="D107" s="186"/>
+      <c r="E107" s="146"/>
+      <c r="F107" s="130"/>
+      <c r="G107" s="130"/>
+      <c r="H107" s="166" t="s">
         <v>286</v>
       </c>
-      <c r="I107" s="132"/>
-      <c r="J107" s="132"/>
+      <c r="I107" s="130"/>
+      <c r="J107" s="130"/>
     </row>
     <row r="108" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A108" s="118">
+      <c r="A108" s="116">
         <v>45021</v>
       </c>
-      <c r="B108" s="132" t="s">
+      <c r="B108" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="C108" s="164" t="s">
+      <c r="C108" s="162" t="s">
         <v>272</v>
       </c>
-      <c r="D108" s="132"/>
-      <c r="E108" s="145"/>
-      <c r="F108" s="132"/>
-      <c r="G108" s="132"/>
-      <c r="H108" s="168" t="s">
+      <c r="D108" s="130"/>
+      <c r="E108" s="143"/>
+      <c r="F108" s="130"/>
+      <c r="G108" s="130"/>
+      <c r="H108" s="166" t="s">
         <v>273</v>
       </c>
-      <c r="I108" s="132"/>
-      <c r="J108" s="168" t="s">
+      <c r="I108" s="130"/>
+      <c r="J108" s="166" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A109" s="118">
+      <c r="A109" s="116">
         <v>45022</v>
       </c>
-      <c r="B109" s="132" t="s">
+      <c r="B109" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="C109" s="189"/>
-      <c r="D109" s="132"/>
-      <c r="E109" s="132"/>
-      <c r="F109" s="132"/>
-      <c r="G109" s="132"/>
-      <c r="H109" s="132"/>
-      <c r="I109" s="132"/>
-      <c r="J109" s="132"/>
+      <c r="C109" s="187"/>
+      <c r="D109" s="130"/>
+      <c r="E109" s="130"/>
+      <c r="F109" s="130"/>
+      <c r="G109" s="130"/>
+      <c r="H109" s="130"/>
+      <c r="I109" s="130"/>
+      <c r="J109" s="130"/>
     </row>
     <row r="110" spans="1:10" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A110" s="204" t="s">
+      <c r="A110" s="202" t="s">
         <v>56</v>
       </c>
-      <c r="B110" s="190" t="s">
+      <c r="B110" s="188" t="s">
         <v>6</v>
       </c>
-      <c r="C110" s="191"/>
-      <c r="D110" s="130"/>
-      <c r="E110" s="130"/>
-      <c r="F110" s="130"/>
-      <c r="G110" s="130"/>
-      <c r="H110" s="130"/>
-      <c r="I110" s="130"/>
-      <c r="J110" s="139"/>
+      <c r="C110" s="189"/>
+      <c r="D110" s="128"/>
+      <c r="E110" s="128"/>
+      <c r="F110" s="128"/>
+      <c r="G110" s="128"/>
+      <c r="H110" s="128"/>
+      <c r="I110" s="128"/>
+      <c r="J110" s="137"/>
     </row>
     <row r="111" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A111" s="138">
+      <c r="A111" s="136">
         <v>45024</v>
       </c>
-      <c r="B111" s="130" t="s">
+      <c r="B111" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="C111" s="130"/>
-      <c r="D111" s="130"/>
-      <c r="E111" s="142"/>
-      <c r="F111" s="130"/>
-      <c r="G111" s="130"/>
-      <c r="H111" s="147"/>
-      <c r="I111" s="130"/>
-      <c r="J111" s="130"/>
+      <c r="C111" s="128"/>
+      <c r="D111" s="128"/>
+      <c r="E111" s="140"/>
+      <c r="F111" s="128"/>
+      <c r="G111" s="128"/>
+      <c r="H111" s="145"/>
+      <c r="I111" s="128"/>
+      <c r="J111" s="128"/>
     </row>
     <row r="112" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A112" s="204" t="s">
+      <c r="A112" s="202" t="s">
         <v>54</v>
       </c>
-      <c r="B112" s="190" t="s">
+      <c r="B112" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="C112" s="177"/>
-      <c r="D112" s="130"/>
-      <c r="E112" s="142"/>
-      <c r="F112" s="130"/>
-      <c r="G112" s="130"/>
-      <c r="H112" s="130"/>
-      <c r="I112" s="130"/>
-      <c r="J112" s="130"/>
+      <c r="C112" s="175"/>
+      <c r="D112" s="128"/>
+      <c r="E112" s="140"/>
+      <c r="F112" s="128"/>
+      <c r="G112" s="128"/>
+      <c r="H112" s="128"/>
+      <c r="I112" s="128"/>
+      <c r="J112" s="128"/>
     </row>
     <row r="113" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A113" s="204" t="s">
+      <c r="A113" s="202" t="s">
         <v>55</v>
       </c>
-      <c r="B113" s="190" t="s">
+      <c r="B113" s="188" t="s">
         <v>2</v>
       </c>
-      <c r="C113" s="130"/>
-      <c r="D113" s="130"/>
-      <c r="E113" s="130"/>
-      <c r="F113" s="130"/>
-      <c r="G113" s="130"/>
-      <c r="H113" s="130"/>
-      <c r="I113" s="130"/>
-      <c r="J113" s="130"/>
+      <c r="C113" s="128"/>
+      <c r="D113" s="128"/>
+      <c r="E113" s="128"/>
+      <c r="F113" s="128"/>
+      <c r="G113" s="128"/>
+      <c r="H113" s="128"/>
+      <c r="I113" s="128"/>
+      <c r="J113" s="128"/>
     </row>
     <row r="114" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A114" s="118">
+      <c r="A114" s="116">
         <v>45027</v>
       </c>
-      <c r="B114" s="132" t="s">
+      <c r="B114" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="D114" s="132"/>
-      <c r="E114" s="145"/>
-      <c r="F114" s="132"/>
-      <c r="G114" s="132"/>
-      <c r="H114" s="132"/>
-      <c r="I114" s="132"/>
-      <c r="J114" s="132"/>
+      <c r="D114" s="130"/>
+      <c r="E114" s="143"/>
+      <c r="F114" s="130"/>
+      <c r="G114" s="130"/>
+      <c r="H114" s="130"/>
+      <c r="I114" s="130"/>
+      <c r="J114" s="130"/>
     </row>
     <row r="115" spans="1:10" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="118">
+      <c r="A115" s="116">
         <v>45028</v>
       </c>
-      <c r="B115" s="132" t="s">
+      <c r="B115" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="C115" s="144" t="s">
+      <c r="C115" s="142" t="s">
         <v>234</v>
       </c>
-      <c r="D115" s="268"/>
-      <c r="E115" s="144" t="s">
+      <c r="D115" s="266"/>
+      <c r="E115" s="142" t="s">
         <v>197</v>
       </c>
-      <c r="F115" s="244"/>
-      <c r="G115" s="188"/>
-      <c r="H115" s="269" t="s">
+      <c r="F115" s="242"/>
+      <c r="G115" s="186"/>
+      <c r="H115" s="267" t="s">
         <v>274</v>
       </c>
-      <c r="I115" s="132"/>
-      <c r="J115" s="168" t="s">
+      <c r="I115" s="130"/>
+      <c r="J115" s="166" t="s">
         <v>307</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A116" s="118">
+      <c r="A116" s="116">
         <v>45029</v>
       </c>
-      <c r="B116" s="132" t="s">
+      <c r="B116" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="C116" s="196" t="s">
+      <c r="C116" s="194" t="s">
         <v>338</v>
       </c>
-      <c r="D116" s="132"/>
-      <c r="E116" s="132"/>
-      <c r="F116" s="132"/>
-      <c r="G116" s="132"/>
-      <c r="H116" s="168" t="s">
+      <c r="D116" s="130"/>
+      <c r="E116" s="130"/>
+      <c r="F116" s="130"/>
+      <c r="G116" s="130"/>
+      <c r="H116" s="166" t="s">
         <v>339</v>
       </c>
-      <c r="I116" s="132"/>
-      <c r="J116" s="132"/>
+      <c r="I116" s="130"/>
+      <c r="J116" s="130"/>
     </row>
     <row r="117" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="118">
+      <c r="A117" s="116">
         <v>45030</v>
       </c>
-      <c r="B117" s="132" t="s">
+      <c r="B117" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="C117" s="196" t="s">
+      <c r="C117" s="194" t="s">
         <v>356</v>
       </c>
-      <c r="D117" s="132"/>
-      <c r="E117" s="271" t="s">
+      <c r="D117" s="130"/>
+      <c r="E117" s="269" t="s">
         <v>202</v>
       </c>
       <c r="F117" s="22"/>
@@ -7527,1507 +7513,1507 @@
       <c r="J117" s="22"/>
     </row>
     <row r="118" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A118" s="138">
+      <c r="A118" s="136">
         <v>45031</v>
       </c>
-      <c r="B118" s="130" t="s">
+      <c r="B118" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="C118" s="177" t="s">
+      <c r="C118" s="175" t="s">
         <v>335</v>
       </c>
-      <c r="D118" s="130"/>
-      <c r="E118" s="130"/>
-      <c r="F118" s="130"/>
-      <c r="G118" s="130"/>
-      <c r="H118" s="130"/>
-      <c r="I118" s="130"/>
-      <c r="J118" s="130"/>
+      <c r="D118" s="128"/>
+      <c r="E118" s="128"/>
+      <c r="F118" s="128"/>
+      <c r="G118" s="128"/>
+      <c r="H118" s="128"/>
+      <c r="I118" s="128"/>
+      <c r="J118" s="128"/>
     </row>
     <row r="119" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A119" s="138">
+      <c r="A119" s="136">
         <v>45032</v>
       </c>
-      <c r="B119" s="130" t="s">
+      <c r="B119" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="C119" s="146" t="s">
+      <c r="C119" s="144" t="s">
         <v>258</v>
       </c>
-      <c r="D119" s="130"/>
-      <c r="E119" s="130"/>
-      <c r="F119" s="130"/>
-      <c r="G119" s="130"/>
-      <c r="H119" s="130" t="s">
+      <c r="D119" s="128"/>
+      <c r="E119" s="128"/>
+      <c r="F119" s="128"/>
+      <c r="G119" s="128"/>
+      <c r="H119" s="128" t="s">
         <v>259</v>
       </c>
-      <c r="I119" s="130"/>
-      <c r="J119" s="130"/>
+      <c r="I119" s="128"/>
+      <c r="J119" s="128"/>
     </row>
     <row r="120" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A120" s="118">
+      <c r="A120" s="116">
         <v>45033</v>
       </c>
-      <c r="B120" s="192" t="s">
+      <c r="B120" s="190" t="s">
         <v>2</v>
       </c>
-      <c r="C120" s="132"/>
-      <c r="D120" s="132"/>
-      <c r="E120" s="132"/>
-      <c r="F120" s="132"/>
-      <c r="G120" s="132"/>
-      <c r="H120" s="132"/>
-      <c r="I120" s="132"/>
-      <c r="J120" s="132"/>
+      <c r="C120" s="130"/>
+      <c r="D120" s="130"/>
+      <c r="E120" s="130"/>
+      <c r="F120" s="130"/>
+      <c r="G120" s="130"/>
+      <c r="H120" s="130"/>
+      <c r="I120" s="130"/>
+      <c r="J120" s="130"/>
     </row>
     <row r="121" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A121" s="118">
+      <c r="A121" s="116">
         <v>45034</v>
       </c>
-      <c r="B121" s="132" t="s">
+      <c r="B121" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="C121" s="196" t="s">
+      <c r="C121" s="194" t="s">
         <v>381</v>
       </c>
-      <c r="D121" s="132"/>
-      <c r="E121" s="132"/>
-      <c r="F121" s="132"/>
-      <c r="G121" s="132"/>
-      <c r="H121" s="132" t="s">
+      <c r="D121" s="130"/>
+      <c r="E121" s="130"/>
+      <c r="F121" s="130"/>
+      <c r="G121" s="130"/>
+      <c r="H121" s="130" t="s">
         <v>280</v>
       </c>
-      <c r="I121" s="132"/>
-      <c r="J121" s="168" t="s">
+      <c r="I121" s="130"/>
+      <c r="J121" s="166" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A122" s="118">
+      <c r="A122" s="116">
         <v>45035</v>
       </c>
-      <c r="B122" s="132" t="s">
+      <c r="B122" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="C122" s="334" t="s">
+      <c r="C122" s="300" t="s">
         <v>382</v>
       </c>
-      <c r="D122" s="132"/>
-      <c r="E122" s="132"/>
-      <c r="F122" s="132"/>
-      <c r="G122" s="132"/>
-      <c r="H122" s="132"/>
-      <c r="I122" s="132"/>
-      <c r="J122" s="193"/>
+      <c r="D122" s="130"/>
+      <c r="E122" s="130"/>
+      <c r="F122" s="130"/>
+      <c r="G122" s="130"/>
+      <c r="H122" s="130"/>
+      <c r="I122" s="130"/>
+      <c r="J122" s="191"/>
     </row>
     <row r="123" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A123" s="118">
+      <c r="A123" s="116">
         <v>45036</v>
       </c>
-      <c r="B123" s="132" t="s">
+      <c r="B123" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="C123" s="175"/>
-      <c r="D123" s="132"/>
-      <c r="E123" s="132"/>
-      <c r="F123" s="132"/>
-      <c r="G123" s="132"/>
-      <c r="H123" s="132"/>
-      <c r="I123" s="132"/>
-      <c r="J123" s="194"/>
+      <c r="C123" s="173"/>
+      <c r="D123" s="130"/>
+      <c r="E123" s="130"/>
+      <c r="F123" s="130"/>
+      <c r="G123" s="130"/>
+      <c r="H123" s="130"/>
+      <c r="I123" s="130"/>
+      <c r="J123" s="192"/>
     </row>
     <row r="124" spans="1:10" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="118">
+      <c r="A124" s="116">
         <v>45037</v>
       </c>
-      <c r="B124" s="132" t="s">
+      <c r="B124" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="C124" s="148"/>
-      <c r="D124" s="132"/>
-      <c r="E124" s="224" t="s">
+      <c r="C124" s="146"/>
+      <c r="D124" s="130"/>
+      <c r="E124" s="222" t="s">
         <v>337</v>
       </c>
-      <c r="G124" s="144" t="s">
+      <c r="G124" s="142" t="s">
         <v>84</v>
       </c>
-      <c r="H124" s="168" t="s">
+      <c r="H124" s="166" t="s">
         <v>266</v>
       </c>
-      <c r="I124" s="132"/>
-      <c r="J124" s="168" t="s">
+      <c r="I124" s="130"/>
+      <c r="J124" s="166" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="125" spans="1:10" s="20" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A125" s="138">
+      <c r="A125" s="136">
         <v>45038</v>
       </c>
-      <c r="B125" s="130" t="s">
+      <c r="B125" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="C125" s="142"/>
-      <c r="D125" s="130"/>
-      <c r="E125" s="146"/>
-      <c r="F125" s="177"/>
-      <c r="G125" s="147"/>
-      <c r="H125" s="130"/>
-      <c r="I125" s="130"/>
-      <c r="J125" s="195"/>
+      <c r="C125" s="140"/>
+      <c r="D125" s="128"/>
+      <c r="E125" s="144"/>
+      <c r="F125" s="175"/>
+      <c r="G125" s="145"/>
+      <c r="H125" s="128"/>
+      <c r="I125" s="128"/>
+      <c r="J125" s="193"/>
     </row>
     <row r="126" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A126" s="138">
+      <c r="A126" s="136">
         <v>45039</v>
       </c>
-      <c r="B126" s="130" t="s">
+      <c r="B126" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="C126" s="130"/>
-      <c r="D126" s="130"/>
-      <c r="E126" s="130"/>
-      <c r="F126" s="130"/>
-      <c r="G126" s="130"/>
-      <c r="H126" s="130"/>
-      <c r="I126" s="130"/>
-      <c r="J126" s="130"/>
+      <c r="C126" s="128"/>
+      <c r="D126" s="128"/>
+      <c r="E126" s="128"/>
+      <c r="F126" s="128"/>
+      <c r="G126" s="128"/>
+      <c r="H126" s="128"/>
+      <c r="I126" s="128"/>
+      <c r="J126" s="128"/>
     </row>
     <row r="127" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A127" s="118">
+      <c r="A127" s="116">
         <v>45040</v>
       </c>
-      <c r="B127" s="132" t="s">
+      <c r="B127" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="C127" s="145"/>
-      <c r="D127" s="132"/>
-      <c r="E127" s="132"/>
-      <c r="F127" s="132"/>
-      <c r="G127" s="132"/>
-      <c r="H127" s="168"/>
-      <c r="I127" s="132"/>
-      <c r="J127" s="132"/>
+      <c r="C127" s="143"/>
+      <c r="D127" s="130"/>
+      <c r="E127" s="130"/>
+      <c r="F127" s="130"/>
+      <c r="G127" s="130"/>
+      <c r="H127" s="166"/>
+      <c r="I127" s="130"/>
+      <c r="J127" s="130"/>
     </row>
     <row r="128" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A128" s="118">
+      <c r="A128" s="116">
         <v>45041</v>
       </c>
-      <c r="B128" s="132" t="s">
+      <c r="B128" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="C128" s="263"/>
-      <c r="D128" s="132"/>
-      <c r="E128" s="132"/>
-      <c r="F128" s="132"/>
-      <c r="G128" s="132"/>
-      <c r="H128" s="132"/>
-      <c r="I128" s="132"/>
-      <c r="J128" s="132"/>
+      <c r="C128" s="261"/>
+      <c r="D128" s="130"/>
+      <c r="E128" s="130"/>
+      <c r="F128" s="130"/>
+      <c r="G128" s="130"/>
+      <c r="H128" s="130"/>
+      <c r="I128" s="130"/>
+      <c r="J128" s="130"/>
     </row>
     <row r="129" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A129" s="202">
+      <c r="A129" s="200">
         <v>45042</v>
       </c>
-      <c r="B129" s="226" t="s">
+      <c r="B129" s="224" t="s">
         <v>4</v>
       </c>
-      <c r="C129" s="273" t="s">
+      <c r="C129" s="271" t="s">
         <v>298</v>
       </c>
       <c r="D129" s="22"/>
       <c r="E129" s="22"/>
-      <c r="F129" s="273" t="s">
+      <c r="F129" s="271" t="s">
         <v>276</v>
       </c>
       <c r="G129" s="22" t="s">
         <v>278</v>
       </c>
       <c r="H129" s="22"/>
-      <c r="I129" s="132"/>
-      <c r="J129" s="132" t="s">
+      <c r="I129" s="130"/>
+      <c r="J129" s="130" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A130" s="118">
+      <c r="A130" s="116">
         <v>45043</v>
       </c>
-      <c r="B130" s="132" t="s">
+      <c r="B130" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="C130" s="175"/>
-      <c r="D130" s="132"/>
-      <c r="E130" s="132"/>
-      <c r="F130" s="145"/>
-      <c r="G130" s="270"/>
-      <c r="H130" s="132"/>
-      <c r="I130" s="132"/>
-      <c r="J130" s="132"/>
+      <c r="C130" s="173"/>
+      <c r="D130" s="130"/>
+      <c r="E130" s="130"/>
+      <c r="F130" s="143"/>
+      <c r="G130" s="268"/>
+      <c r="H130" s="130"/>
+      <c r="I130" s="130"/>
+      <c r="J130" s="130"/>
     </row>
     <row r="131" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A131" s="118">
+      <c r="A131" s="116">
         <v>45044</v>
       </c>
-      <c r="B131" s="132" t="s">
+      <c r="B131" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="C131" s="196"/>
-      <c r="D131" s="132"/>
-      <c r="E131" s="196"/>
-      <c r="F131" s="132"/>
-      <c r="G131" s="132"/>
-      <c r="H131" s="132"/>
-      <c r="I131" s="132"/>
-      <c r="J131" s="132"/>
+      <c r="C131" s="194"/>
+      <c r="D131" s="130"/>
+      <c r="E131" s="194"/>
+      <c r="F131" s="130"/>
+      <c r="G131" s="130"/>
+      <c r="H131" s="130"/>
+      <c r="I131" s="130"/>
+      <c r="J131" s="130"/>
     </row>
     <row r="132" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A132" s="138">
+      <c r="A132" s="136">
         <v>45045</v>
       </c>
-      <c r="B132" s="130" t="s">
+      <c r="B132" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="C132" s="186"/>
-      <c r="D132" s="130"/>
-      <c r="E132" s="186"/>
-      <c r="F132" s="146"/>
-      <c r="G132" s="147"/>
-      <c r="H132" s="130"/>
-      <c r="I132" s="130"/>
-      <c r="J132" s="147"/>
+      <c r="C132" s="184"/>
+      <c r="D132" s="128"/>
+      <c r="E132" s="184"/>
+      <c r="F132" s="144"/>
+      <c r="G132" s="145"/>
+      <c r="H132" s="128"/>
+      <c r="I132" s="128"/>
+      <c r="J132" s="145"/>
     </row>
     <row r="133" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A133" s="138">
+      <c r="A133" s="136">
         <v>45046</v>
       </c>
-      <c r="B133" s="130" t="s">
+      <c r="B133" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="C133" s="177" t="s">
+      <c r="C133" s="175" t="s">
         <v>358</v>
       </c>
-      <c r="D133" s="130"/>
-      <c r="E133" s="130"/>
-      <c r="F133" s="130"/>
-      <c r="G133" s="130"/>
-      <c r="H133" s="130"/>
-      <c r="I133" s="130"/>
-      <c r="J133" s="130"/>
+      <c r="D133" s="128"/>
+      <c r="E133" s="128"/>
+      <c r="F133" s="128"/>
+      <c r="G133" s="128"/>
+      <c r="H133" s="128"/>
+      <c r="I133" s="128"/>
+      <c r="J133" s="128"/>
     </row>
     <row r="134" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A134" s="203"/>
-      <c r="B134" s="151"/>
-      <c r="C134" s="133"/>
-      <c r="D134" s="133"/>
-      <c r="E134" s="133"/>
-      <c r="F134" s="133"/>
-      <c r="G134" s="133"/>
-      <c r="H134" s="133"/>
-      <c r="I134" s="133"/>
-      <c r="J134" s="133"/>
+      <c r="A134" s="201"/>
+      <c r="B134" s="149"/>
+      <c r="C134" s="131"/>
+      <c r="D134" s="131"/>
+      <c r="E134" s="131"/>
+      <c r="F134" s="131"/>
+      <c r="G134" s="131"/>
+      <c r="H134" s="131"/>
+      <c r="I134" s="131"/>
+      <c r="J134" s="131"/>
     </row>
     <row r="135" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A135" s="306" t="s">
+      <c r="A135" s="321" t="s">
         <v>20</v>
       </c>
-      <c r="B135" s="304" t="s">
+      <c r="B135" s="317" t="s">
         <v>15</v>
       </c>
-      <c r="C135" s="156" t="s">
+      <c r="C135" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="D135" s="157" t="s">
+      <c r="D135" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="E135" s="158" t="s">
+      <c r="E135" s="156" t="s">
         <v>9</v>
       </c>
-      <c r="F135" s="121" t="s">
+      <c r="F135" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="G135" s="122" t="s">
+      <c r="G135" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="H135" s="122" t="s">
+      <c r="H135" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="I135" s="122" t="s">
+      <c r="I135" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="J135" s="122" t="s">
+      <c r="J135" s="120" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="136" spans="1:10" s="5" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A136" s="307"/>
-      <c r="B136" s="305"/>
-      <c r="C136" s="159"/>
-      <c r="D136" s="160"/>
-      <c r="E136" s="159"/>
-      <c r="F136" s="160"/>
-      <c r="G136" s="122"/>
-      <c r="H136" s="122"/>
-      <c r="I136" s="122"/>
-      <c r="J136" s="122"/>
+      <c r="A136" s="322"/>
+      <c r="B136" s="318"/>
+      <c r="C136" s="157"/>
+      <c r="D136" s="158"/>
+      <c r="E136" s="157"/>
+      <c r="F136" s="158"/>
+      <c r="G136" s="120"/>
+      <c r="H136" s="120"/>
+      <c r="I136" s="120"/>
+      <c r="J136" s="120"/>
     </row>
     <row r="137" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A137" s="128">
+      <c r="A137" s="126">
         <v>45047</v>
       </c>
-      <c r="B137" s="190" t="s">
+      <c r="B137" s="188" t="s">
         <v>2</v>
       </c>
-      <c r="C137" s="130"/>
-      <c r="D137" s="130"/>
-      <c r="E137" s="130"/>
-      <c r="F137" s="130"/>
-      <c r="G137" s="130"/>
-      <c r="H137" s="130"/>
-      <c r="I137" s="130"/>
-      <c r="J137" s="130"/>
+      <c r="C137" s="128"/>
+      <c r="D137" s="128"/>
+      <c r="E137" s="128"/>
+      <c r="F137" s="128"/>
+      <c r="G137" s="128"/>
+      <c r="H137" s="128"/>
+      <c r="I137" s="128"/>
+      <c r="J137" s="128"/>
     </row>
     <row r="138" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A138" s="118">
+      <c r="A138" s="116">
         <v>45048</v>
       </c>
-      <c r="B138" s="132" t="s">
+      <c r="B138" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="C138" s="175"/>
-      <c r="D138" s="132"/>
-      <c r="E138" s="132"/>
-      <c r="F138" s="132"/>
-      <c r="G138" s="132"/>
-      <c r="H138" s="132"/>
-      <c r="I138" s="132"/>
-      <c r="J138" s="132"/>
+      <c r="C138" s="173"/>
+      <c r="D138" s="130"/>
+      <c r="E138" s="130"/>
+      <c r="F138" s="130"/>
+      <c r="G138" s="130"/>
+      <c r="H138" s="130"/>
+      <c r="I138" s="130"/>
+      <c r="J138" s="130"/>
     </row>
     <row r="139" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A139" s="118">
+      <c r="A139" s="116">
         <v>45049</v>
       </c>
-      <c r="B139" s="132" t="s">
+      <c r="B139" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="C139" s="145"/>
-      <c r="D139" s="132"/>
-      <c r="E139" s="145"/>
-      <c r="F139" s="132"/>
-      <c r="G139" s="132"/>
-      <c r="H139" s="168"/>
-      <c r="I139" s="132"/>
-      <c r="J139" s="132"/>
+      <c r="C139" s="143"/>
+      <c r="D139" s="130"/>
+      <c r="E139" s="143"/>
+      <c r="F139" s="130"/>
+      <c r="G139" s="130"/>
+      <c r="H139" s="166"/>
+      <c r="I139" s="130"/>
+      <c r="J139" s="130"/>
     </row>
     <row r="140" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A140" s="118">
+      <c r="A140" s="116">
         <v>45050</v>
       </c>
-      <c r="B140" s="132" t="s">
+      <c r="B140" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="C140" s="132"/>
-      <c r="D140" s="132"/>
-      <c r="E140" s="132"/>
-      <c r="F140" s="132"/>
-      <c r="G140" s="132"/>
-      <c r="H140" s="132"/>
-      <c r="I140" s="132"/>
-      <c r="J140" s="132"/>
+      <c r="C140" s="130"/>
+      <c r="D140" s="130"/>
+      <c r="E140" s="130"/>
+      <c r="F140" s="130"/>
+      <c r="G140" s="130"/>
+      <c r="H140" s="130"/>
+      <c r="I140" s="130"/>
+      <c r="J140" s="130"/>
     </row>
     <row r="141" spans="1:10" ht="55.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="118">
+      <c r="A141" s="116">
         <v>45051</v>
       </c>
-      <c r="B141" s="132" t="s">
+      <c r="B141" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="C141" s="145"/>
-      <c r="D141" s="132"/>
-      <c r="F141" s="224" t="s">
+      <c r="C141" s="143"/>
+      <c r="D141" s="130"/>
+      <c r="F141" s="222" t="s">
         <v>366</v>
       </c>
-      <c r="G141" s="293" t="s">
+      <c r="G141" s="291" t="s">
         <v>345</v>
       </c>
-      <c r="H141" s="132"/>
-      <c r="I141" s="132"/>
-      <c r="J141" s="168" t="s">
+      <c r="H141" s="130"/>
+      <c r="I141" s="130"/>
+      <c r="J141" s="166" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="67.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="138">
+      <c r="A142" s="136">
         <v>45052</v>
       </c>
-      <c r="B142" s="130" t="s">
+      <c r="B142" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="C142" s="186" t="s">
+      <c r="C142" s="184" t="s">
         <v>385</v>
       </c>
-      <c r="D142" s="130"/>
-      <c r="E142" s="177"/>
-      <c r="F142" s="280" t="s">
+      <c r="D142" s="128"/>
+      <c r="E142" s="175"/>
+      <c r="F142" s="278" t="s">
         <v>367</v>
       </c>
-      <c r="G142" s="278" t="s">
+      <c r="G142" s="276" t="s">
         <v>192</v>
       </c>
-      <c r="H142" s="279"/>
-      <c r="I142" s="279"/>
-      <c r="J142" s="278" t="s">
+      <c r="H142" s="277"/>
+      <c r="I142" s="277"/>
+      <c r="J142" s="276" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A143" s="138">
+      <c r="A143" s="136">
         <v>45053</v>
       </c>
-      <c r="B143" s="130" t="s">
+      <c r="B143" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="C143" s="177" t="s">
+      <c r="C143" s="175" t="s">
         <v>312</v>
       </c>
-      <c r="D143" s="130"/>
-      <c r="E143" s="142"/>
-      <c r="F143" s="197"/>
-      <c r="G143" s="177"/>
-      <c r="H143" s="147" t="s">
+      <c r="D143" s="128"/>
+      <c r="E143" s="140"/>
+      <c r="F143" s="195"/>
+      <c r="G143" s="175"/>
+      <c r="H143" s="145" t="s">
         <v>323</v>
       </c>
-      <c r="I143" s="130"/>
-      <c r="J143" s="130"/>
+      <c r="I143" s="128"/>
+      <c r="J143" s="128"/>
     </row>
     <row r="144" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="118">
+      <c r="A144" s="116">
         <v>45054</v>
       </c>
-      <c r="B144" s="132" t="s">
+      <c r="B144" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="C144" s="198"/>
-      <c r="D144" s="132"/>
-      <c r="E144" s="144" t="s">
+      <c r="C144" s="196"/>
+      <c r="D144" s="130"/>
+      <c r="E144" s="142" t="s">
         <v>368</v>
       </c>
-      <c r="F144" s="132"/>
-      <c r="G144" s="169" t="s">
+      <c r="F144" s="130"/>
+      <c r="G144" s="167" t="s">
         <v>373</v>
       </c>
-      <c r="H144" s="298" t="s">
+      <c r="H144" s="296" t="s">
         <v>369</v>
       </c>
-      <c r="I144" s="132"/>
+      <c r="I144" s="130"/>
     </row>
     <row r="145" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A145" s="118">
+      <c r="A145" s="116">
         <v>45055</v>
       </c>
-      <c r="B145" s="132" t="s">
+      <c r="B145" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="C145" s="196" t="s">
+      <c r="C145" s="194" t="s">
         <v>322</v>
       </c>
-      <c r="D145" s="132"/>
-      <c r="E145" s="148"/>
-      <c r="F145" s="132"/>
-      <c r="G145" s="148"/>
-      <c r="H145" s="132"/>
-      <c r="I145" s="132"/>
-      <c r="J145" s="132"/>
+      <c r="D145" s="130"/>
+      <c r="E145" s="146"/>
+      <c r="F145" s="130"/>
+      <c r="G145" s="146"/>
+      <c r="H145" s="130"/>
+      <c r="I145" s="130"/>
+      <c r="J145" s="130"/>
     </row>
     <row r="146" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="118">
+      <c r="A146" s="116">
         <v>45056</v>
       </c>
-      <c r="B146" s="132" t="s">
+      <c r="B146" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="C146" s="144"/>
-      <c r="D146" s="132"/>
-      <c r="E146" s="132"/>
-      <c r="F146" s="133"/>
-      <c r="G146" s="145"/>
-      <c r="H146" s="132"/>
-      <c r="I146" s="132"/>
-      <c r="J146" s="144"/>
+      <c r="C146" s="142"/>
+      <c r="D146" s="130"/>
+      <c r="E146" s="130"/>
+      <c r="F146" s="131"/>
+      <c r="G146" s="143"/>
+      <c r="H146" s="130"/>
+      <c r="I146" s="130"/>
+      <c r="J146" s="142"/>
     </row>
     <row r="147" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A147" s="118">
+      <c r="A147" s="116">
         <v>45057</v>
       </c>
-      <c r="B147" s="132" t="s">
+      <c r="B147" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="C147" s="175"/>
-      <c r="D147" s="132"/>
-      <c r="E147" s="132"/>
-      <c r="F147" s="145"/>
-      <c r="G147" s="148"/>
-      <c r="H147" s="168"/>
-      <c r="I147" s="132"/>
-      <c r="J147" s="132"/>
+      <c r="C147" s="173"/>
+      <c r="D147" s="130"/>
+      <c r="E147" s="130"/>
+      <c r="F147" s="143"/>
+      <c r="G147" s="146"/>
+      <c r="H147" s="166"/>
+      <c r="I147" s="130"/>
+      <c r="J147" s="130"/>
     </row>
     <row r="148" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A148" s="118">
+      <c r="A148" s="116">
         <v>45058</v>
       </c>
-      <c r="B148" s="132" t="s">
+      <c r="B148" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="C148" s="148"/>
-      <c r="D148" s="132"/>
-      <c r="E148" s="148"/>
-      <c r="F148" s="132"/>
-      <c r="G148" s="148"/>
-      <c r="H148" s="132"/>
-      <c r="I148" s="132"/>
-      <c r="J148" s="132"/>
+      <c r="C148" s="146"/>
+      <c r="D148" s="130"/>
+      <c r="E148" s="146"/>
+      <c r="F148" s="130"/>
+      <c r="G148" s="146"/>
+      <c r="H148" s="130"/>
+      <c r="I148" s="130"/>
+      <c r="J148" s="130"/>
     </row>
     <row r="149" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A149" s="138">
+      <c r="A149" s="136">
         <v>45059</v>
       </c>
-      <c r="B149" s="130" t="s">
+      <c r="B149" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="C149" s="182"/>
-      <c r="D149" s="130"/>
-      <c r="E149" s="130"/>
-      <c r="F149" s="130"/>
-      <c r="G149" s="142"/>
-      <c r="H149" s="130"/>
-      <c r="I149" s="130"/>
-      <c r="J149" s="130"/>
+      <c r="C149" s="180"/>
+      <c r="D149" s="128"/>
+      <c r="E149" s="128"/>
+      <c r="F149" s="128"/>
+      <c r="G149" s="140"/>
+      <c r="H149" s="128"/>
+      <c r="I149" s="128"/>
+      <c r="J149" s="128"/>
     </row>
     <row r="150" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A150" s="138">
+      <c r="A150" s="136">
         <v>45060</v>
       </c>
-      <c r="B150" s="130" t="s">
+      <c r="B150" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="C150" s="142"/>
-      <c r="D150" s="130"/>
-      <c r="E150" s="130"/>
-      <c r="F150" s="130"/>
-      <c r="G150" s="142"/>
-      <c r="H150" s="130"/>
-      <c r="I150" s="130"/>
-      <c r="J150" s="130"/>
+      <c r="C150" s="140"/>
+      <c r="D150" s="128"/>
+      <c r="E150" s="128"/>
+      <c r="F150" s="128"/>
+      <c r="G150" s="140"/>
+      <c r="H150" s="128"/>
+      <c r="I150" s="128"/>
+      <c r="J150" s="128"/>
     </row>
     <row r="151" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A151" s="118">
+      <c r="A151" s="116">
         <v>45061</v>
       </c>
-      <c r="B151" s="132" t="s">
+      <c r="B151" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="C151" s="132"/>
-      <c r="D151" s="132"/>
-      <c r="E151" s="132"/>
-      <c r="F151" s="132"/>
-      <c r="G151" s="148"/>
-      <c r="H151" s="132"/>
-      <c r="I151" s="132"/>
-      <c r="J151" s="132"/>
+      <c r="C151" s="130"/>
+      <c r="D151" s="130"/>
+      <c r="E151" s="130"/>
+      <c r="F151" s="130"/>
+      <c r="G151" s="146"/>
+      <c r="H151" s="130"/>
+      <c r="I151" s="130"/>
+      <c r="J151" s="130"/>
     </row>
     <row r="152" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A152" s="118">
+      <c r="A152" s="116">
         <v>45062</v>
       </c>
-      <c r="B152" s="132" t="s">
+      <c r="B152" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="C152" s="132"/>
-      <c r="D152" s="132"/>
-      <c r="E152" s="132"/>
-      <c r="F152" s="132"/>
-      <c r="G152" s="148"/>
-      <c r="H152" s="132"/>
-      <c r="I152" s="132"/>
-      <c r="J152" s="132"/>
+      <c r="C152" s="130"/>
+      <c r="D152" s="130"/>
+      <c r="E152" s="130"/>
+      <c r="F152" s="130"/>
+      <c r="G152" s="146"/>
+      <c r="H152" s="130"/>
+      <c r="I152" s="130"/>
+      <c r="J152" s="130"/>
     </row>
     <row r="153" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A153" s="118">
+      <c r="A153" s="116">
         <v>45063</v>
       </c>
-      <c r="B153" s="132" t="s">
+      <c r="B153" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="C153" s="145" t="s">
+      <c r="C153" s="143" t="s">
         <v>340</v>
       </c>
-      <c r="D153" s="132"/>
-      <c r="E153" s="132"/>
-      <c r="F153" s="132"/>
-      <c r="G153" s="148"/>
-      <c r="H153" s="168" t="s">
+      <c r="D153" s="130"/>
+      <c r="E153" s="130"/>
+      <c r="F153" s="130"/>
+      <c r="G153" s="146"/>
+      <c r="H153" s="166" t="s">
         <v>342</v>
       </c>
-      <c r="I153" s="132"/>
-      <c r="J153" s="132"/>
+      <c r="I153" s="130"/>
+      <c r="J153" s="130"/>
     </row>
     <row r="154" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="118">
+      <c r="A154" s="116">
         <v>45064</v>
       </c>
-      <c r="B154" s="132" t="s">
+      <c r="B154" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="C154" s="196" t="s">
+      <c r="C154" s="194" t="s">
         <v>362</v>
       </c>
-      <c r="D154" s="132"/>
+      <c r="D154" s="130"/>
       <c r="E154" s="22"/>
-      <c r="F154" s="224" t="s">
+      <c r="F154" s="222" t="s">
         <v>87</v>
       </c>
-      <c r="G154" s="144" t="s">
+      <c r="G154" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="H154" s="132" t="s">
+      <c r="H154" s="130" t="s">
         <v>363</v>
       </c>
-      <c r="I154" s="132"/>
-      <c r="J154" s="174" t="s">
+      <c r="I154" s="130"/>
+      <c r="J154" s="172" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="155" spans="1:10" s="20" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="118"/>
-      <c r="B155" s="132"/>
-      <c r="C155" s="145"/>
-      <c r="D155" s="132"/>
+      <c r="A155" s="116"/>
+      <c r="B155" s="130"/>
+      <c r="C155" s="143"/>
+      <c r="D155" s="130"/>
       <c r="E155" s="22"/>
-      <c r="F155" s="299" t="s">
+      <c r="F155" s="297" t="s">
         <v>376</v>
       </c>
-      <c r="G155" s="144" t="s">
+      <c r="G155" s="142" t="s">
         <v>365</v>
       </c>
-      <c r="H155" s="132"/>
-      <c r="I155" s="132"/>
-      <c r="J155" s="174" t="s">
+      <c r="H155" s="130"/>
+      <c r="I155" s="130"/>
+      <c r="J155" s="172" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="156" spans="1:10" s="20" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="118">
+      <c r="A156" s="116">
         <v>45065</v>
       </c>
-      <c r="B156" s="132" t="s">
+      <c r="B156" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="C156" s="196"/>
-      <c r="D156" s="132"/>
-      <c r="E156" s="132"/>
-      <c r="F156" s="224" t="s">
+      <c r="C156" s="194"/>
+      <c r="D156" s="130"/>
+      <c r="E156" s="130"/>
+      <c r="F156" s="222" t="s">
         <v>90</v>
       </c>
-      <c r="G156" s="144" t="s">
+      <c r="G156" s="142" t="s">
         <v>88</v>
       </c>
-      <c r="H156" s="132"/>
-      <c r="I156" s="132"/>
-      <c r="J156" s="168" t="s">
+      <c r="H156" s="130"/>
+      <c r="I156" s="130"/>
+      <c r="J156" s="166" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="157" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A157" s="138">
+      <c r="A157" s="136">
         <v>45066</v>
       </c>
-      <c r="B157" s="130" t="s">
+      <c r="B157" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="C157" s="294" t="s">
+      <c r="C157" s="292" t="s">
         <v>350</v>
       </c>
-      <c r="D157" s="130"/>
-      <c r="E157" s="130"/>
-      <c r="F157" s="146"/>
-      <c r="G157" s="195"/>
-      <c r="H157" s="130"/>
-      <c r="I157" s="130"/>
-      <c r="J157" s="147"/>
+      <c r="D157" s="128"/>
+      <c r="E157" s="128"/>
+      <c r="F157" s="144"/>
+      <c r="G157" s="193"/>
+      <c r="H157" s="128"/>
+      <c r="I157" s="128"/>
+      <c r="J157" s="145"/>
     </row>
     <row r="158" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A158" s="138">
+      <c r="A158" s="136">
         <v>45067</v>
       </c>
-      <c r="B158" s="130" t="s">
+      <c r="B158" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="C158" s="199"/>
-      <c r="D158" s="130"/>
-      <c r="E158" s="146"/>
-      <c r="F158" s="130"/>
-      <c r="G158" s="147"/>
-      <c r="H158" s="130"/>
-      <c r="I158" s="130"/>
-      <c r="J158" s="147"/>
+      <c r="C158" s="197"/>
+      <c r="D158" s="128"/>
+      <c r="E158" s="144"/>
+      <c r="F158" s="128"/>
+      <c r="G158" s="145"/>
+      <c r="H158" s="128"/>
+      <c r="I158" s="128"/>
+      <c r="J158" s="145"/>
     </row>
     <row r="159" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A159" s="118">
+      <c r="A159" s="116">
         <v>45068</v>
       </c>
-      <c r="B159" s="132" t="s">
+      <c r="B159" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="C159" s="145"/>
-      <c r="D159" s="132"/>
-      <c r="E159" s="132"/>
-      <c r="F159" s="132"/>
-      <c r="G159" s="132"/>
-      <c r="H159" s="132"/>
-      <c r="I159" s="132"/>
-      <c r="J159" s="132"/>
+      <c r="C159" s="143"/>
+      <c r="D159" s="130"/>
+      <c r="E159" s="130"/>
+      <c r="F159" s="130"/>
+      <c r="G159" s="130"/>
+      <c r="H159" s="130"/>
+      <c r="I159" s="130"/>
+      <c r="J159" s="130"/>
     </row>
     <row r="160" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A160" s="118">
+      <c r="A160" s="116">
         <v>45069</v>
       </c>
-      <c r="B160" s="132" t="s">
+      <c r="B160" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="C160" s="196" t="s">
+      <c r="C160" s="194" t="s">
         <v>359</v>
       </c>
-      <c r="D160" s="132"/>
-      <c r="E160" s="132"/>
-      <c r="F160" s="132"/>
-      <c r="G160" s="132"/>
-      <c r="H160" s="132"/>
-      <c r="I160" s="132"/>
-      <c r="J160" s="296" t="s">
+      <c r="D160" s="130"/>
+      <c r="E160" s="130"/>
+      <c r="F160" s="130"/>
+      <c r="G160" s="130"/>
+      <c r="H160" s="130"/>
+      <c r="I160" s="130"/>
+      <c r="J160" s="294" t="s">
         <v>360</v>
       </c>
     </row>
     <row r="161" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A161" s="118">
+      <c r="A161" s="116">
         <v>45070</v>
       </c>
-      <c r="B161" s="132" t="s">
+      <c r="B161" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="C161" s="237" t="s">
+      <c r="C161" s="235" t="s">
         <v>314</v>
       </c>
-      <c r="D161" s="132"/>
-      <c r="E161" s="132"/>
-      <c r="F161" s="132"/>
-      <c r="G161" s="132"/>
-      <c r="H161" s="132"/>
-      <c r="I161" s="132"/>
-      <c r="J161" s="168" t="s">
+      <c r="D161" s="130"/>
+      <c r="E161" s="130"/>
+      <c r="F161" s="130"/>
+      <c r="G161" s="130"/>
+      <c r="H161" s="130"/>
+      <c r="I161" s="130"/>
+      <c r="J161" s="166" t="s">
         <v>344</v>
       </c>
     </row>
     <row r="162" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A162" s="118">
+      <c r="A162" s="116">
         <v>45071</v>
       </c>
-      <c r="B162" s="132" t="s">
+      <c r="B162" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="C162" s="237" t="s">
+      <c r="C162" s="235" t="s">
         <v>316</v>
       </c>
-      <c r="D162" s="132"/>
-      <c r="E162" s="132"/>
-      <c r="F162" s="132"/>
-      <c r="G162" s="132"/>
-      <c r="H162" s="132"/>
-      <c r="I162" s="132"/>
-      <c r="J162" s="132"/>
+      <c r="D162" s="130"/>
+      <c r="E162" s="130"/>
+      <c r="F162" s="130"/>
+      <c r="G162" s="130"/>
+      <c r="H162" s="130"/>
+      <c r="I162" s="130"/>
+      <c r="J162" s="130"/>
     </row>
     <row r="163" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A163" s="118">
+      <c r="A163" s="116">
         <v>45072</v>
       </c>
-      <c r="B163" s="132" t="s">
+      <c r="B163" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="C163" s="145" t="s">
+      <c r="C163" s="143" t="s">
         <v>315</v>
       </c>
-      <c r="D163" s="132"/>
-      <c r="E163" s="132"/>
-      <c r="F163" s="132"/>
-      <c r="G163" s="132"/>
-      <c r="H163" s="132"/>
-      <c r="I163" s="132"/>
-      <c r="J163" s="132"/>
+      <c r="D163" s="130"/>
+      <c r="E163" s="130"/>
+      <c r="F163" s="130"/>
+      <c r="G163" s="130"/>
+      <c r="H163" s="130"/>
+      <c r="I163" s="130"/>
+      <c r="J163" s="130"/>
     </row>
     <row r="164" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A164" s="138">
+      <c r="A164" s="136">
         <v>45073</v>
       </c>
-      <c r="B164" s="130" t="s">
+      <c r="B164" s="128" t="s">
         <v>0</v>
       </c>
       <c r="C164" s="53"/>
-      <c r="D164" s="130"/>
-      <c r="E164" s="130"/>
-      <c r="F164" s="130"/>
-      <c r="G164" s="130"/>
-      <c r="H164" s="130"/>
-      <c r="I164" s="130"/>
-      <c r="J164" s="130"/>
+      <c r="D164" s="128"/>
+      <c r="E164" s="128"/>
+      <c r="F164" s="128"/>
+      <c r="G164" s="128"/>
+      <c r="H164" s="128"/>
+      <c r="I164" s="128"/>
+      <c r="J164" s="128"/>
     </row>
     <row r="165" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A165" s="128">
+      <c r="A165" s="126">
         <v>45074</v>
       </c>
-      <c r="B165" s="190" t="s">
+      <c r="B165" s="188" t="s">
         <v>1</v>
       </c>
-      <c r="C165" s="182"/>
-      <c r="D165" s="130"/>
-      <c r="E165" s="177"/>
-      <c r="F165" s="130"/>
-      <c r="G165" s="130"/>
-      <c r="H165" s="130"/>
-      <c r="I165" s="130"/>
-      <c r="J165" s="130"/>
+      <c r="C165" s="180"/>
+      <c r="D165" s="128"/>
+      <c r="E165" s="175"/>
+      <c r="F165" s="128"/>
+      <c r="G165" s="128"/>
+      <c r="H165" s="128"/>
+      <c r="I165" s="128"/>
+      <c r="J165" s="128"/>
     </row>
     <row r="166" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A166" s="204" t="s">
+      <c r="A166" s="202" t="s">
         <v>57</v>
       </c>
-      <c r="B166" s="190" t="s">
+      <c r="B166" s="188" t="s">
         <v>2</v>
       </c>
-      <c r="C166" s="186"/>
-      <c r="D166" s="130"/>
-      <c r="E166" s="130"/>
-      <c r="F166" s="130"/>
-      <c r="G166" s="130"/>
-      <c r="H166" s="147"/>
-      <c r="I166" s="130"/>
-      <c r="J166" s="130"/>
+      <c r="C166" s="184"/>
+      <c r="D166" s="128"/>
+      <c r="E166" s="128"/>
+      <c r="F166" s="128"/>
+      <c r="G166" s="128"/>
+      <c r="H166" s="145"/>
+      <c r="I166" s="128"/>
+      <c r="J166" s="128"/>
     </row>
     <row r="167" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A167" s="267">
+      <c r="A167" s="265">
         <v>45076</v>
       </c>
-      <c r="B167" s="132" t="s">
+      <c r="B167" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="C167" s="196" t="s">
+      <c r="C167" s="194" t="s">
         <v>374</v>
       </c>
-      <c r="D167" s="132"/>
-      <c r="E167" s="132"/>
-      <c r="F167" s="132"/>
-      <c r="G167" s="132"/>
-      <c r="H167" s="168" t="s">
+      <c r="D167" s="130"/>
+      <c r="E167" s="130"/>
+      <c r="F167" s="130"/>
+      <c r="G167" s="130"/>
+      <c r="H167" s="166" t="s">
         <v>375</v>
       </c>
-      <c r="I167" s="132"/>
-      <c r="J167" s="132"/>
+      <c r="I167" s="130"/>
+      <c r="J167" s="130"/>
     </row>
     <row r="168" spans="1:10" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A168" s="267">
+      <c r="A168" s="265">
         <v>45077</v>
       </c>
-      <c r="B168" s="132" t="s">
+      <c r="B168" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="C168" s="145" t="s">
+      <c r="C168" s="143" t="s">
         <v>313</v>
       </c>
-      <c r="D168" s="132"/>
-      <c r="E168" s="148"/>
-      <c r="F168" s="132"/>
-      <c r="G168" s="132"/>
-      <c r="H168" s="284" t="s">
+      <c r="D168" s="130"/>
+      <c r="E168" s="146"/>
+      <c r="F168" s="130"/>
+      <c r="G168" s="130"/>
+      <c r="H168" s="282" t="s">
         <v>324</v>
       </c>
-      <c r="I168" s="132"/>
-      <c r="J168" s="132"/>
+      <c r="I168" s="130"/>
+      <c r="J168" s="130"/>
     </row>
     <row r="169" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A169" s="154"/>
-      <c r="B169" s="151"/>
-      <c r="C169" s="151"/>
-      <c r="D169" s="151"/>
-      <c r="E169" s="151"/>
-      <c r="F169" s="151"/>
-      <c r="G169" s="151"/>
-      <c r="H169" s="151"/>
-      <c r="I169" s="151"/>
-      <c r="J169" s="151"/>
+      <c r="A169" s="152"/>
+      <c r="B169" s="149"/>
+      <c r="C169" s="149"/>
+      <c r="D169" s="149"/>
+      <c r="E169" s="149"/>
+      <c r="F169" s="149"/>
+      <c r="G169" s="149"/>
+      <c r="H169" s="149"/>
+      <c r="I169" s="149"/>
+      <c r="J169" s="149"/>
     </row>
     <row r="170" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A170" s="308" t="s">
+      <c r="A170" s="323" t="s">
         <v>21</v>
       </c>
-      <c r="B170" s="304" t="s">
+      <c r="B170" s="317" t="s">
         <v>15</v>
       </c>
-      <c r="C170" s="156" t="s">
+      <c r="C170" s="154" t="s">
         <v>44</v>
       </c>
-      <c r="D170" s="157" t="s">
+      <c r="D170" s="155" t="s">
         <v>8</v>
       </c>
-      <c r="E170" s="158" t="s">
+      <c r="E170" s="156" t="s">
         <v>9</v>
       </c>
-      <c r="F170" s="121" t="s">
+      <c r="F170" s="119" t="s">
         <v>17</v>
       </c>
-      <c r="G170" s="122" t="s">
+      <c r="G170" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="H170" s="122" t="s">
+      <c r="H170" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="I170" s="122" t="s">
+      <c r="I170" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="J170" s="122" t="s">
+      <c r="J170" s="120" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="171" spans="1:10" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A171" s="309"/>
-      <c r="B171" s="305"/>
-      <c r="C171" s="159"/>
-      <c r="D171" s="160"/>
-      <c r="E171" s="159"/>
-      <c r="F171" s="160"/>
-      <c r="G171" s="122"/>
-      <c r="H171" s="122"/>
-      <c r="I171" s="122"/>
-      <c r="J171" s="122"/>
+      <c r="A171" s="324"/>
+      <c r="B171" s="318"/>
+      <c r="C171" s="157"/>
+      <c r="D171" s="158"/>
+      <c r="E171" s="157"/>
+      <c r="F171" s="158"/>
+      <c r="G171" s="120"/>
+      <c r="H171" s="120"/>
+      <c r="I171" s="120"/>
+      <c r="J171" s="120"/>
     </row>
     <row r="172" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A172" s="118">
+      <c r="A172" s="116">
         <v>45078</v>
       </c>
-      <c r="B172" s="132" t="s">
+      <c r="B172" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="C172" s="148"/>
-      <c r="D172" s="132"/>
-      <c r="E172" s="132"/>
-      <c r="F172" s="132"/>
-      <c r="G172" s="201"/>
-      <c r="H172" s="168"/>
-      <c r="I172" s="132"/>
-      <c r="J172" s="132"/>
+      <c r="C172" s="146"/>
+      <c r="D172" s="130"/>
+      <c r="E172" s="130"/>
+      <c r="F172" s="130"/>
+      <c r="G172" s="199"/>
+      <c r="H172" s="166"/>
+      <c r="I172" s="130"/>
+      <c r="J172" s="130"/>
     </row>
     <row r="173" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A173" s="118">
+      <c r="A173" s="116">
         <v>45079</v>
       </c>
-      <c r="B173" s="132" t="s">
+      <c r="B173" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="C173" s="294" t="s">
+      <c r="C173" s="292" t="s">
         <v>351</v>
       </c>
-      <c r="D173" s="132"/>
-      <c r="E173" s="132"/>
-      <c r="F173" s="132"/>
-      <c r="G173" s="132"/>
-      <c r="H173" s="132"/>
-      <c r="I173" s="132"/>
-      <c r="J173" s="132"/>
+      <c r="D173" s="130"/>
+      <c r="E173" s="130"/>
+      <c r="F173" s="130"/>
+      <c r="G173" s="130"/>
+      <c r="H173" s="130"/>
+      <c r="I173" s="130"/>
+      <c r="J173" s="130"/>
     </row>
     <row r="174" spans="1:10" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A174" s="138">
+      <c r="A174" s="136">
         <v>45080</v>
       </c>
-      <c r="B174" s="130" t="s">
+      <c r="B174" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="C174" s="182" t="s">
+      <c r="C174" s="180" t="s">
         <v>260</v>
       </c>
-      <c r="D174" s="130"/>
-      <c r="E174" s="130"/>
-      <c r="F174" s="130"/>
-      <c r="G174" s="130"/>
-      <c r="H174" s="147" t="s">
+      <c r="D174" s="128"/>
+      <c r="E174" s="128"/>
+      <c r="F174" s="128"/>
+      <c r="G174" s="128"/>
+      <c r="H174" s="145" t="s">
         <v>343</v>
       </c>
-      <c r="I174" s="130"/>
-      <c r="J174" s="147" t="s">
+      <c r="I174" s="128"/>
+      <c r="J174" s="145" t="s">
         <v>279</v>
       </c>
     </row>
     <row r="175" spans="1:10" ht="63" x14ac:dyDescent="0.25">
-      <c r="A175" s="138">
+      <c r="A175" s="136">
         <v>45081</v>
       </c>
-      <c r="B175" s="130" t="s">
+      <c r="B175" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="C175" s="177" t="s">
+      <c r="C175" s="175" t="s">
         <v>346</v>
       </c>
-      <c r="D175" s="130"/>
-      <c r="E175" s="130"/>
-      <c r="F175" s="130"/>
-      <c r="G175" s="130"/>
-      <c r="H175" s="130"/>
-      <c r="I175" s="130"/>
-      <c r="J175" s="147" t="s">
+      <c r="D175" s="128"/>
+      <c r="E175" s="128"/>
+      <c r="F175" s="128"/>
+      <c r="G175" s="128"/>
+      <c r="H175" s="128"/>
+      <c r="I175" s="128"/>
+      <c r="J175" s="145" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="176" spans="1:10" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A176" s="118">
+      <c r="A176" s="116">
         <v>45082</v>
       </c>
-      <c r="B176" s="132" t="s">
+      <c r="B176" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="C176" s="237" t="s">
+      <c r="C176" s="235" t="s">
         <v>347</v>
       </c>
-      <c r="D176" s="132"/>
-      <c r="E176" s="132"/>
-      <c r="F176" s="132"/>
-      <c r="G176" s="132"/>
-      <c r="H176" s="132"/>
-      <c r="I176" s="132"/>
-      <c r="J176" s="132"/>
+      <c r="D176" s="130"/>
+      <c r="E176" s="130"/>
+      <c r="F176" s="130"/>
+      <c r="G176" s="130"/>
+      <c r="H176" s="130"/>
+      <c r="I176" s="130"/>
+      <c r="J176" s="130"/>
     </row>
     <row r="177" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A177" s="118">
+      <c r="A177" s="116">
         <v>45083</v>
       </c>
-      <c r="B177" s="132" t="s">
+      <c r="B177" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="C177" s="148"/>
-      <c r="D177" s="132"/>
-      <c r="E177" s="132"/>
-      <c r="F177" s="132"/>
-      <c r="G177" s="132"/>
-      <c r="H177" s="132"/>
-      <c r="I177" s="132"/>
-      <c r="J177" s="132"/>
+      <c r="C177" s="146"/>
+      <c r="D177" s="130"/>
+      <c r="E177" s="130"/>
+      <c r="F177" s="130"/>
+      <c r="G177" s="130"/>
+      <c r="H177" s="130"/>
+      <c r="I177" s="130"/>
+      <c r="J177" s="130"/>
     </row>
     <row r="178" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A178" s="118">
+      <c r="A178" s="116">
         <v>45084</v>
       </c>
-      <c r="B178" s="132" t="s">
+      <c r="B178" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="C178" s="148"/>
-      <c r="D178" s="132"/>
-      <c r="E178" s="132"/>
-      <c r="F178" s="132"/>
-      <c r="G178" s="132"/>
-      <c r="H178" s="132"/>
-      <c r="I178" s="132"/>
-      <c r="J178" s="132"/>
+      <c r="C178" s="146"/>
+      <c r="D178" s="130"/>
+      <c r="E178" s="130"/>
+      <c r="F178" s="130"/>
+      <c r="G178" s="130"/>
+      <c r="H178" s="130"/>
+      <c r="I178" s="130"/>
+      <c r="J178" s="130"/>
     </row>
     <row r="179" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A179" s="118">
+      <c r="A179" s="116">
         <v>45085</v>
       </c>
-      <c r="B179" s="132" t="s">
+      <c r="B179" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="C179" s="148"/>
-      <c r="D179" s="132"/>
-      <c r="E179" s="132"/>
-      <c r="F179" s="132"/>
-      <c r="G179" s="132"/>
-      <c r="H179" s="132"/>
-      <c r="I179" s="132"/>
-      <c r="J179" s="132"/>
+      <c r="C179" s="146"/>
+      <c r="D179" s="130"/>
+      <c r="E179" s="130"/>
+      <c r="F179" s="130"/>
+      <c r="G179" s="130"/>
+      <c r="H179" s="130"/>
+      <c r="I179" s="130"/>
+      <c r="J179" s="130"/>
     </row>
     <row r="180" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A180" s="118">
+      <c r="A180" s="116">
         <v>45086</v>
       </c>
-      <c r="B180" s="132" t="s">
+      <c r="B180" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="C180" s="133"/>
-      <c r="D180" s="132"/>
-      <c r="E180" s="132"/>
-      <c r="F180" s="132"/>
-      <c r="G180" s="132"/>
-      <c r="H180" s="132"/>
-      <c r="I180" s="132"/>
-      <c r="J180" s="132"/>
+      <c r="C180" s="131"/>
+      <c r="D180" s="130"/>
+      <c r="E180" s="130"/>
+      <c r="F180" s="130"/>
+      <c r="G180" s="130"/>
+      <c r="H180" s="130"/>
+      <c r="I180" s="130"/>
+      <c r="J180" s="130"/>
     </row>
     <row r="181" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A181" s="138">
+      <c r="A181" s="136">
         <v>45087</v>
       </c>
-      <c r="B181" s="130" t="s">
+      <c r="B181" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="C181" s="142"/>
-      <c r="D181" s="130"/>
-      <c r="E181" s="130"/>
-      <c r="F181" s="130"/>
-      <c r="G181" s="130"/>
-      <c r="H181" s="130"/>
-      <c r="I181" s="130"/>
-      <c r="J181" s="130"/>
+      <c r="C181" s="140"/>
+      <c r="D181" s="128"/>
+      <c r="E181" s="128"/>
+      <c r="F181" s="128"/>
+      <c r="G181" s="128"/>
+      <c r="H181" s="128"/>
+      <c r="I181" s="128"/>
+      <c r="J181" s="128"/>
     </row>
     <row r="182" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A182" s="138">
+      <c r="A182" s="136">
         <v>45088</v>
       </c>
-      <c r="B182" s="130" t="s">
+      <c r="B182" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="C182" s="182" t="s">
+      <c r="C182" s="180" t="s">
         <v>208</v>
       </c>
-      <c r="D182" s="130"/>
-      <c r="E182" s="142"/>
-      <c r="F182" s="130"/>
-      <c r="G182" s="130"/>
-      <c r="H182" s="130"/>
-      <c r="I182" s="130"/>
-      <c r="J182" s="130"/>
+      <c r="D182" s="128"/>
+      <c r="E182" s="140"/>
+      <c r="F182" s="128"/>
+      <c r="G182" s="128"/>
+      <c r="H182" s="128"/>
+      <c r="I182" s="128"/>
+      <c r="J182" s="128"/>
     </row>
     <row r="183" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A183" s="118">
+      <c r="A183" s="116">
         <v>45089</v>
       </c>
-      <c r="B183" s="132" t="s">
+      <c r="B183" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="C183" s="132"/>
-      <c r="D183" s="132"/>
-      <c r="E183" s="132"/>
-      <c r="F183" s="132"/>
-      <c r="G183" s="132"/>
-      <c r="H183" s="132"/>
-      <c r="I183" s="132"/>
-      <c r="J183" s="132"/>
+      <c r="C183" s="130"/>
+      <c r="D183" s="130"/>
+      <c r="E183" s="130"/>
+      <c r="F183" s="130"/>
+      <c r="G183" s="130"/>
+      <c r="H183" s="130"/>
+      <c r="I183" s="130"/>
+      <c r="J183" s="130"/>
     </row>
     <row r="184" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A184" s="118">
+      <c r="A184" s="116">
         <v>45090</v>
       </c>
-      <c r="B184" s="132" t="s">
+      <c r="B184" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="C184" s="132"/>
-      <c r="D184" s="132"/>
-      <c r="E184" s="132"/>
-      <c r="F184" s="132"/>
-      <c r="G184" s="132"/>
-      <c r="H184" s="132"/>
-      <c r="I184" s="132"/>
-      <c r="J184" s="132"/>
+      <c r="C184" s="130"/>
+      <c r="D184" s="130"/>
+      <c r="E184" s="130"/>
+      <c r="F184" s="130"/>
+      <c r="G184" s="130"/>
+      <c r="H184" s="130"/>
+      <c r="I184" s="130"/>
+      <c r="J184" s="130"/>
     </row>
     <row r="185" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A185" s="118">
+      <c r="A185" s="116">
         <v>45091</v>
       </c>
-      <c r="B185" s="132" t="s">
+      <c r="B185" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="C185" s="175" t="s">
+      <c r="C185" s="173" t="s">
         <v>212</v>
       </c>
-      <c r="D185" s="132"/>
-      <c r="E185" s="132"/>
-      <c r="F185" s="132"/>
-      <c r="G185" s="132"/>
-      <c r="H185" s="132"/>
-      <c r="I185" s="132"/>
-      <c r="J185" s="132"/>
+      <c r="D185" s="130"/>
+      <c r="E185" s="130"/>
+      <c r="F185" s="130"/>
+      <c r="G185" s="130"/>
+      <c r="H185" s="130"/>
+      <c r="I185" s="130"/>
+      <c r="J185" s="130"/>
     </row>
     <row r="186" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A186" s="118">
+      <c r="A186" s="116">
         <v>45092</v>
       </c>
-      <c r="B186" s="132" t="s">
+      <c r="B186" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="C186" s="148" t="s">
+      <c r="C186" s="146" t="s">
         <v>213</v>
       </c>
-      <c r="D186" s="132"/>
-      <c r="E186" s="132"/>
-      <c r="F186" s="132"/>
-      <c r="G186" s="132"/>
-      <c r="H186" s="132"/>
-      <c r="I186" s="132"/>
-      <c r="J186" s="132"/>
+      <c r="D186" s="130"/>
+      <c r="E186" s="130"/>
+      <c r="F186" s="130"/>
+      <c r="G186" s="130"/>
+      <c r="H186" s="130"/>
+      <c r="I186" s="130"/>
+      <c r="J186" s="130"/>
     </row>
     <row r="187" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A187" s="118">
+      <c r="A187" s="116">
         <v>45093</v>
       </c>
-      <c r="B187" s="132" t="s">
+      <c r="B187" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="C187" s="175" t="s">
+      <c r="C187" s="173" t="s">
         <v>209</v>
       </c>
-      <c r="D187" s="132"/>
-      <c r="E187" s="132"/>
-      <c r="F187" s="132"/>
-      <c r="G187" s="132"/>
-      <c r="H187" s="132" t="s">
+      <c r="D187" s="130"/>
+      <c r="E187" s="130"/>
+      <c r="F187" s="130"/>
+      <c r="G187" s="130"/>
+      <c r="H187" s="130" t="s">
         <v>215</v>
       </c>
-      <c r="I187" s="132"/>
-      <c r="J187" s="132"/>
+      <c r="I187" s="130"/>
+      <c r="J187" s="130"/>
     </row>
     <row r="188" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A188" s="138">
+      <c r="A188" s="136">
         <v>45094</v>
       </c>
-      <c r="B188" s="130" t="s">
+      <c r="B188" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="C188" s="142" t="s">
+      <c r="C188" s="140" t="s">
         <v>214</v>
       </c>
-      <c r="D188" s="130"/>
-      <c r="E188" s="130"/>
-      <c r="F188" s="130"/>
-      <c r="G188" s="130"/>
-      <c r="H188" s="130" t="s">
+      <c r="D188" s="128"/>
+      <c r="E188" s="128"/>
+      <c r="F188" s="128"/>
+      <c r="G188" s="128"/>
+      <c r="H188" s="128" t="s">
         <v>215</v>
       </c>
-      <c r="I188" s="130"/>
-      <c r="J188" s="130"/>
+      <c r="I188" s="128"/>
+      <c r="J188" s="128"/>
     </row>
     <row r="189" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A189" s="138">
+      <c r="A189" s="136">
         <v>45095</v>
       </c>
-      <c r="B189" s="130" t="s">
+      <c r="B189" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="C189" s="142" t="s">
+      <c r="C189" s="140" t="s">
         <v>214</v>
       </c>
-      <c r="D189" s="130"/>
-      <c r="E189" s="130"/>
-      <c r="F189" s="130"/>
-      <c r="G189" s="130"/>
-      <c r="H189" s="130" t="s">
+      <c r="D189" s="128"/>
+      <c r="E189" s="128"/>
+      <c r="F189" s="128"/>
+      <c r="G189" s="128"/>
+      <c r="H189" s="128" t="s">
         <v>215</v>
       </c>
-      <c r="I189" s="130"/>
-      <c r="J189" s="130"/>
+      <c r="I189" s="128"/>
+      <c r="J189" s="128"/>
     </row>
     <row r="190" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A190" s="118">
+      <c r="A190" s="116">
         <v>45096</v>
       </c>
-      <c r="B190" s="132" t="s">
+      <c r="B190" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="C190" s="175" t="s">
+      <c r="C190" s="173" t="s">
         <v>210</v>
       </c>
-      <c r="D190" s="132"/>
-      <c r="E190" s="132"/>
-      <c r="F190" s="132"/>
-      <c r="G190" s="132"/>
-      <c r="H190" s="132"/>
-      <c r="I190" s="132"/>
-      <c r="J190" s="132"/>
+      <c r="D190" s="130"/>
+      <c r="E190" s="130"/>
+      <c r="F190" s="130"/>
+      <c r="G190" s="130"/>
+      <c r="H190" s="130"/>
+      <c r="I190" s="130"/>
+      <c r="J190" s="130"/>
     </row>
     <row r="191" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A191" s="118">
+      <c r="A191" s="116">
         <v>45097</v>
       </c>
-      <c r="B191" s="132" t="s">
+      <c r="B191" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="C191" s="145"/>
-      <c r="D191" s="132"/>
-      <c r="E191" s="132"/>
-      <c r="F191" s="132"/>
-      <c r="G191" s="132"/>
-      <c r="H191" s="168"/>
-      <c r="I191" s="132"/>
-      <c r="J191" s="132"/>
+      <c r="C191" s="143"/>
+      <c r="D191" s="130"/>
+      <c r="E191" s="130"/>
+      <c r="F191" s="130"/>
+      <c r="G191" s="130"/>
+      <c r="H191" s="166"/>
+      <c r="I191" s="130"/>
+      <c r="J191" s="130"/>
     </row>
     <row r="192" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A192" s="118">
+      <c r="A192" s="116">
         <v>45098</v>
       </c>
-      <c r="B192" s="132" t="s">
+      <c r="B192" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="C192" s="200"/>
-      <c r="D192" s="132"/>
-      <c r="E192" s="132"/>
-      <c r="F192" s="132"/>
-      <c r="G192" s="132"/>
-      <c r="H192" s="132"/>
-      <c r="I192" s="132"/>
-      <c r="J192" s="132"/>
+      <c r="C192" s="198"/>
+      <c r="D192" s="130"/>
+      <c r="E192" s="130"/>
+      <c r="F192" s="130"/>
+      <c r="G192" s="130"/>
+      <c r="H192" s="130"/>
+      <c r="I192" s="130"/>
+      <c r="J192" s="130"/>
     </row>
     <row r="193" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A193" s="118">
+      <c r="A193" s="116">
         <v>45099</v>
       </c>
-      <c r="B193" s="132" t="s">
+      <c r="B193" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="C193" s="175"/>
-      <c r="D193" s="132"/>
-      <c r="E193" s="148"/>
-      <c r="F193" s="132"/>
-      <c r="G193" s="132"/>
-      <c r="H193" s="132"/>
-      <c r="I193" s="132"/>
-      <c r="J193" s="132"/>
+      <c r="C193" s="173"/>
+      <c r="D193" s="130"/>
+      <c r="E193" s="146"/>
+      <c r="F193" s="130"/>
+      <c r="G193" s="130"/>
+      <c r="H193" s="130"/>
+      <c r="I193" s="130"/>
+      <c r="J193" s="130"/>
     </row>
     <row r="194" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A194" s="118">
+      <c r="A194" s="116">
         <v>45100</v>
       </c>
-      <c r="B194" s="132" t="s">
+      <c r="B194" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="C194" s="175"/>
-      <c r="D194" s="132"/>
-      <c r="E194" s="144"/>
-      <c r="F194" s="133"/>
-      <c r="G194" s="168"/>
-      <c r="H194" s="132"/>
-      <c r="I194" s="132"/>
-      <c r="J194" s="168"/>
+      <c r="C194" s="173"/>
+      <c r="D194" s="130"/>
+      <c r="E194" s="142"/>
+      <c r="F194" s="131"/>
+      <c r="G194" s="166"/>
+      <c r="H194" s="130"/>
+      <c r="I194" s="130"/>
+      <c r="J194" s="166"/>
     </row>
     <row r="195" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A195" s="138">
+      <c r="A195" s="136">
         <v>45101</v>
       </c>
-      <c r="B195" s="130" t="s">
+      <c r="B195" s="128" t="s">
         <v>0</v>
       </c>
-      <c r="C195" s="182" t="s">
+      <c r="C195" s="180" t="s">
         <v>325</v>
       </c>
-      <c r="D195" s="130"/>
-      <c r="E195" s="130"/>
-      <c r="F195" s="130"/>
-      <c r="G195" s="130"/>
-      <c r="H195" s="130"/>
-      <c r="I195" s="130"/>
-      <c r="J195" s="206"/>
+      <c r="D195" s="128"/>
+      <c r="E195" s="128"/>
+      <c r="F195" s="128"/>
+      <c r="G195" s="128"/>
+      <c r="H195" s="128"/>
+      <c r="I195" s="128"/>
+      <c r="J195" s="204"/>
     </row>
     <row r="196" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A196" s="138">
+      <c r="A196" s="136">
         <v>45102</v>
       </c>
-      <c r="B196" s="130" t="s">
+      <c r="B196" s="128" t="s">
         <v>1</v>
       </c>
-      <c r="C196" s="130"/>
-      <c r="D196" s="130"/>
-      <c r="E196" s="130"/>
-      <c r="F196" s="130"/>
-      <c r="G196" s="130"/>
-      <c r="H196" s="130"/>
-      <c r="I196" s="130"/>
-      <c r="J196" s="130"/>
+      <c r="C196" s="128"/>
+      <c r="D196" s="128"/>
+      <c r="E196" s="128"/>
+      <c r="F196" s="128"/>
+      <c r="G196" s="128"/>
+      <c r="H196" s="128"/>
+      <c r="I196" s="128"/>
+      <c r="J196" s="128"/>
     </row>
     <row r="197" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A197" s="118">
+      <c r="A197" s="116">
         <v>45103</v>
       </c>
-      <c r="B197" s="132" t="s">
+      <c r="B197" s="130" t="s">
         <v>2</v>
       </c>
-      <c r="C197" s="175"/>
-      <c r="D197" s="132"/>
-      <c r="E197" s="132"/>
-      <c r="F197" s="132"/>
-      <c r="G197" s="132"/>
-      <c r="H197" s="132"/>
-      <c r="I197" s="132"/>
-      <c r="J197" s="132"/>
+      <c r="C197" s="173"/>
+      <c r="D197" s="130"/>
+      <c r="E197" s="130"/>
+      <c r="F197" s="130"/>
+      <c r="G197" s="130"/>
+      <c r="H197" s="130"/>
+      <c r="I197" s="130"/>
+      <c r="J197" s="130"/>
     </row>
     <row r="198" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A198" s="118">
+      <c r="A198" s="116">
         <v>45104</v>
       </c>
-      <c r="B198" s="132" t="s">
+      <c r="B198" s="130" t="s">
         <v>3</v>
       </c>
-      <c r="C198" s="175"/>
-      <c r="D198" s="132"/>
-      <c r="E198" s="132"/>
-      <c r="F198" s="132"/>
-      <c r="G198" s="132"/>
-      <c r="H198" s="132"/>
-      <c r="I198" s="132"/>
-      <c r="J198" s="132"/>
+      <c r="C198" s="173"/>
+      <c r="D198" s="130"/>
+      <c r="E198" s="130"/>
+      <c r="F198" s="130"/>
+      <c r="G198" s="130"/>
+      <c r="H198" s="130"/>
+      <c r="I198" s="130"/>
+      <c r="J198" s="130"/>
     </row>
     <row r="199" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A199" s="118">
+      <c r="A199" s="116">
         <v>45105</v>
       </c>
-      <c r="B199" s="132" t="s">
+      <c r="B199" s="130" t="s">
         <v>4</v>
       </c>
-      <c r="C199" s="175"/>
-      <c r="D199" s="132"/>
-      <c r="E199" s="132"/>
-      <c r="F199" s="132"/>
-      <c r="G199" s="132"/>
-      <c r="H199" s="132"/>
-      <c r="I199" s="132"/>
-      <c r="J199" s="132"/>
+      <c r="C199" s="173"/>
+      <c r="D199" s="130"/>
+      <c r="E199" s="130"/>
+      <c r="F199" s="130"/>
+      <c r="G199" s="130"/>
+      <c r="H199" s="130"/>
+      <c r="I199" s="130"/>
+      <c r="J199" s="130"/>
     </row>
     <row r="200" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A200" s="118">
+      <c r="A200" s="116">
         <v>45106</v>
       </c>
-      <c r="B200" s="132" t="s">
+      <c r="B200" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="C200" s="148" t="s">
+      <c r="C200" s="146" t="s">
         <v>341</v>
       </c>
-      <c r="D200" s="132"/>
-      <c r="E200" s="132"/>
-      <c r="F200" s="132"/>
-      <c r="G200" s="132"/>
-      <c r="H200" s="132"/>
-      <c r="I200" s="132"/>
-      <c r="J200" s="132"/>
+      <c r="D200" s="130"/>
+      <c r="E200" s="130"/>
+      <c r="F200" s="130"/>
+      <c r="G200" s="130"/>
+      <c r="H200" s="130"/>
+      <c r="I200" s="130"/>
+      <c r="J200" s="130"/>
     </row>
     <row r="201" spans="1:10" ht="84" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A201" s="118">
+      <c r="A201" s="116">
         <v>45107</v>
       </c>
-      <c r="B201" s="132" t="s">
+      <c r="B201" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="C201" s="224" t="s">
+      <c r="C201" s="222" t="s">
         <v>94</v>
       </c>
-      <c r="D201" s="132"/>
-      <c r="E201" s="224" t="s">
+      <c r="D201" s="130"/>
+      <c r="E201" s="222" t="s">
         <v>232</v>
       </c>
-      <c r="F201" s="144"/>
-      <c r="G201" s="168" t="s">
+      <c r="F201" s="142"/>
+      <c r="G201" s="166" t="s">
         <v>92</v>
       </c>
-      <c r="H201" s="132"/>
-      <c r="I201" s="132"/>
-      <c r="J201" s="174" t="s">
+      <c r="H201" s="130"/>
+      <c r="I201" s="130"/>
+      <c r="J201" s="172" t="s">
         <v>93</v>
       </c>
     </row>
@@ -9036,26 +9022,26 @@
       <c r="C205" s="62"/>
     </row>
     <row r="209" spans="3:7" x14ac:dyDescent="0.25">
-      <c r="C209" s="116"/>
-      <c r="D209" s="117"/>
+      <c r="C209" s="114"/>
+      <c r="D209" s="115"/>
       <c r="E209" s="18"/>
       <c r="F209" s="18"/>
-      <c r="G209" s="117"/>
+      <c r="G209" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A102:A103"/>
+    <mergeCell ref="B102:B103"/>
+    <mergeCell ref="A135:A136"/>
+    <mergeCell ref="B135:B136"/>
+    <mergeCell ref="A170:A171"/>
+    <mergeCell ref="B170:B171"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="A37:A38"/>
     <mergeCell ref="B37:B38"/>
     <mergeCell ref="A68:A69"/>
     <mergeCell ref="B68:B69"/>
-    <mergeCell ref="A102:A103"/>
-    <mergeCell ref="B102:B103"/>
-    <mergeCell ref="A135:A136"/>
-    <mergeCell ref="B135:B136"/>
-    <mergeCell ref="A170:A171"/>
-    <mergeCell ref="B170:B171"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9069,8 +9055,8 @@
   </sheetPr>
   <dimension ref="A1:J234"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A196" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C221" sqref="C221:F222"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C66" sqref="C66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9088,10 +9074,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="328" t="s">
+      <c r="A1" s="325" t="s">
         <v>211</v>
       </c>
-      <c r="B1" s="329" t="s">
+      <c r="B1" s="326" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="6" t="s">
@@ -9120,8 +9106,8 @@
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="328"/>
-      <c r="B2" s="330"/>
+      <c r="A2" s="325"/>
+      <c r="B2" s="327"/>
       <c r="C2" s="11"/>
       <c r="D2" s="10"/>
       <c r="E2" s="12"/>
@@ -9132,18 +9118,18 @@
       <c r="J2" s="14"/>
     </row>
     <row r="3" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="106" t="s">
+      <c r="A3" s="104" t="s">
         <v>29</v>
       </c>
       <c r="B3" s="29"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="79"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="81"/>
-      <c r="G3" s="82"/>
-      <c r="H3" s="83"/>
-      <c r="I3" s="83"/>
-      <c r="J3" s="84"/>
+      <c r="C3" s="79"/>
+      <c r="D3" s="78"/>
+      <c r="E3" s="79"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="82"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="83"/>
     </row>
     <row r="4" spans="1:10" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="42">
@@ -9154,8 +9140,8 @@
       </c>
       <c r="C4" s="39"/>
       <c r="D4" s="38"/>
-      <c r="E4" s="105"/>
-      <c r="F4" s="227" t="s">
+      <c r="E4" s="103"/>
+      <c r="F4" s="225" t="s">
         <v>99</v>
       </c>
       <c r="G4" s="44" t="s">
@@ -9174,7 +9160,7 @@
       <c r="B5" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="258"/>
+      <c r="C5" s="256"/>
       <c r="D5" s="38"/>
       <c r="E5" s="38"/>
       <c r="F5" s="38"/>
@@ -9184,13 +9170,13 @@
       <c r="J5" s="38"/>
     </row>
     <row r="6" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="213">
+      <c r="A6" s="211">
         <v>45110</v>
       </c>
-      <c r="B6" s="104" t="s">
+      <c r="B6" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="255" t="s">
+      <c r="C6" s="253" t="s">
         <v>249</v>
       </c>
       <c r="D6" s="67"/>
@@ -9202,13 +9188,13 @@
       <c r="J6" s="67"/>
     </row>
     <row r="7" spans="1:10" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="213">
+      <c r="A7" s="211">
         <v>45111</v>
       </c>
-      <c r="B7" s="104" t="s">
+      <c r="B7" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="256"/>
+      <c r="C7" s="254"/>
       <c r="D7" s="67"/>
       <c r="E7" s="67"/>
       <c r="F7" s="67"/>
@@ -9218,13 +9204,13 @@
       <c r="J7" s="67"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="213">
+      <c r="A8" s="211">
         <v>45112</v>
       </c>
-      <c r="B8" s="104" t="s">
+      <c r="B8" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="256"/>
+      <c r="C8" s="254"/>
       <c r="D8" s="67"/>
       <c r="E8" s="67"/>
       <c r="F8" s="67"/>
@@ -9234,13 +9220,13 @@
       <c r="J8" s="67"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="213">
+      <c r="A9" s="211">
         <v>45113</v>
       </c>
-      <c r="B9" s="104" t="s">
+      <c r="B9" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="257"/>
+      <c r="C9" s="255"/>
       <c r="D9" s="67"/>
       <c r="E9" s="67"/>
       <c r="F9" s="67"/>
@@ -9250,13 +9236,13 @@
       <c r="J9" s="67"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="213">
+      <c r="A10" s="211">
         <v>45114</v>
       </c>
-      <c r="B10" s="104" t="s">
+      <c r="B10" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="257"/>
+      <c r="C10" s="255"/>
       <c r="D10" s="67"/>
       <c r="E10" s="67"/>
       <c r="F10" s="67"/>
@@ -9272,7 +9258,7 @@
       <c r="B11" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C11" s="209"/>
+      <c r="C11" s="207"/>
       <c r="D11" s="38"/>
       <c r="E11" s="38"/>
       <c r="F11" s="38"/>
@@ -9298,15 +9284,15 @@
       <c r="J12" s="38"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="213">
+      <c r="A13" s="211">
         <v>45117</v>
       </c>
-      <c r="B13" s="104" t="s">
+      <c r="B13" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="C13" s="257"/>
+      <c r="C13" s="255"/>
       <c r="D13" s="67"/>
-      <c r="E13" s="255" t="s">
+      <c r="E13" s="253" t="s">
         <v>249</v>
       </c>
       <c r="F13" s="67"/>
@@ -9316,15 +9302,15 @@
       <c r="J13" s="67"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="213">
+      <c r="A14" s="211">
         <v>45118</v>
       </c>
-      <c r="B14" s="104" t="s">
+      <c r="B14" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="C14" s="257"/>
+      <c r="C14" s="255"/>
       <c r="D14" s="67"/>
-      <c r="E14" s="257"/>
+      <c r="E14" s="255"/>
       <c r="F14" s="67"/>
       <c r="G14" s="67"/>
       <c r="H14" s="67"/>
@@ -9332,15 +9318,15 @@
       <c r="J14" s="67"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="213">
+      <c r="A15" s="211">
         <v>45119</v>
       </c>
-      <c r="B15" s="104" t="s">
+      <c r="B15" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="257"/>
+      <c r="C15" s="255"/>
       <c r="D15" s="67"/>
-      <c r="E15" s="257"/>
+      <c r="E15" s="255"/>
       <c r="F15" s="67"/>
       <c r="G15" s="67"/>
       <c r="H15" s="67"/>
@@ -9348,15 +9334,15 @@
       <c r="J15" s="67"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="213">
+      <c r="A16" s="211">
         <v>45120</v>
       </c>
-      <c r="B16" s="104" t="s">
+      <c r="B16" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="257"/>
+      <c r="C16" s="255"/>
       <c r="D16" s="67"/>
-      <c r="E16" s="257"/>
+      <c r="E16" s="255"/>
       <c r="F16" s="67"/>
       <c r="G16" s="67"/>
       <c r="H16" s="67"/>
@@ -9364,15 +9350,15 @@
       <c r="J16" s="67"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="213">
+      <c r="A17" s="211">
         <v>45121</v>
       </c>
-      <c r="B17" s="104" t="s">
+      <c r="B17" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="C17" s="257"/>
+      <c r="C17" s="255"/>
       <c r="D17" s="67"/>
-      <c r="E17" s="257"/>
+      <c r="E17" s="255"/>
       <c r="F17" s="67"/>
       <c r="G17" s="67"/>
       <c r="H17" s="67"/>
@@ -9389,15 +9375,15 @@
       <c r="C18" s="38"/>
       <c r="D18" s="38"/>
       <c r="E18" s="38"/>
-      <c r="F18" s="229" t="s">
+      <c r="F18" s="227" t="s">
         <v>100</v>
       </c>
-      <c r="G18" s="228" t="s">
+      <c r="G18" s="226" t="s">
         <v>98</v>
       </c>
       <c r="H18" s="38"/>
       <c r="I18" s="38"/>
-      <c r="J18" s="230" t="s">
+      <c r="J18" s="228" t="s">
         <v>97</v>
       </c>
     </row>
@@ -9408,7 +9394,7 @@
       <c r="B19" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C19" s="108"/>
+      <c r="C19" s="106"/>
       <c r="D19" s="38"/>
       <c r="E19" s="38"/>
       <c r="F19" s="38"/>
@@ -9418,15 +9404,15 @@
       <c r="J19" s="38"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="213">
+      <c r="A20" s="211">
         <v>45124</v>
       </c>
-      <c r="B20" s="104" t="s">
+      <c r="B20" s="102" t="s">
         <v>2</v>
       </c>
-      <c r="C20" s="257"/>
+      <c r="C20" s="255"/>
       <c r="D20" s="67"/>
-      <c r="E20" s="257"/>
+      <c r="E20" s="255"/>
       <c r="F20" s="67"/>
       <c r="G20" s="67"/>
       <c r="H20" s="67"/>
@@ -9434,15 +9420,15 @@
       <c r="J20" s="67"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="213">
+      <c r="A21" s="211">
         <v>45125</v>
       </c>
-      <c r="B21" s="104" t="s">
+      <c r="B21" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="C21" s="257"/>
+      <c r="C21" s="255"/>
       <c r="D21" s="67"/>
-      <c r="E21" s="257"/>
+      <c r="E21" s="255"/>
       <c r="F21" s="67"/>
       <c r="G21" s="67"/>
       <c r="H21" s="67"/>
@@ -9450,15 +9436,15 @@
       <c r="J21" s="67"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="213">
+      <c r="A22" s="211">
         <v>45126</v>
       </c>
-      <c r="B22" s="104" t="s">
+      <c r="B22" s="102" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="67"/>
       <c r="D22" s="67"/>
-      <c r="E22" s="257"/>
+      <c r="E22" s="255"/>
       <c r="F22" s="67"/>
       <c r="G22" s="67"/>
       <c r="H22" s="67"/>
@@ -9466,15 +9452,15 @@
       <c r="J22" s="67"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="213">
+      <c r="A23" s="211">
         <v>45127</v>
       </c>
-      <c r="B23" s="104" t="s">
+      <c r="B23" s="102" t="s">
         <v>5</v>
       </c>
       <c r="C23" s="65"/>
       <c r="D23" s="67"/>
-      <c r="E23" s="257"/>
+      <c r="E23" s="255"/>
       <c r="F23" s="67"/>
       <c r="G23" s="67"/>
       <c r="H23" s="67"/>
@@ -9482,20 +9468,20 @@
       <c r="J23" s="67"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="213">
+      <c r="A24" s="211">
         <v>45128</v>
       </c>
-      <c r="B24" s="104" t="s">
+      <c r="B24" s="102" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="65"/>
       <c r="D24" s="67"/>
-      <c r="E24" s="257"/>
+      <c r="E24" s="255"/>
       <c r="F24" s="66"/>
       <c r="G24" s="70"/>
       <c r="H24" s="69"/>
       <c r="I24" s="67"/>
-      <c r="J24" s="85"/>
+      <c r="J24" s="84"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="42">
@@ -9534,15 +9520,15 @@
       <c r="J26" s="40"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="213">
+      <c r="A27" s="211">
         <v>45131</v>
       </c>
-      <c r="B27" s="104" t="s">
+      <c r="B27" s="102" t="s">
         <v>2</v>
       </c>
       <c r="C27" s="68"/>
       <c r="D27" s="67"/>
-      <c r="E27" s="257"/>
+      <c r="E27" s="255"/>
       <c r="F27" s="67"/>
       <c r="G27" s="70"/>
       <c r="H27" s="70"/>
@@ -9550,15 +9536,15 @@
       <c r="J27" s="67"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="213">
+      <c r="A28" s="211">
         <v>45132</v>
       </c>
-      <c r="B28" s="104" t="s">
+      <c r="B28" s="102" t="s">
         <v>3</v>
       </c>
       <c r="C28" s="67"/>
       <c r="D28" s="67"/>
-      <c r="E28" s="257"/>
+      <c r="E28" s="255"/>
       <c r="F28" s="67"/>
       <c r="G28" s="67"/>
       <c r="H28" s="67"/>
@@ -9566,17 +9552,17 @@
       <c r="J28" s="67"/>
     </row>
     <row r="29" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="213">
+      <c r="A29" s="211">
         <v>45133</v>
       </c>
-      <c r="B29" s="104" t="s">
+      <c r="B29" s="102" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="68" t="s">
         <v>256</v>
       </c>
       <c r="D29" s="67"/>
-      <c r="E29" s="257"/>
+      <c r="E29" s="255"/>
       <c r="F29" s="67"/>
       <c r="G29" s="67"/>
       <c r="H29" s="70" t="s">
@@ -9586,15 +9572,15 @@
       <c r="J29" s="67"/>
     </row>
     <row r="30" spans="1:10" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="213">
+      <c r="A30" s="211">
         <v>45134</v>
       </c>
-      <c r="B30" s="104" t="s">
+      <c r="B30" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="266"/>
+      <c r="C30" s="264"/>
       <c r="D30" s="67"/>
-      <c r="E30" s="257"/>
+      <c r="E30" s="255"/>
       <c r="F30" s="67"/>
       <c r="G30" s="67"/>
       <c r="H30" s="70" t="s">
@@ -9604,15 +9590,15 @@
       <c r="J30" s="67"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="213">
+      <c r="A31" s="211">
         <v>45135</v>
       </c>
-      <c r="B31" s="104" t="s">
+      <c r="B31" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="C31" s="86"/>
+      <c r="C31" s="85"/>
       <c r="D31" s="67"/>
-      <c r="E31" s="257"/>
+      <c r="E31" s="255"/>
       <c r="F31" s="67"/>
       <c r="G31" s="67"/>
       <c r="H31" s="69"/>
@@ -9628,7 +9614,7 @@
       </c>
       <c r="C32" s="38"/>
       <c r="D32" s="38"/>
-      <c r="E32" s="107"/>
+      <c r="E32" s="105"/>
       <c r="F32" s="38"/>
       <c r="G32" s="40"/>
       <c r="H32" s="38"/>
@@ -9652,10 +9638,10 @@
       <c r="J33" s="38"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="213">
+      <c r="A34" s="211">
         <v>45138</v>
       </c>
-      <c r="B34" s="104" t="s">
+      <c r="B34" s="102" t="s">
         <v>2</v>
       </c>
       <c r="C34" s="67"/>
@@ -9672,10 +9658,10 @@
       <c r="B35" s="34"/>
     </row>
     <row r="36" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="332" t="s">
+      <c r="A36" s="330" t="s">
         <v>22</v>
       </c>
-      <c r="B36" s="320" t="s">
+      <c r="B36" s="328" t="s">
         <v>15</v>
       </c>
       <c r="C36" s="6" t="s">
@@ -9704,8 +9690,8 @@
       </c>
     </row>
     <row r="37" spans="1:10" s="15" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="332"/>
-      <c r="B37" s="331"/>
+      <c r="A37" s="330"/>
+      <c r="B37" s="329"/>
       <c r="C37" s="11"/>
       <c r="D37" s="10"/>
       <c r="E37" s="12"/>
@@ -9713,24 +9699,24 @@
       <c r="G37" s="14"/>
       <c r="H37" s="14"/>
       <c r="I37" s="14"/>
-      <c r="J37" s="92"/>
+      <c r="J37" s="90"/>
     </row>
     <row r="38" spans="1:10" s="20" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A38" s="31" t="s">
         <v>30</v>
       </c>
       <c r="B38" s="30"/>
-      <c r="C38" s="78"/>
+      <c r="C38" s="77"/>
       <c r="D38" s="66"/>
-      <c r="E38" s="78"/>
-      <c r="F38" s="87"/>
-      <c r="G38" s="82"/>
-      <c r="H38" s="82"/>
-      <c r="I38" s="82"/>
-      <c r="J38" s="82"/>
+      <c r="E38" s="77"/>
+      <c r="F38" s="86"/>
+      <c r="G38" s="81"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="81"/>
+      <c r="J38" s="81"/>
     </row>
     <row r="39" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="214">
+      <c r="A39" s="212">
         <v>45139</v>
       </c>
       <c r="B39" s="69" t="s">
@@ -9738,8 +9724,8 @@
       </c>
       <c r="C39" s="67"/>
       <c r="D39" s="67"/>
-      <c r="E39" s="257"/>
-      <c r="F39" s="227" t="s">
+      <c r="E39" s="255"/>
+      <c r="F39" s="225" t="s">
         <v>99</v>
       </c>
       <c r="G39" s="72" t="s">
@@ -9752,7 +9738,7 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="214">
+      <c r="A40" s="212">
         <v>45140</v>
       </c>
       <c r="B40" s="69" t="s">
@@ -9760,7 +9746,7 @@
       </c>
       <c r="C40" s="68"/>
       <c r="D40" s="67"/>
-      <c r="E40" s="257"/>
+      <c r="E40" s="255"/>
       <c r="F40" s="67"/>
       <c r="G40" s="67"/>
       <c r="H40" s="69"/>
@@ -9768,7 +9754,7 @@
       <c r="J40" s="67"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="214">
+      <c r="A41" s="212">
         <v>45141</v>
       </c>
       <c r="B41" s="69" t="s">
@@ -9776,7 +9762,7 @@
       </c>
       <c r="C41" s="67"/>
       <c r="D41" s="67"/>
-      <c r="E41" s="257"/>
+      <c r="E41" s="255"/>
       <c r="F41" s="67"/>
       <c r="G41" s="67"/>
       <c r="H41" s="67"/>
@@ -9784,7 +9770,7 @@
       <c r="J41" s="67"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="214">
+      <c r="A42" s="212">
         <v>45142</v>
       </c>
       <c r="B42" s="69" t="s">
@@ -9792,7 +9778,7 @@
       </c>
       <c r="C42" s="75"/>
       <c r="D42" s="67"/>
-      <c r="E42" s="257"/>
+      <c r="E42" s="255"/>
       <c r="F42" s="67"/>
       <c r="G42" s="67"/>
       <c r="H42" s="67"/>
@@ -9817,7 +9803,7 @@
         <v>284</v>
       </c>
       <c r="I43" s="38"/>
-      <c r="J43" s="228" t="s">
+      <c r="J43" s="226" t="s">
         <v>354</v>
       </c>
     </row>
@@ -9838,7 +9824,7 @@
       <c r="J44" s="38"/>
     </row>
     <row r="45" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="214">
+      <c r="A45" s="212">
         <v>45145</v>
       </c>
       <c r="B45" s="69" t="s">
@@ -9854,7 +9840,7 @@
       <c r="J45" s="67"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="214">
+      <c r="A46" s="212">
         <v>45146</v>
       </c>
       <c r="B46" s="69" t="s">
@@ -9869,13 +9855,13 @@
       <c r="J46" s="67"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="214">
+      <c r="A47" s="212">
         <v>45147</v>
       </c>
       <c r="B47" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C47" s="276" t="s">
+      <c r="C47" s="274" t="s">
         <v>290</v>
       </c>
       <c r="D47" s="67"/>
@@ -9887,7 +9873,7 @@
       <c r="J47" s="67"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A48" s="214">
+      <c r="A48" s="212">
         <v>45148</v>
       </c>
       <c r="B48" s="69" t="s">
@@ -9903,7 +9889,7 @@
       <c r="J48" s="71"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A49" s="214">
+      <c r="A49" s="212">
         <v>45149</v>
       </c>
       <c r="B49" s="69" t="s">
@@ -9925,12 +9911,12 @@
       <c r="B50" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C50" s="295" t="s">
+      <c r="C50" s="293" t="s">
         <v>348</v>
       </c>
       <c r="D50" s="38"/>
       <c r="E50" s="53"/>
-      <c r="F50" s="107"/>
+      <c r="F50" s="105"/>
       <c r="G50" s="40"/>
       <c r="H50" s="45"/>
       <c r="I50" s="38"/>
@@ -9953,13 +9939,13 @@
       <c r="J51" s="40"/>
     </row>
     <row r="52" spans="1:10" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="214">
+      <c r="A52" s="212">
         <v>45152</v>
       </c>
       <c r="B52" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C52" s="277" t="s">
+      <c r="C52" s="275" t="s">
         <v>308</v>
       </c>
       <c r="D52" s="67"/>
@@ -9975,14 +9961,14 @@
       </c>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A53" s="214">
+      <c r="A53" s="212">
         <v>45153</v>
       </c>
       <c r="B53" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C53" s="249"/>
-      <c r="D53" s="88"/>
+      <c r="C53" s="247"/>
+      <c r="D53" s="87"/>
       <c r="E53" s="67"/>
       <c r="F53" s="67"/>
       <c r="G53" s="67"/>
@@ -9991,14 +9977,14 @@
       <c r="J53" s="67"/>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A54" s="214">
+      <c r="A54" s="212">
         <v>45154</v>
       </c>
       <c r="B54" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C54" s="250"/>
-      <c r="D54" s="88"/>
+      <c r="C54" s="248"/>
+      <c r="D54" s="87"/>
       <c r="E54" s="67"/>
       <c r="F54" s="67"/>
       <c r="G54" s="67"/>
@@ -10006,56 +9992,56 @@
       <c r="I54" s="67"/>
       <c r="J54" s="67"/>
     </row>
-    <row r="55" spans="1:10" s="231" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="213">
+    <row r="55" spans="1:10" s="229" customFormat="1" ht="42" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="211">
         <v>45155</v>
       </c>
       <c r="B55" s="73" t="s">
         <v>5</v>
       </c>
-      <c r="C55" s="250" t="s">
+      <c r="C55" s="248" t="s">
         <v>355</v>
       </c>
-      <c r="D55" s="102"/>
-      <c r="E55" s="102"/>
-      <c r="F55" s="229" t="s">
+      <c r="D55" s="100"/>
+      <c r="E55" s="100"/>
+      <c r="F55" s="227" t="s">
         <v>102</v>
       </c>
-      <c r="G55" s="232" t="s">
+      <c r="G55" s="230" t="s">
         <v>101</v>
       </c>
       <c r="H55" s="66"/>
-      <c r="I55" s="102"/>
-      <c r="J55" s="232" t="s">
+      <c r="I55" s="100"/>
+      <c r="J55" s="230" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="56" spans="1:10" s="231" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="213"/>
+    <row r="56" spans="1:10" s="229" customFormat="1" ht="50.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="211"/>
       <c r="B56" s="73"/>
-      <c r="C56" s="250"/>
-      <c r="D56" s="102"/>
-      <c r="E56" s="102"/>
-      <c r="F56" s="229" t="s">
+      <c r="C56" s="248"/>
+      <c r="D56" s="100"/>
+      <c r="E56" s="100"/>
+      <c r="F56" s="227" t="s">
         <v>105</v>
       </c>
-      <c r="G56" s="335" t="s">
+      <c r="G56" s="301" t="s">
         <v>78</v>
       </c>
       <c r="H56" s="66"/>
-      <c r="I56" s="102"/>
-      <c r="J56" s="232" t="s">
+      <c r="I56" s="100"/>
+      <c r="J56" s="230" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A57" s="214">
+      <c r="A57" s="212">
         <v>45156</v>
       </c>
       <c r="B57" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="C57" s="250"/>
+      <c r="C57" s="248"/>
       <c r="D57" s="67"/>
       <c r="E57" s="67"/>
       <c r="F57" s="67"/>
@@ -10078,10 +10064,10 @@
       </c>
       <c r="D58" s="56"/>
       <c r="E58" s="38"/>
-      <c r="F58" s="107"/>
+      <c r="F58" s="105"/>
       <c r="G58" s="46"/>
-      <c r="H58" s="107"/>
-      <c r="I58" s="107"/>
+      <c r="H58" s="105"/>
+      <c r="I58" s="105"/>
       <c r="J58" s="46"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.25">
@@ -10101,7 +10087,7 @@
       <c r="J59" s="38"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A60" s="214">
+      <c r="A60" s="212">
         <v>45159</v>
       </c>
       <c r="B60" s="69" t="s">
@@ -10117,13 +10103,15 @@
       <c r="J60" s="69"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A61" s="214">
+      <c r="A61" s="212">
         <v>45160</v>
       </c>
       <c r="B61" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C61" s="89"/>
+      <c r="C61" s="258" t="s">
+        <v>235</v>
+      </c>
       <c r="D61" s="67"/>
       <c r="E61" s="67"/>
       <c r="F61" s="67"/>
@@ -10133,13 +10121,15 @@
       <c r="J61" s="67"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A62" s="214">
+      <c r="A62" s="212">
         <v>45161</v>
       </c>
       <c r="B62" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C62" s="77"/>
+      <c r="C62" s="249" t="s">
+        <v>236</v>
+      </c>
       <c r="D62" s="67"/>
       <c r="E62" s="67"/>
       <c r="F62" s="67"/>
@@ -10149,13 +10139,15 @@
       <c r="J62" s="67"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A63" s="214">
+      <c r="A63" s="212">
         <v>45162</v>
       </c>
       <c r="B63" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C63" s="67"/>
+      <c r="C63" s="258" t="s">
+        <v>235</v>
+      </c>
       <c r="D63" s="67"/>
       <c r="E63" s="67"/>
       <c r="F63" s="67"/>
@@ -10187,7 +10179,7 @@
       <c r="B65" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C65" s="209"/>
+      <c r="C65" s="207"/>
       <c r="D65" s="58"/>
       <c r="E65" s="38"/>
       <c r="F65" s="38"/>
@@ -10196,56 +10188,50 @@
       <c r="I65" s="38"/>
       <c r="J65" s="38"/>
     </row>
-    <row r="66" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A66" s="214">
+    <row r="66" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="212">
         <v>45165</v>
       </c>
       <c r="B66" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C66" s="260" t="s">
-        <v>235</v>
-      </c>
-      <c r="D66" s="90"/>
-      <c r="E66" s="232" t="s">
+      <c r="C66" s="22"/>
+      <c r="D66" s="88"/>
+      <c r="E66" s="230" t="s">
         <v>370</v>
       </c>
       <c r="F66" s="67"/>
       <c r="G66" s="67"/>
-      <c r="H66" s="234" t="s">
+      <c r="H66" s="232" t="s">
         <v>372</v>
       </c>
       <c r="I66" s="67"/>
       <c r="J66" s="67"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A67" s="214">
+      <c r="A67" s="212">
         <v>45166</v>
       </c>
       <c r="B67" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C67" s="251" t="s">
-        <v>236</v>
-      </c>
-      <c r="D67" s="90"/>
+      <c r="C67" s="22"/>
+      <c r="D67" s="88"/>
       <c r="E67" s="67"/>
       <c r="F67" s="67"/>
       <c r="G67" s="67"/>
       <c r="I67" s="67"/>
-      <c r="J67" s="93"/>
+      <c r="J67" s="91"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A68" s="214">
+      <c r="A68" s="212">
         <v>45167</v>
       </c>
       <c r="B68" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C68" s="260" t="s">
-        <v>235</v>
-      </c>
-      <c r="D68" s="90"/>
+      <c r="C68" s="22"/>
+      <c r="D68" s="88"/>
       <c r="E68" s="67"/>
       <c r="F68" s="67"/>
       <c r="G68" s="67"/>
@@ -10254,13 +10240,14 @@
       <c r="J68" s="67"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A69" s="214">
+      <c r="A69" s="212">
         <v>45168</v>
       </c>
       <c r="B69" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="D69" s="90"/>
+      <c r="C69" s="22"/>
+      <c r="D69" s="88"/>
       <c r="E69" s="67"/>
       <c r="F69" s="67"/>
       <c r="G69" s="67"/>
@@ -10269,14 +10256,14 @@
       <c r="J69" s="67"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A70" s="214">
+      <c r="A70" s="212">
         <v>45169</v>
       </c>
       <c r="B70" s="69" t="s">
         <v>5</v>
       </c>
       <c r="C70" s="67"/>
-      <c r="D70" s="90"/>
+      <c r="D70" s="88"/>
       <c r="E70" s="67"/>
       <c r="F70" s="67"/>
       <c r="G70" s="67"/>
@@ -10287,20 +10274,20 @@
     <row r="71" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A71" s="35"/>
       <c r="B71" s="36"/>
-      <c r="C71" s="91"/>
-      <c r="D71" s="91"/>
-      <c r="E71" s="91"/>
-      <c r="F71" s="91"/>
-      <c r="G71" s="91"/>
-      <c r="H71" s="91"/>
-      <c r="I71" s="91"/>
+      <c r="C71" s="89"/>
+      <c r="D71" s="89"/>
+      <c r="E71" s="89"/>
+      <c r="F71" s="89"/>
+      <c r="G71" s="89"/>
+      <c r="H71" s="89"/>
+      <c r="I71" s="89"/>
       <c r="J71" s="18"/>
     </row>
     <row r="72" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="333" t="s">
+      <c r="A72" s="332" t="s">
         <v>23</v>
       </c>
-      <c r="B72" s="320" t="s">
+      <c r="B72" s="328" t="s">
         <v>15</v>
       </c>
       <c r="C72" s="6" t="s">
@@ -10329,8 +10316,8 @@
       </c>
     </row>
     <row r="73" spans="1:10" s="17" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="333"/>
-      <c r="B73" s="322"/>
+      <c r="A73" s="332"/>
+      <c r="B73" s="331"/>
       <c r="C73" s="19"/>
       <c r="D73" s="21"/>
       <c r="E73" s="16"/>
@@ -10341,7 +10328,7 @@
       <c r="J73" s="14"/>
     </row>
     <row r="74" spans="1:10" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="214">
+      <c r="A74" s="212">
         <v>45170</v>
       </c>
       <c r="B74" s="69" t="s">
@@ -10349,18 +10336,18 @@
       </c>
       <c r="C74" s="67"/>
       <c r="D74" s="67"/>
-      <c r="E74" s="229" t="s">
+      <c r="E74" s="227" t="s">
         <v>106</v>
       </c>
-      <c r="F74" s="227" t="s">
+      <c r="F74" s="225" t="s">
         <v>99</v>
       </c>
-      <c r="G74" s="233" t="s">
+      <c r="G74" s="231" t="s">
         <v>107</v>
       </c>
       <c r="H74" s="67"/>
       <c r="I74" s="67"/>
-      <c r="J74" s="234" t="s">
+      <c r="J74" s="232" t="s">
         <v>108</v>
       </c>
     </row>
@@ -10371,12 +10358,12 @@
       <c r="B75" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C75" s="295" t="s">
+      <c r="C75" s="293" t="s">
         <v>349</v>
       </c>
       <c r="D75" s="38"/>
       <c r="E75" s="41"/>
-      <c r="F75" s="107"/>
+      <c r="F75" s="105"/>
       <c r="G75" s="44"/>
       <c r="H75" s="40"/>
       <c r="I75" s="38"/>
@@ -10399,10 +10386,10 @@
       <c r="J76" s="38"/>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A77" s="213">
+      <c r="A77" s="211">
         <v>45173</v>
       </c>
-      <c r="B77" s="104" t="s">
+      <c r="B77" s="102" t="s">
         <v>2</v>
       </c>
       <c r="C77" s="67"/>
@@ -10415,7 +10402,7 @@
       <c r="J77" s="67"/>
     </row>
     <row r="78" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A78" s="214">
+      <c r="A78" s="212">
         <v>45174</v>
       </c>
       <c r="B78" s="69" t="s">
@@ -10431,10 +10418,10 @@
       <c r="J78" s="67"/>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A79" s="213">
+      <c r="A79" s="211">
         <v>45175</v>
       </c>
-      <c r="B79" s="104" t="s">
+      <c r="B79" s="102" t="s">
         <v>4</v>
       </c>
       <c r="C79" s="67"/>
@@ -10447,7 +10434,7 @@
       <c r="J79" s="67"/>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A80" s="214">
+      <c r="A80" s="212">
         <v>45176</v>
       </c>
       <c r="B80" s="69" t="s">
@@ -10463,17 +10450,17 @@
       <c r="J80" s="67"/>
     </row>
     <row r="81" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A81" s="213">
+      <c r="A81" s="211">
         <v>45177</v>
       </c>
-      <c r="B81" s="104" t="s">
+      <c r="B81" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="C81" s="300" t="s">
+      <c r="C81" s="298" t="s">
         <v>379</v>
       </c>
       <c r="D81" s="67"/>
-      <c r="E81" s="266" t="s">
+      <c r="E81" s="264" t="s">
         <v>336</v>
       </c>
       <c r="F81" s="67"/>
@@ -10491,7 +10478,7 @@
       <c r="B82" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C82" s="301" t="s">
+      <c r="C82" s="299" t="s">
         <v>229</v>
       </c>
       <c r="D82" s="38"/>
@@ -10519,7 +10506,7 @@
       <c r="J83" s="38"/>
     </row>
     <row r="84" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="214">
+      <c r="A84" s="212">
         <v>45180</v>
       </c>
       <c r="B84" s="69" t="s">
@@ -10535,10 +10522,10 @@
       <c r="J84" s="67"/>
     </row>
     <row r="85" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A85" s="213">
+      <c r="A85" s="211">
         <v>45181</v>
       </c>
-      <c r="B85" s="104" t="s">
+      <c r="B85" s="102" t="s">
         <v>3</v>
       </c>
       <c r="C85" s="67"/>
@@ -10551,7 +10538,7 @@
       <c r="J85" s="67"/>
     </row>
     <row r="86" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A86" s="214">
+      <c r="A86" s="212">
         <v>45182</v>
       </c>
       <c r="B86" s="69" t="s">
@@ -10567,10 +10554,10 @@
       <c r="J86" s="67"/>
     </row>
     <row r="87" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A87" s="213">
+      <c r="A87" s="211">
         <v>45183</v>
       </c>
-      <c r="B87" s="104" t="s">
+      <c r="B87" s="102" t="s">
         <v>5</v>
       </c>
       <c r="C87" s="67"/>
@@ -10583,13 +10570,13 @@
       <c r="J87" s="67"/>
     </row>
     <row r="88" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A88" s="214">
+      <c r="A88" s="212">
         <v>45184</v>
       </c>
       <c r="B88" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="C88" s="229" t="s">
+      <c r="C88" s="227" t="s">
         <v>109</v>
       </c>
       <c r="D88" s="67"/>
@@ -10637,10 +10624,10 @@
       <c r="J90" s="38"/>
     </row>
     <row r="91" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A91" s="213">
+      <c r="A91" s="211">
         <v>45187</v>
       </c>
-      <c r="B91" s="104" t="s">
+      <c r="B91" s="102" t="s">
         <v>2</v>
       </c>
       <c r="C91" s="65"/>
@@ -10653,7 +10640,7 @@
       <c r="J91" s="67"/>
     </row>
     <row r="92" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="214">
+      <c r="A92" s="212">
         <v>45188</v>
       </c>
       <c r="B92" s="69" t="s">
@@ -10665,7 +10652,7 @@
       <c r="D92" s="67"/>
       <c r="E92" s="67"/>
       <c r="F92" s="67"/>
-      <c r="G92" s="233" t="s">
+      <c r="G92" s="231" t="s">
         <v>289</v>
       </c>
       <c r="H92" s="70"/>
@@ -10673,13 +10660,13 @@
       <c r="J92" s="70"/>
     </row>
     <row r="93" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A93" s="213">
+      <c r="A93" s="211">
         <v>45189</v>
       </c>
-      <c r="B93" s="104" t="s">
+      <c r="B93" s="102" t="s">
         <v>4</v>
       </c>
-      <c r="C93" s="254" t="s">
+      <c r="C93" s="252" t="s">
         <v>288</v>
       </c>
       <c r="D93" s="67"/>
@@ -10691,13 +10678,13 @@
       <c r="J93" s="67"/>
     </row>
     <row r="94" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A94" s="214">
+      <c r="A94" s="212">
         <v>45190</v>
       </c>
       <c r="B94" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C94" s="254" t="s">
+      <c r="C94" s="252" t="s">
         <v>288</v>
       </c>
       <c r="D94" s="67"/>
@@ -10709,10 +10696,10 @@
       <c r="J94" s="67"/>
     </row>
     <row r="95" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A95" s="213">
+      <c r="A95" s="211">
         <v>45191</v>
       </c>
-      <c r="B95" s="104" t="s">
+      <c r="B95" s="102" t="s">
         <v>6</v>
       </c>
       <c r="C95" s="67"/>
@@ -10757,7 +10744,7 @@
       <c r="J97" s="38"/>
     </row>
     <row r="98" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A98" s="214">
+      <c r="A98" s="212">
         <v>45194</v>
       </c>
       <c r="B98" s="69" t="s">
@@ -10773,10 +10760,10 @@
       <c r="J98" s="67"/>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A99" s="213">
+      <c r="A99" s="211">
         <v>45195</v>
       </c>
-      <c r="B99" s="104" t="s">
+      <c r="B99" s="102" t="s">
         <v>3</v>
       </c>
       <c r="C99" s="68"/>
@@ -10789,7 +10776,7 @@
       <c r="J99" s="67"/>
     </row>
     <row r="100" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A100" s="214">
+      <c r="A100" s="212">
         <v>45196</v>
       </c>
       <c r="B100" s="69" t="s">
@@ -10805,33 +10792,33 @@
       <c r="J100" s="67"/>
     </row>
     <row r="101" spans="1:10" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A101" s="213">
+      <c r="A101" s="211">
         <v>45197</v>
       </c>
-      <c r="B101" s="104" t="s">
+      <c r="B101" s="102" t="s">
         <v>5</v>
       </c>
-      <c r="C101" s="229" t="s">
+      <c r="C101" s="227" t="s">
         <v>113</v>
       </c>
       <c r="D101" s="67"/>
-      <c r="E101" s="229" t="s">
+      <c r="E101" s="227" t="s">
         <v>114</v>
       </c>
-      <c r="F101" s="229" t="s">
+      <c r="F101" s="227" t="s">
         <v>112</v>
       </c>
-      <c r="G101" s="234" t="s">
+      <c r="G101" s="232" t="s">
         <v>115</v>
       </c>
       <c r="H101" s="67"/>
       <c r="I101" s="67"/>
-      <c r="J101" s="233" t="s">
+      <c r="J101" s="231" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="40.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A102" s="214">
+      <c r="A102" s="212">
         <v>45198</v>
       </c>
       <c r="B102" s="69" t="s">
@@ -10839,7 +10826,7 @@
       </c>
       <c r="C102" s="67"/>
       <c r="D102" s="67"/>
-      <c r="E102" s="227" t="s">
+      <c r="E102" s="225" t="s">
         <v>117</v>
       </c>
       <c r="F102" s="69"/>
@@ -10862,47 +10849,47 @@
       <c r="C103" s="38"/>
       <c r="D103" s="38"/>
       <c r="E103" s="38"/>
-      <c r="F103" s="229" t="s">
+      <c r="F103" s="227" t="s">
         <v>120</v>
       </c>
-      <c r="G103" s="228" t="s">
+      <c r="G103" s="226" t="s">
         <v>122</v>
       </c>
       <c r="H103" s="38"/>
       <c r="I103" s="38"/>
-      <c r="J103" s="230" t="s">
+      <c r="J103" s="228" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="104" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A104" s="35"/>
       <c r="B104" s="36"/>
-      <c r="C104" s="91"/>
-      <c r="D104" s="91"/>
-      <c r="E104" s="91"/>
-      <c r="F104" s="91"/>
-      <c r="G104" s="91"/>
-      <c r="H104" s="91"/>
-      <c r="I104" s="91"/>
-      <c r="J104" s="91"/>
+      <c r="C104" s="89"/>
+      <c r="D104" s="89"/>
+      <c r="E104" s="89"/>
+      <c r="F104" s="89"/>
+      <c r="G104" s="89"/>
+      <c r="H104" s="89"/>
+      <c r="I104" s="89"/>
+      <c r="J104" s="89"/>
     </row>
     <row r="105" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A105" s="324" t="s">
+      <c r="A105" s="335" t="s">
         <v>24</v>
       </c>
-      <c r="B105" s="320" t="s">
+      <c r="B105" s="328" t="s">
         <v>15</v>
       </c>
-      <c r="C105" s="94" t="s">
+      <c r="C105" s="92" t="s">
         <v>44</v>
       </c>
-      <c r="D105" s="95" t="s">
+      <c r="D105" s="93" t="s">
         <v>45</v>
       </c>
-      <c r="E105" s="96" t="s">
+      <c r="E105" s="94" t="s">
         <v>47</v>
       </c>
-      <c r="F105" s="97" t="s">
+      <c r="F105" s="95" t="s">
         <v>48</v>
       </c>
       <c r="G105" s="76" t="s">
@@ -10919,16 +10906,16 @@
       </c>
     </row>
     <row r="106" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A106" s="324"/>
-      <c r="B106" s="321"/>
-      <c r="C106" s="98"/>
-      <c r="D106" s="99"/>
-      <c r="E106" s="100"/>
-      <c r="F106" s="101"/>
-      <c r="G106" s="92"/>
-      <c r="H106" s="92"/>
-      <c r="I106" s="92"/>
-      <c r="J106" s="92"/>
+      <c r="A106" s="335"/>
+      <c r="B106" s="333"/>
+      <c r="C106" s="96"/>
+      <c r="D106" s="97"/>
+      <c r="E106" s="98"/>
+      <c r="F106" s="99"/>
+      <c r="G106" s="90"/>
+      <c r="H106" s="90"/>
+      <c r="I106" s="90"/>
+      <c r="J106" s="90"/>
     </row>
     <row r="107" spans="1:10" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="37">
@@ -10944,7 +10931,7 @@
       <c r="E107" s="41" t="s">
         <v>320</v>
       </c>
-      <c r="F107" s="227" t="s">
+      <c r="F107" s="225" t="s">
         <v>123</v>
       </c>
       <c r="G107" s="46" t="s">
@@ -10957,7 +10944,7 @@
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A108" s="214">
+      <c r="A108" s="212">
         <v>45201</v>
       </c>
       <c r="B108" s="69" t="s">
@@ -10966,14 +10953,14 @@
       <c r="C108" s="67"/>
       <c r="D108" s="67"/>
       <c r="E108" s="67"/>
-      <c r="F108" s="102"/>
+      <c r="F108" s="100"/>
       <c r="G108" s="67"/>
       <c r="H108" s="67"/>
       <c r="I108" s="67"/>
       <c r="J108" s="67"/>
     </row>
     <row r="109" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A109" s="214">
+      <c r="A109" s="212">
         <v>45202</v>
       </c>
       <c r="B109" s="69" t="s">
@@ -10989,7 +10976,7 @@
       <c r="J109" s="67"/>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A110" s="214">
+      <c r="A110" s="212">
         <v>45203</v>
       </c>
       <c r="B110" s="69" t="s">
@@ -11005,7 +10992,7 @@
       <c r="J110" s="67"/>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A111" s="214">
+      <c r="A111" s="212">
         <v>45204</v>
       </c>
       <c r="B111" s="69" t="s">
@@ -11021,7 +11008,7 @@
       <c r="J111" s="67"/>
     </row>
     <row r="112" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A112" s="214">
+      <c r="A112" s="212">
         <v>45205</v>
       </c>
       <c r="B112" s="69" t="s">
@@ -11069,7 +11056,7 @@
       <c r="J114" s="38"/>
     </row>
     <row r="115" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A115" s="214">
+      <c r="A115" s="212">
         <v>45208</v>
       </c>
       <c r="B115" s="69" t="s">
@@ -11085,7 +11072,7 @@
       <c r="J115" s="67"/>
     </row>
     <row r="116" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A116" s="214">
+      <c r="A116" s="212">
         <v>45209</v>
       </c>
       <c r="B116" s="69" t="s">
@@ -11101,7 +11088,7 @@
       <c r="J116" s="67"/>
     </row>
     <row r="117" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A117" s="214">
+      <c r="A117" s="212">
         <v>45210</v>
       </c>
       <c r="B117" s="69" t="s">
@@ -11110,66 +11097,66 @@
       <c r="C117" s="67"/>
       <c r="D117" s="67"/>
       <c r="E117" s="67"/>
-      <c r="F117" s="229" t="s">
+      <c r="F117" s="227" t="s">
         <v>127</v>
       </c>
-      <c r="G117" s="233" t="s">
+      <c r="G117" s="231" t="s">
         <v>125</v>
       </c>
       <c r="H117" s="67"/>
       <c r="I117" s="67"/>
-      <c r="J117" s="233" t="s">
+      <c r="J117" s="231" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="118" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A118" s="214">
+      <c r="A118" s="212">
         <v>45211</v>
       </c>
       <c r="B118" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C118" s="244" t="s">
+      <c r="C118" s="242" t="s">
         <v>206</v>
       </c>
       <c r="D118" s="67"/>
       <c r="E118" s="67"/>
-      <c r="F118" s="229" t="s">
+      <c r="F118" s="227" t="s">
         <v>128</v>
       </c>
-      <c r="G118" s="233" t="s">
+      <c r="G118" s="231" t="s">
         <v>129</v>
       </c>
       <c r="H118" s="67"/>
       <c r="I118" s="67"/>
-      <c r="J118" s="233" t="s">
+      <c r="J118" s="231" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="119" spans="1:10" s="20" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A119" s="214"/>
+      <c r="A119" s="212"/>
       <c r="B119" s="69"/>
-      <c r="C119" s="243"/>
+      <c r="C119" s="241"/>
       <c r="D119" s="67"/>
       <c r="E119" s="67"/>
-      <c r="F119" s="229" t="s">
+      <c r="F119" s="227" t="s">
         <v>204</v>
       </c>
-      <c r="G119" s="233"/>
+      <c r="G119" s="231"/>
       <c r="H119" s="67"/>
       <c r="I119" s="67"/>
-      <c r="J119" s="233" t="s">
+      <c r="J119" s="231" t="s">
         <v>205</v>
       </c>
     </row>
     <row r="120" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A120" s="214">
+      <c r="A120" s="212">
         <v>45212</v>
       </c>
       <c r="B120" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="C120" s="245" t="s">
+      <c r="C120" s="243" t="s">
         <v>207</v>
       </c>
       <c r="D120" s="67"/>
@@ -11187,7 +11174,7 @@
       <c r="B121" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C121" s="246" t="s">
+      <c r="C121" s="244" t="s">
         <v>326</v>
       </c>
       <c r="D121" s="38"/>
@@ -11205,7 +11192,7 @@
       <c r="B122" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C122" s="246"/>
+      <c r="C122" s="244"/>
       <c r="D122" s="38"/>
       <c r="E122" s="38"/>
       <c r="F122" s="38"/>
@@ -11215,7 +11202,7 @@
       <c r="J122" s="38"/>
     </row>
     <row r="123" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A123" s="214">
+      <c r="A123" s="212">
         <v>45215</v>
       </c>
       <c r="B123" s="69" t="s">
@@ -11231,7 +11218,7 @@
       <c r="J123" s="67"/>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A124" s="214">
+      <c r="A124" s="212">
         <v>45216</v>
       </c>
       <c r="B124" s="69" t="s">
@@ -11247,31 +11234,31 @@
       <c r="J124" s="74"/>
     </row>
     <row r="125" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A125" s="214">
+      <c r="A125" s="212">
         <v>45217</v>
       </c>
       <c r="B125" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C125" s="273" t="s">
+      <c r="C125" s="271" t="s">
         <v>276</v>
       </c>
       <c r="D125" s="22"/>
       <c r="E125" s="22"/>
-      <c r="F125" s="273" t="s">
+      <c r="F125" s="271" t="s">
         <v>276</v>
       </c>
       <c r="G125" s="22" t="s">
         <v>278</v>
       </c>
       <c r="H125" s="22"/>
-      <c r="I125" s="132"/>
-      <c r="J125" s="132" t="s">
+      <c r="I125" s="130"/>
+      <c r="J125" s="130" t="s">
         <v>277</v>
       </c>
     </row>
     <row r="126" spans="1:10" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="214">
+      <c r="A126" s="212">
         <v>45218</v>
       </c>
       <c r="B126" s="69" t="s">
@@ -11280,7 +11267,7 @@
       <c r="C126" s="67"/>
       <c r="D126" s="67"/>
       <c r="E126" s="67"/>
-      <c r="F126" s="227" t="s">
+      <c r="F126" s="225" t="s">
         <v>131</v>
       </c>
       <c r="G126" s="74" t="s">
@@ -11293,7 +11280,7 @@
       </c>
     </row>
     <row r="127" spans="1:10" s="20" customFormat="1" ht="64.5" x14ac:dyDescent="0.25">
-      <c r="A127" s="214">
+      <c r="A127" s="212">
         <v>45219</v>
       </c>
       <c r="B127" s="69" t="s">
@@ -11302,7 +11289,7 @@
       <c r="C127" s="67"/>
       <c r="D127" s="67"/>
       <c r="E127" s="67"/>
-      <c r="F127" s="227" t="s">
+      <c r="F127" s="225" t="s">
         <v>136</v>
       </c>
       <c r="G127" s="74" t="s">
@@ -11353,17 +11340,17 @@
       <c r="B130" s="48" t="s">
         <v>2</v>
       </c>
-      <c r="C130" s="110"/>
-      <c r="D130" s="111"/>
-      <c r="E130" s="111"/>
-      <c r="F130" s="111"/>
-      <c r="G130" s="112"/>
-      <c r="H130" s="113"/>
-      <c r="I130" s="111"/>
-      <c r="J130" s="111"/>
+      <c r="C130" s="108"/>
+      <c r="D130" s="109"/>
+      <c r="E130" s="109"/>
+      <c r="F130" s="109"/>
+      <c r="G130" s="110"/>
+      <c r="H130" s="111"/>
+      <c r="I130" s="109"/>
+      <c r="J130" s="109"/>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A131" s="214">
+      <c r="A131" s="212">
         <v>45223</v>
       </c>
       <c r="B131" s="69" t="s">
@@ -11379,7 +11366,7 @@
       <c r="J131" s="67"/>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A132" s="214">
+      <c r="A132" s="212">
         <v>45224</v>
       </c>
       <c r="B132" s="69" t="s">
@@ -11395,7 +11382,7 @@
       <c r="J132" s="67"/>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A133" s="214">
+      <c r="A133" s="212">
         <v>45225</v>
       </c>
       <c r="B133" s="69" t="s">
@@ -11411,7 +11398,7 @@
       <c r="J133" s="67"/>
     </row>
     <row r="134" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A134" s="214">
+      <c r="A134" s="212">
         <v>45226</v>
       </c>
       <c r="B134" s="69" t="s">
@@ -11420,15 +11407,15 @@
       <c r="C134" s="65"/>
       <c r="D134" s="67"/>
       <c r="E134" s="67"/>
-      <c r="F134" s="229" t="s">
+      <c r="F134" s="227" t="s">
         <v>331</v>
       </c>
-      <c r="G134" s="233" t="s">
+      <c r="G134" s="231" t="s">
         <v>137</v>
       </c>
       <c r="H134" s="67"/>
       <c r="I134" s="67"/>
-      <c r="J134" s="233" t="s">
+      <c r="J134" s="231" t="s">
         <v>138</v>
       </c>
     </row>
@@ -11465,7 +11452,7 @@
       <c r="J136" s="38"/>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A137" s="214">
+      <c r="A137" s="212">
         <v>45229</v>
       </c>
       <c r="B137" s="69" t="s">
@@ -11481,7 +11468,7 @@
       <c r="J137" s="67"/>
     </row>
     <row r="138" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A138" s="214">
+      <c r="A138" s="212">
         <v>45230</v>
       </c>
       <c r="B138" s="69" t="s">
@@ -11498,7 +11485,7 @@
     </row>
     <row r="139" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A139" s="33"/>
-      <c r="B139" s="103"/>
+      <c r="B139" s="101"/>
       <c r="C139" s="71"/>
       <c r="D139" s="71"/>
       <c r="E139" s="71"/>
@@ -11509,10 +11496,10 @@
       <c r="J139" s="71"/>
     </row>
     <row r="140" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="325" t="s">
+      <c r="A140" s="336" t="s">
         <v>25</v>
       </c>
-      <c r="B140" s="320" t="s">
+      <c r="B140" s="328" t="s">
         <v>15</v>
       </c>
       <c r="C140" s="6" t="s">
@@ -11541,8 +11528,8 @@
       </c>
     </row>
     <row r="141" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="325"/>
-      <c r="B141" s="322"/>
+      <c r="A141" s="336"/>
+      <c r="B141" s="331"/>
       <c r="C141" s="19"/>
       <c r="D141" s="21"/>
       <c r="E141" s="16"/>
@@ -11557,9 +11544,9 @@
         <v>31</v>
       </c>
       <c r="B142" s="28"/>
-      <c r="C142" s="78"/>
+      <c r="C142" s="77"/>
       <c r="D142" s="73"/>
-      <c r="E142" s="78"/>
+      <c r="E142" s="77"/>
       <c r="F142" s="73"/>
       <c r="G142" s="74"/>
       <c r="H142" s="73"/>
@@ -11573,17 +11560,17 @@
       <c r="B143" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="C143" s="111"/>
-      <c r="D143" s="111"/>
-      <c r="E143" s="111"/>
-      <c r="F143" s="111"/>
-      <c r="G143" s="111"/>
-      <c r="H143" s="111"/>
-      <c r="I143" s="111"/>
-      <c r="J143" s="111"/>
+      <c r="C143" s="109"/>
+      <c r="D143" s="109"/>
+      <c r="E143" s="109"/>
+      <c r="F143" s="109"/>
+      <c r="G143" s="109"/>
+      <c r="H143" s="109"/>
+      <c r="I143" s="109"/>
+      <c r="J143" s="109"/>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A144" s="214">
+      <c r="A144" s="212">
         <v>45232</v>
       </c>
       <c r="B144" s="69" t="s">
@@ -11599,26 +11586,26 @@
       <c r="J144" s="67"/>
     </row>
     <row r="145" spans="1:10" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="214">
+      <c r="A145" s="212">
         <v>45233</v>
       </c>
       <c r="B145" s="69" t="s">
         <v>6</v>
       </c>
-      <c r="C145" s="235" t="s">
+      <c r="C145" s="233" t="s">
         <v>139</v>
       </c>
       <c r="D145" s="67"/>
       <c r="E145" s="67"/>
-      <c r="F145" s="235" t="s">
+      <c r="F145" s="233" t="s">
         <v>140</v>
       </c>
-      <c r="G145" s="233" t="s">
+      <c r="G145" s="231" t="s">
         <v>141</v>
       </c>
       <c r="H145" s="67"/>
       <c r="I145" s="67"/>
-      <c r="J145" s="233" t="s">
+      <c r="J145" s="231" t="s">
         <v>142</v>
       </c>
     </row>
@@ -11629,7 +11616,7 @@
       <c r="B146" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C146" s="286" t="s">
+      <c r="C146" s="284" t="s">
         <v>329</v>
       </c>
       <c r="D146" s="38"/>
@@ -11647,43 +11634,43 @@
       <c r="B147" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C147" s="246" t="s">
+      <c r="C147" s="244" t="s">
         <v>327</v>
       </c>
       <c r="D147" s="38"/>
-      <c r="E147" s="297" t="s">
+      <c r="E147" s="295" t="s">
         <v>371</v>
       </c>
       <c r="F147" s="38"/>
       <c r="G147" s="38"/>
-      <c r="H147" s="228" t="s">
+      <c r="H147" s="226" t="s">
         <v>328</v>
       </c>
       <c r="I147" s="38"/>
       <c r="J147" s="38"/>
     </row>
     <row r="148" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A148" s="214">
+      <c r="A148" s="212">
         <v>45236</v>
       </c>
       <c r="B148" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C148" s="287" t="s">
+      <c r="C148" s="285" t="s">
         <v>330</v>
       </c>
       <c r="D148" s="67"/>
       <c r="E148" s="67"/>
       <c r="F148" s="67"/>
       <c r="G148" s="67"/>
-      <c r="H148" s="285" t="s">
+      <c r="H148" s="283" t="s">
         <v>328</v>
       </c>
       <c r="I148" s="67"/>
       <c r="J148" s="67"/>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A149" s="214">
+      <c r="A149" s="212">
         <v>45237</v>
       </c>
       <c r="B149" s="69" t="s">
@@ -11699,7 +11686,7 @@
       <c r="J149" s="67"/>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A150" s="214">
+      <c r="A150" s="212">
         <v>45238</v>
       </c>
       <c r="B150" s="69" t="s">
@@ -11715,7 +11702,7 @@
       <c r="J150" s="67"/>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A151" s="214">
+      <c r="A151" s="212">
         <v>45239</v>
       </c>
       <c r="B151" s="69" t="s">
@@ -11731,7 +11718,7 @@
       <c r="J151" s="67"/>
     </row>
     <row r="152" spans="1:10" ht="51" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="214">
+      <c r="A152" s="212">
         <v>45240</v>
       </c>
       <c r="B152" s="69" t="s">
@@ -11740,15 +11727,15 @@
       <c r="C152" s="67"/>
       <c r="D152" s="67"/>
       <c r="E152" s="67"/>
-      <c r="F152" s="229" t="s">
+      <c r="F152" s="227" t="s">
         <v>148</v>
       </c>
-      <c r="G152" s="233" t="s">
+      <c r="G152" s="231" t="s">
         <v>146</v>
       </c>
       <c r="H152" s="67"/>
       <c r="I152" s="67"/>
-      <c r="J152" s="233" t="s">
+      <c r="J152" s="231" t="s">
         <v>147</v>
       </c>
     </row>
@@ -11759,9 +11746,9 @@
       <c r="B153" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C153" s="107"/>
+      <c r="C153" s="105"/>
       <c r="D153" s="45"/>
-      <c r="E153" s="236" t="s">
+      <c r="E153" s="234" t="s">
         <v>143</v>
       </c>
       <c r="F153" s="45"/>
@@ -11781,9 +11768,9 @@
       <c r="B154" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C154" s="107"/>
+      <c r="C154" s="105"/>
       <c r="D154" s="49"/>
-      <c r="E154" s="107"/>
+      <c r="E154" s="105"/>
       <c r="F154" s="38"/>
       <c r="G154" s="40"/>
       <c r="H154" s="38"/>
@@ -11791,7 +11778,7 @@
       <c r="J154" s="46"/>
     </row>
     <row r="155" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A155" s="214">
+      <c r="A155" s="212">
         <v>45243</v>
       </c>
       <c r="B155" s="69" t="s">
@@ -11804,20 +11791,20 @@
       <c r="E155" s="67"/>
       <c r="F155" s="67"/>
       <c r="G155" s="67"/>
-      <c r="H155" s="233" t="s">
+      <c r="H155" s="231" t="s">
         <v>306</v>
       </c>
       <c r="I155" s="67"/>
       <c r="J155" s="67"/>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A156" s="214">
+      <c r="A156" s="212">
         <v>45244</v>
       </c>
       <c r="B156" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C156" s="259" t="s">
+      <c r="C156" s="257" t="s">
         <v>264</v>
       </c>
       <c r="D156" s="67"/>
@@ -11829,13 +11816,13 @@
       <c r="J156" s="67"/>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A157" s="214">
+      <c r="A157" s="212">
         <v>45245</v>
       </c>
       <c r="B157" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C157" s="259" t="s">
+      <c r="C157" s="257" t="s">
         <v>265</v>
       </c>
       <c r="D157" s="67"/>
@@ -11844,16 +11831,16 @@
       <c r="G157" s="70"/>
       <c r="H157" s="70"/>
       <c r="I157" s="67"/>
-      <c r="J157" s="104"/>
+      <c r="J157" s="102"/>
     </row>
     <row r="158" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A158" s="214">
+      <c r="A158" s="212">
         <v>45246</v>
       </c>
       <c r="B158" s="69" t="s">
         <v>5</v>
       </c>
-      <c r="C158" s="259" t="s">
+      <c r="C158" s="257" t="s">
         <v>245</v>
       </c>
       <c r="D158" s="67"/>
@@ -11865,7 +11852,7 @@
       <c r="J158" s="67"/>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A159" s="214">
+      <c r="A159" s="212">
         <v>45247</v>
       </c>
       <c r="B159" s="69" t="s">
@@ -11912,7 +11899,7 @@
       <c r="J161" s="38"/>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A162" s="214">
+      <c r="A162" s="212">
         <v>45250</v>
       </c>
       <c r="B162" s="69" t="s">
@@ -11928,7 +11915,7 @@
       <c r="J162" s="67"/>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A163" s="214">
+      <c r="A163" s="212">
         <v>45251</v>
       </c>
       <c r="B163" s="69" t="s">
@@ -11944,7 +11931,7 @@
       <c r="J163" s="67"/>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A164" s="214">
+      <c r="A164" s="212">
         <v>45252</v>
       </c>
       <c r="B164" s="69" t="s">
@@ -11960,7 +11947,7 @@
       <c r="J164" s="67"/>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A165" s="214">
+      <c r="A165" s="212">
         <v>45253</v>
       </c>
       <c r="B165" s="69" t="s">
@@ -11976,7 +11963,7 @@
       <c r="J165" s="67"/>
     </row>
     <row r="166" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A166" s="214">
+      <c r="A166" s="212">
         <v>45254</v>
       </c>
       <c r="B166" s="69" t="s">
@@ -11984,11 +11971,11 @@
       </c>
       <c r="C166" s="67"/>
       <c r="D166" s="67"/>
-      <c r="E166" s="229" t="s">
+      <c r="E166" s="227" t="s">
         <v>149</v>
       </c>
       <c r="F166" s="67"/>
-      <c r="G166" s="233" t="s">
+      <c r="G166" s="231" t="s">
         <v>150</v>
       </c>
       <c r="H166" s="67"/>
@@ -12004,7 +11991,7 @@
       <c r="B167" s="45" t="s">
         <v>0</v>
       </c>
-      <c r="C167" s="252" t="s">
+      <c r="C167" s="250" t="s">
         <v>238</v>
       </c>
       <c r="D167" s="38"/>
@@ -12024,7 +12011,7 @@
       <c r="B168" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="C168" s="252" t="s">
+      <c r="C168" s="250" t="s">
         <v>239</v>
       </c>
       <c r="D168" s="38"/>
@@ -12036,13 +12023,13 @@
       <c r="J168" s="38"/>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A169" s="214">
+      <c r="A169" s="212">
         <v>45257</v>
       </c>
       <c r="B169" s="69" t="s">
         <v>2</v>
       </c>
-      <c r="C169" s="253" t="s">
+      <c r="C169" s="251" t="s">
         <v>239</v>
       </c>
       <c r="D169" s="67"/>
@@ -12054,13 +12041,13 @@
       <c r="J169" s="70"/>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A170" s="214">
+      <c r="A170" s="212">
         <v>45258</v>
       </c>
       <c r="B170" s="69" t="s">
         <v>3</v>
       </c>
-      <c r="C170" s="254" t="s">
+      <c r="C170" s="252" t="s">
         <v>240</v>
       </c>
       <c r="D170" s="67"/>
@@ -12072,13 +12059,13 @@
       <c r="J170" s="67"/>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A171" s="214">
+      <c r="A171" s="212">
         <v>45259</v>
       </c>
       <c r="B171" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="C171" s="254" t="s">
+      <c r="C171" s="252" t="s">
         <v>241</v>
       </c>
       <c r="D171" s="67"/>
@@ -12090,7 +12077,7 @@
       <c r="J171" s="67"/>
     </row>
     <row r="172" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A172" s="214">
+      <c r="A172" s="212">
         <v>45260</v>
       </c>
       <c r="B172" s="69" t="s">
@@ -12098,11 +12085,11 @@
       </c>
       <c r="C172" s="67"/>
       <c r="D172" s="67"/>
-      <c r="E172" s="229" t="s">
+      <c r="E172" s="227" t="s">
         <v>153</v>
       </c>
       <c r="F172" s="67"/>
-      <c r="G172" s="233" t="s">
+      <c r="G172" s="231" t="s">
         <v>152</v>
       </c>
       <c r="H172" s="67"/>
@@ -12124,10 +12111,10 @@
       <c r="J173" s="71"/>
     </row>
     <row r="174" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A174" s="326" t="s">
+      <c r="A174" s="337" t="s">
         <v>26</v>
       </c>
-      <c r="B174" s="320" t="s">
+      <c r="B174" s="328" t="s">
         <v>15</v>
       </c>
       <c r="C174" s="6" t="s">
@@ -12156,8 +12143,8 @@
       </c>
     </row>
     <row r="175" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A175" s="327"/>
-      <c r="B175" s="323"/>
+      <c r="A175" s="338"/>
+      <c r="B175" s="334"/>
       <c r="C175" s="19"/>
       <c r="D175" s="21"/>
       <c r="E175" s="16"/>
@@ -12171,10 +12158,10 @@
       <c r="A176" s="31" t="s">
         <v>32</v>
       </c>
-      <c r="B176" s="83"/>
-      <c r="C176" s="78"/>
+      <c r="B176" s="82"/>
+      <c r="C176" s="77"/>
       <c r="D176" s="73"/>
-      <c r="E176" s="78"/>
+      <c r="E176" s="77"/>
       <c r="F176" s="73"/>
       <c r="G176" s="74"/>
       <c r="H176" s="73"/>
@@ -12185,10 +12172,10 @@
       <c r="A177" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B177" s="83"/>
-      <c r="C177" s="78"/>
+      <c r="B177" s="82"/>
+      <c r="C177" s="77"/>
       <c r="D177" s="73"/>
-      <c r="E177" s="78"/>
+      <c r="E177" s="77"/>
       <c r="F177" s="66"/>
       <c r="G177" s="74"/>
       <c r="H177" s="73"/>
@@ -12199,10 +12186,10 @@
       <c r="A178" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="B178" s="83"/>
-      <c r="C178" s="78"/>
+      <c r="B178" s="82"/>
+      <c r="C178" s="77"/>
       <c r="D178" s="73"/>
-      <c r="E178" s="78"/>
+      <c r="E178" s="77"/>
       <c r="F178" s="66"/>
       <c r="G178" s="74"/>
       <c r="H178" s="73"/>
@@ -12213,11 +12200,11 @@
       <c r="A179" s="27" t="s">
         <v>187</v>
       </c>
-      <c r="B179" s="83"/>
-      <c r="C179" s="78"/>
+      <c r="B179" s="82"/>
+      <c r="C179" s="77"/>
       <c r="D179" s="73"/>
-      <c r="E179" s="78"/>
-      <c r="F179" s="227" t="s">
+      <c r="E179" s="77"/>
+      <c r="F179" s="225" t="s">
         <v>191</v>
       </c>
       <c r="G179" s="74" t="s">
@@ -12230,17 +12217,17 @@
       </c>
     </row>
     <row r="180" spans="1:10" ht="77.25" x14ac:dyDescent="0.25">
-      <c r="A180" s="215">
+      <c r="A180" s="213">
         <v>45261</v>
       </c>
-      <c r="B180" s="104" t="s">
+      <c r="B180" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="C180" s="227" t="s">
+      <c r="C180" s="225" t="s">
         <v>158</v>
       </c>
       <c r="D180" s="67"/>
-      <c r="E180" s="229" t="s">
+      <c r="E180" s="227" t="s">
         <v>155</v>
       </c>
       <c r="G180" s="70" t="s">
@@ -12269,7 +12256,7 @@
       <c r="J181" s="46"/>
     </row>
     <row r="182" spans="1:10" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A182" s="109">
+      <c r="A182" s="107">
         <v>45263</v>
       </c>
       <c r="B182" s="43" t="s">
@@ -12277,19 +12264,19 @@
       </c>
       <c r="C182" s="38"/>
       <c r="D182" s="38"/>
-      <c r="E182" s="297" t="s">
+      <c r="E182" s="295" t="s">
         <v>383</v>
       </c>
       <c r="F182" s="38"/>
       <c r="G182" s="38"/>
-      <c r="H182" s="228" t="s">
+      <c r="H182" s="226" t="s">
         <v>384</v>
       </c>
       <c r="I182" s="38"/>
       <c r="J182" s="38"/>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A183" s="216">
+      <c r="A183" s="214">
         <v>45264</v>
       </c>
       <c r="B183" s="69" t="s">
@@ -12305,13 +12292,13 @@
       <c r="J183" s="67"/>
     </row>
     <row r="184" spans="1:10" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A184" s="215">
+      <c r="A184" s="213">
         <v>45265</v>
       </c>
-      <c r="B184" s="104" t="s">
+      <c r="B184" s="102" t="s">
         <v>3</v>
       </c>
-      <c r="C184" s="227" t="s">
+      <c r="C184" s="225" t="s">
         <v>161</v>
       </c>
       <c r="D184" s="67"/>
@@ -12327,7 +12314,7 @@
       </c>
     </row>
     <row r="185" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A185" s="216">
+      <c r="A185" s="214">
         <v>45266</v>
       </c>
       <c r="B185" s="69" t="s">
@@ -12336,23 +12323,23 @@
       <c r="C185" s="67"/>
       <c r="D185" s="67"/>
       <c r="E185" s="67"/>
-      <c r="F185" s="235" t="s">
+      <c r="F185" s="233" t="s">
         <v>162</v>
       </c>
-      <c r="G185" s="233" t="s">
+      <c r="G185" s="231" t="s">
         <v>163</v>
       </c>
       <c r="H185" s="67"/>
       <c r="I185" s="67"/>
-      <c r="J185" s="233" t="s">
+      <c r="J185" s="231" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A186" s="215">
+      <c r="A186" s="213">
         <v>45267</v>
       </c>
-      <c r="B186" s="104" t="s">
+      <c r="B186" s="102" t="s">
         <v>5</v>
       </c>
       <c r="C186" s="65"/>
@@ -12365,7 +12352,7 @@
       <c r="J186" s="67"/>
     </row>
     <row r="187" spans="1:10" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A187" s="216">
+      <c r="A187" s="214">
         <v>45268</v>
       </c>
       <c r="B187" s="69" t="s">
@@ -12374,7 +12361,7 @@
       <c r="C187" s="68"/>
       <c r="D187" s="67"/>
       <c r="E187" s="68"/>
-      <c r="F187" s="227" t="s">
+      <c r="F187" s="225" t="s">
         <v>165</v>
       </c>
       <c r="G187" s="70" t="s">
@@ -12387,19 +12374,19 @@
       </c>
     </row>
     <row r="188" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A188" s="109">
+      <c r="A188" s="107">
         <v>45269</v>
       </c>
       <c r="B188" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="C188" s="229" t="s">
+      <c r="C188" s="227" t="s">
         <v>170</v>
       </c>
       <c r="D188" s="38"/>
       <c r="E188" s="38"/>
       <c r="F188" s="38"/>
-      <c r="G188" s="228" t="s">
+      <c r="G188" s="226" t="s">
         <v>168</v>
       </c>
       <c r="H188" s="38"/>
@@ -12417,7 +12404,7 @@
       </c>
       <c r="C189" s="38"/>
       <c r="D189" s="38"/>
-      <c r="E189" s="297"/>
+      <c r="E189" s="295"/>
       <c r="F189" s="38"/>
       <c r="G189" s="38"/>
       <c r="H189" s="38"/>
@@ -12425,29 +12412,29 @@
       <c r="J189" s="38"/>
     </row>
     <row r="190" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A190" s="215">
+      <c r="A190" s="213">
         <v>45271</v>
       </c>
-      <c r="B190" s="104" t="s">
+      <c r="B190" s="102" t="s">
         <v>2</v>
       </c>
       <c r="C190" s="67"/>
       <c r="D190" s="67"/>
       <c r="E190" s="67"/>
-      <c r="F190" s="235" t="s">
+      <c r="F190" s="233" t="s">
         <v>171</v>
       </c>
-      <c r="G190" s="233" t="s">
+      <c r="G190" s="231" t="s">
         <v>172</v>
       </c>
       <c r="H190" s="67"/>
       <c r="I190" s="67"/>
-      <c r="J190" s="233" t="s">
+      <c r="J190" s="231" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A191" s="216">
+      <c r="A191" s="214">
         <v>45272</v>
       </c>
       <c r="B191" s="69" t="s">
@@ -12463,15 +12450,15 @@
       <c r="J191" s="67"/>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A192" s="215">
+      <c r="A192" s="213">
         <v>45273</v>
       </c>
-      <c r="B192" s="104" t="s">
+      <c r="B192" s="102" t="s">
         <v>4</v>
       </c>
       <c r="C192" s="67"/>
       <c r="D192" s="67"/>
-      <c r="E192" s="233"/>
+      <c r="E192" s="231"/>
       <c r="F192" s="67"/>
       <c r="G192" s="67"/>
       <c r="H192" s="67"/>
@@ -12479,7 +12466,7 @@
       <c r="J192" s="67"/>
     </row>
     <row r="193" spans="1:10" ht="60" x14ac:dyDescent="0.25">
-      <c r="A193" s="216">
+      <c r="A193" s="214">
         <v>45274</v>
       </c>
       <c r="B193" s="69" t="s">
@@ -12487,7 +12474,7 @@
       </c>
       <c r="C193" s="67"/>
       <c r="D193" s="67"/>
-      <c r="E193" s="232" t="s">
+      <c r="E193" s="230" t="s">
         <v>377</v>
       </c>
       <c r="F193" s="67"/>
@@ -12503,16 +12490,16 @@
       </c>
     </row>
     <row r="194" spans="1:10" s="53" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A194" s="215">
+      <c r="A194" s="213">
         <v>45275</v>
       </c>
-      <c r="B194" s="104" t="s">
+      <c r="B194" s="102" t="s">
         <v>6</v>
       </c>
       <c r="C194" s="75"/>
       <c r="D194" s="67"/>
       <c r="E194" s="66"/>
-      <c r="F194" s="235" t="s">
+      <c r="F194" s="233" t="s">
         <v>175</v>
       </c>
       <c r="G194" s="70" t="s">
@@ -12533,10 +12520,10 @@
       </c>
       <c r="C195" s="52"/>
       <c r="D195" s="38"/>
-      <c r="E195" s="229" t="s">
+      <c r="E195" s="227" t="s">
         <v>180</v>
       </c>
-      <c r="F195" s="107"/>
+      <c r="F195" s="105"/>
       <c r="G195" s="40" t="s">
         <v>179</v>
       </c>
@@ -12547,7 +12534,7 @@
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A196" s="109">
+      <c r="A196" s="107">
         <v>45277</v>
       </c>
       <c r="B196" s="43" t="s">
@@ -12563,7 +12550,7 @@
       <c r="J196" s="38"/>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A197" s="216">
+      <c r="A197" s="214">
         <v>45278</v>
       </c>
       <c r="B197" s="69" t="s">
@@ -12579,10 +12566,10 @@
       <c r="J197" s="67"/>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A198" s="215">
+      <c r="A198" s="213">
         <v>45279</v>
       </c>
-      <c r="B198" s="104" t="s">
+      <c r="B198" s="102" t="s">
         <v>3</v>
       </c>
       <c r="C198" s="67"/>
@@ -12595,7 +12582,7 @@
       <c r="J198" s="70"/>
     </row>
     <row r="199" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A199" s="216">
+      <c r="A199" s="214">
         <v>45280</v>
       </c>
       <c r="B199" s="69" t="s">
@@ -12604,29 +12591,29 @@
       <c r="C199" s="67"/>
       <c r="D199" s="67"/>
       <c r="E199" s="67"/>
-      <c r="F199" s="235" t="s">
+      <c r="F199" s="233" t="s">
         <v>182</v>
       </c>
-      <c r="G199" s="233" t="s">
+      <c r="G199" s="231" t="s">
         <v>183</v>
       </c>
       <c r="H199" s="67"/>
       <c r="I199" s="67"/>
-      <c r="J199" s="233" t="s">
+      <c r="J199" s="231" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="200" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A200" s="215">
+      <c r="A200" s="213">
         <v>45281</v>
       </c>
-      <c r="B200" s="104" t="s">
+      <c r="B200" s="102" t="s">
         <v>5</v>
       </c>
       <c r="C200" s="66"/>
       <c r="D200" s="67"/>
       <c r="E200" s="67"/>
-      <c r="F200" s="229" t="s">
+      <c r="F200" s="227" t="s">
         <v>185</v>
       </c>
       <c r="G200" s="70" t="s">
@@ -12639,7 +12626,7 @@
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A201" s="216">
+      <c r="A201" s="214">
         <v>45282</v>
       </c>
       <c r="B201" s="69" t="s">
@@ -12655,10 +12642,10 @@
       <c r="J201" s="67"/>
     </row>
     <row r="202" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A202" s="114">
+      <c r="A202" s="112">
         <v>45283</v>
       </c>
-      <c r="B202" s="115" t="s">
+      <c r="B202" s="113" t="s">
         <v>0</v>
       </c>
       <c r="C202" s="38"/>
@@ -12687,10 +12674,10 @@
       <c r="J203" s="38"/>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A204" s="114">
+      <c r="A204" s="112">
         <v>45285</v>
       </c>
-      <c r="B204" s="115" t="s">
+      <c r="B204" s="113" t="s">
         <v>2</v>
       </c>
       <c r="C204" s="38"/>
@@ -12719,10 +12706,10 @@
       <c r="J205" s="38"/>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A206" s="215">
+      <c r="A206" s="213">
         <v>45287</v>
       </c>
-      <c r="B206" s="104" t="s">
+      <c r="B206" s="102" t="s">
         <v>4</v>
       </c>
       <c r="C206" s="67"/>
@@ -12735,7 +12722,7 @@
       <c r="J206" s="67"/>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A207" s="216">
+      <c r="A207" s="214">
         <v>45288</v>
       </c>
       <c r="B207" s="69" t="s">
@@ -12751,10 +12738,10 @@
       <c r="J207" s="67"/>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A208" s="215">
+      <c r="A208" s="213">
         <v>45289</v>
       </c>
-      <c r="B208" s="104" t="s">
+      <c r="B208" s="102" t="s">
         <v>6</v>
       </c>
       <c r="C208" s="67"/>
@@ -12783,7 +12770,7 @@
       <c r="J209" s="38"/>
     </row>
     <row r="210" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A210" s="109">
+      <c r="A210" s="107">
         <v>45291</v>
       </c>
       <c r="B210" s="43" t="s">
@@ -12799,76 +12786,76 @@
       <c r="J210" s="38"/>
     </row>
     <row r="211" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A211" s="219"/>
-      <c r="B211" s="220"/>
-      <c r="C211" s="217"/>
-      <c r="D211" s="218"/>
-      <c r="E211" s="218"/>
-      <c r="F211" s="221"/>
-      <c r="G211" s="221"/>
-      <c r="H211" s="221"/>
-      <c r="I211" s="221"/>
-      <c r="J211" s="221"/>
+      <c r="A211" s="217"/>
+      <c r="B211" s="218"/>
+      <c r="C211" s="215"/>
+      <c r="D211" s="216"/>
+      <c r="E211" s="216"/>
+      <c r="F211" s="219"/>
+      <c r="G211" s="219"/>
+      <c r="H211" s="219"/>
+      <c r="I211" s="219"/>
+      <c r="J211" s="219"/>
     </row>
     <row r="212" spans="1:10" s="20" customFormat="1" ht="27" x14ac:dyDescent="0.3">
-      <c r="A212" s="219"/>
-      <c r="B212" s="291">
+      <c r="A212" s="217"/>
+      <c r="B212" s="289">
         <v>2024</v>
       </c>
-      <c r="C212" s="289" t="s">
+      <c r="C212" s="287" t="s">
         <v>244</v>
       </c>
-      <c r="D212" s="290"/>
-      <c r="E212" s="221"/>
-      <c r="F212" s="221"/>
-      <c r="G212" s="221"/>
-      <c r="H212" s="221"/>
-      <c r="I212" s="221"/>
-      <c r="J212" s="221"/>
+      <c r="D212" s="288"/>
+      <c r="E212" s="219"/>
+      <c r="F212" s="219"/>
+      <c r="G212" s="219"/>
+      <c r="H212" s="219"/>
+      <c r="I212" s="219"/>
+      <c r="J212" s="219"/>
     </row>
     <row r="213" spans="1:10" s="20" customFormat="1" ht="39" x14ac:dyDescent="0.25">
-      <c r="A213" s="219"/>
-      <c r="B213" s="220"/>
-      <c r="C213" s="289" t="s">
+      <c r="A213" s="217"/>
+      <c r="B213" s="218"/>
+      <c r="C213" s="287" t="s">
         <v>332</v>
       </c>
-      <c r="D213" s="288" t="s">
+      <c r="D213" s="286" t="s">
         <v>324</v>
       </c>
-      <c r="E213" s="221"/>
-      <c r="F213" s="221"/>
-      <c r="G213" s="221"/>
-      <c r="H213" s="221"/>
-      <c r="I213" s="221"/>
-      <c r="J213" s="221"/>
+      <c r="E213" s="219"/>
+      <c r="F213" s="219"/>
+      <c r="G213" s="219"/>
+      <c r="H213" s="219"/>
+      <c r="I213" s="219"/>
+      <c r="J213" s="219"/>
     </row>
     <row r="214" spans="1:10" s="20" customFormat="1" ht="26.25" x14ac:dyDescent="0.25">
-      <c r="A214" s="219"/>
-      <c r="B214" s="220"/>
-      <c r="C214" s="289" t="s">
+      <c r="A214" s="217"/>
+      <c r="B214" s="218"/>
+      <c r="C214" s="287" t="s">
         <v>333</v>
       </c>
-      <c r="D214" s="292" t="s">
+      <c r="D214" s="290" t="s">
         <v>334</v>
       </c>
-      <c r="E214" s="221"/>
-      <c r="F214" s="221"/>
-      <c r="G214" s="221"/>
-      <c r="H214" s="221"/>
-      <c r="I214" s="221"/>
-      <c r="J214" s="221"/>
+      <c r="E214" s="219"/>
+      <c r="F214" s="219"/>
+      <c r="G214" s="219"/>
+      <c r="H214" s="219"/>
+      <c r="I214" s="219"/>
+      <c r="J214" s="219"/>
     </row>
     <row r="215" spans="1:10" s="20" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A215" s="219"/>
-      <c r="B215" s="220"/>
-      <c r="C215" s="221"/>
-      <c r="D215" s="221"/>
-      <c r="E215" s="221"/>
-      <c r="F215" s="221"/>
-      <c r="G215" s="221"/>
-      <c r="H215" s="221"/>
-      <c r="I215" s="221"/>
-      <c r="J215" s="221"/>
+      <c r="A215" s="217"/>
+      <c r="B215" s="218"/>
+      <c r="C215" s="219"/>
+      <c r="D215" s="219"/>
+      <c r="E215" s="219"/>
+      <c r="F215" s="219"/>
+      <c r="G215" s="219"/>
+      <c r="H215" s="219"/>
+      <c r="I215" s="219"/>
+      <c r="J215" s="219"/>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A216" s="34"/>
@@ -12901,19 +12888,19 @@
       <c r="A221" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="B221" s="282">
+      <c r="B221" s="280">
         <v>45014</v>
       </c>
-      <c r="C221" s="336" t="s">
+      <c r="C221" s="302" t="s">
         <v>386</v>
       </c>
-      <c r="D221" s="337" t="s">
+      <c r="D221" s="303" t="s">
         <v>81</v>
       </c>
-      <c r="E221" s="338" t="s">
+      <c r="E221" s="304" t="s">
         <v>309</v>
       </c>
-      <c r="F221" s="339" t="s">
+      <c r="F221" s="305" t="s">
         <v>80</v>
       </c>
       <c r="G221" s="22"/>
@@ -12922,17 +12909,17 @@
       <c r="A222" s="60" t="s">
         <v>37</v>
       </c>
-      <c r="B222" s="282">
+      <c r="B222" s="280">
         <v>44999</v>
       </c>
-      <c r="C222" s="336" t="s">
+      <c r="C222" s="302" t="s">
         <v>387</v>
       </c>
-      <c r="D222" s="338"/>
-      <c r="E222" s="338" t="s">
+      <c r="D222" s="304"/>
+      <c r="E222" s="304" t="s">
         <v>317</v>
       </c>
-      <c r="F222" s="340"/>
+      <c r="F222" s="306"/>
       <c r="G222" s="22"/>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.25">
@@ -13059,18 +13046,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="B105:B106"/>
+    <mergeCell ref="B140:B141"/>
+    <mergeCell ref="B174:B175"/>
+    <mergeCell ref="A105:A106"/>
+    <mergeCell ref="A140:A141"/>
+    <mergeCell ref="A174:A175"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="B1:B2"/>
     <mergeCell ref="B36:B37"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="B72:B73"/>
     <mergeCell ref="A72:A73"/>
-    <mergeCell ref="B105:B106"/>
-    <mergeCell ref="B140:B141"/>
-    <mergeCell ref="B174:B175"/>
-    <mergeCell ref="A105:A106"/>
-    <mergeCell ref="A140:A141"/>
-    <mergeCell ref="A174:A175"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
